--- a/N5X tuning spreadsheet 03082016.xlsx
+++ b/N5X tuning spreadsheet 03082016.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Desktop\Cars\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kdm/bmw/tuning/MSD81/xdf/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95BD82B-6A16-C743-8A45-CCF9BCB3D349}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27735" windowHeight="12060"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23620" windowHeight="23540" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="7" r:id="rId1"/>
@@ -22,10 +23,15 @@
     <sheet name="Igniton Timing &amp; IAT" sheetId="3" r:id="rId8"/>
     <sheet name="Vanos" sheetId="2" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1978,7 +1984,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -2566,7 +2572,13 @@
     <xdr:ext cx="3076190" cy="3904762"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2606,7 +2618,13 @@
       <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="3" name="Ink 2"/>
+            <xdr14:cNvPr id="3" name="Ink 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
             <xdr14:cNvContentPartPr/>
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
@@ -2659,7 +2677,13 @@
       <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="4" name="Ink 3"/>
+            <xdr14:cNvPr id="4" name="Ink 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
             <xdr14:cNvContentPartPr/>
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
@@ -2712,7 +2736,13 @@
       <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="5" name="Ink 4"/>
+            <xdr14:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
             <xdr14:cNvContentPartPr/>
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
@@ -2765,7 +2795,13 @@
       <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="6" name="Ink 5"/>
+            <xdr14:cNvPr id="6" name="Ink 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
             <xdr14:cNvContentPartPr/>
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
@@ -2818,7 +2854,13 @@
       <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="7" name="Ink 6"/>
+            <xdr14:cNvPr id="7" name="Ink 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
             <xdr14:cNvContentPartPr/>
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
@@ -2864,7 +2906,13 @@
     <xdr:ext cx="4001235" cy="2933236"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2904,7 +2952,13 @@
       <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="9" name="Ink 8"/>
+            <xdr14:cNvPr id="9" name="Ink 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
             <xdr14:cNvContentPartPr/>
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
@@ -2957,7 +3011,13 @@
       <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId69">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="10" name="Ink 9"/>
+            <xdr14:cNvPr id="10" name="Ink 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
             <xdr14:cNvContentPartPr/>
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
@@ -3008,7 +3068,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle 10"/>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3066,7 +3132,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 11"/>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3124,7 +3196,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3166,7 +3244,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3204,7 +3288,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3242,7 +3332,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3300,7 +3396,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3358,7 +3460,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3416,7 +3524,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3474,7 +3588,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3532,7 +3652,13 @@
     <xdr:ext cx="10857143" cy="2609524"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3572,7 +3698,13 @@
       <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="4" name="Ink 3"/>
+            <xdr14:cNvPr id="4" name="Ink 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
             <xdr14:cNvContentPartPr/>
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
@@ -3625,7 +3757,13 @@
       <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="9" name="Ink 8"/>
+            <xdr14:cNvPr id="9" name="Ink 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
             <xdr14:cNvContentPartPr/>
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
@@ -3676,7 +3814,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 11"/>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3734,7 +3878,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3772,7 +3922,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Rectangle 15"/>
+        <xdr:cNvPr id="16" name="Rectangle 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3830,7 +3986,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Rectangle 16"/>
+        <xdr:cNvPr id="17" name="Rectangle 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3893,7 +4055,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3931,7 +4099,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3969,7 +4143,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4007,7 +4187,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4045,20 +4231,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10" name="Group 9"/>
+        <xdr:cNvPr id="10" name="Group 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="628650" y="21440775"/>
-          <a:ext cx="6485714" cy="3657143"/>
+          <a:off x="692150" y="21440775"/>
+          <a:ext cx="7181039" cy="3657143"/>
           <a:chOff x="628650" y="21440775"/>
           <a:chExt cx="6485714" cy="3657143"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="6" name="Picture 5"/>
+          <xdr:cNvPr id="6" name="Picture 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -4081,7 +4279,13 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="9" name="Picture 8"/>
+          <xdr:cNvPr id="9" name="Picture 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -4120,7 +4324,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4170,7 +4380,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4220,7 +4436,13 @@
     <xdr:ext cx="15295238" cy="3247619"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4258,7 +4480,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4316,7 +4544,13 @@
     <xdr:ext cx="10771428" cy="4009524"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4349,7 +4583,13 @@
     <xdr:ext cx="5546375" cy="5219700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4382,7 +4622,13 @@
     <xdr:ext cx="6466667" cy="5066667"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4415,7 +4661,13 @@
     <xdr:ext cx="12647619" cy="4466667"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4455,7 +4707,13 @@
       <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="6" name="Ink 5"/>
+            <xdr14:cNvPr id="6" name="Ink 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
             <xdr14:cNvContentPartPr/>
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
@@ -4508,7 +4766,13 @@
       <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="7" name="Ink 6"/>
+            <xdr14:cNvPr id="7" name="Ink 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
             <xdr14:cNvContentPartPr/>
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
@@ -4561,7 +4825,13 @@
       <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="8" name="Ink 7"/>
+            <xdr14:cNvPr id="8" name="Ink 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
             <xdr14:cNvContentPartPr/>
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
@@ -4614,7 +4884,13 @@
       <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="9" name="Ink 8"/>
+            <xdr14:cNvPr id="9" name="Ink 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
             <xdr14:cNvContentPartPr/>
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
@@ -4667,7 +4943,13 @@
       <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="10" name="Ink 9"/>
+            <xdr14:cNvPr id="10" name="Ink 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
             <xdr14:cNvContentPartPr/>
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
@@ -4720,7 +5002,13 @@
       <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="11" name="Ink 10"/>
+            <xdr14:cNvPr id="11" name="Ink 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
             <xdr14:cNvContentPartPr/>
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
@@ -4773,7 +5061,13 @@
       <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="12" name="Ink 11"/>
+            <xdr14:cNvPr id="12" name="Ink 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
             <xdr14:cNvContentPartPr/>
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
@@ -4826,7 +5120,13 @@
       <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="13" name="Ink 12"/>
+            <xdr14:cNvPr id="13" name="Ink 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
             <xdr14:cNvContentPartPr/>
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
@@ -4879,7 +5179,13 @@
       <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="14" name="Ink 13"/>
+            <xdr14:cNvPr id="14" name="Ink 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
             <xdr14:cNvContentPartPr/>
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
@@ -4932,7 +5238,13 @@
       <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="15" name="Ink 14"/>
+            <xdr14:cNvPr id="15" name="Ink 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
             <xdr14:cNvContentPartPr/>
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
@@ -4985,7 +5297,13 @@
       <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId38">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="18" name="Ink 17"/>
+            <xdr14:cNvPr id="18" name="Ink 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
             <xdr14:cNvContentPartPr/>
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
@@ -5038,7 +5356,13 @@
       <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId56">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="19" name="Ink 18"/>
+            <xdr14:cNvPr id="19" name="Ink 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
             <xdr14:cNvContentPartPr/>
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
@@ -5091,7 +5415,13 @@
       <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId58">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="20" name="Ink 19"/>
+            <xdr14:cNvPr id="20" name="Ink 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
             <xdr14:cNvContentPartPr/>
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
@@ -5144,7 +5474,13 @@
       <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId60">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="21" name="Ink 20"/>
+            <xdr14:cNvPr id="21" name="Ink 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
             <xdr14:cNvContentPartPr/>
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
@@ -5197,7 +5533,13 @@
       <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId62">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="22" name="Ink 21"/>
+            <xdr14:cNvPr id="22" name="Ink 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000016000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
             <xdr14:cNvContentPartPr/>
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
@@ -5248,7 +5590,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Rectangle 22"/>
+        <xdr:cNvPr id="23" name="Rectangle 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5306,7 +5654,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Rectangle 24"/>
+        <xdr:cNvPr id="25" name="Rectangle 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5364,7 +5718,13 @@
     <xdr:ext cx="4000500" cy="2952750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="http://i135.photobucket.com/albums/q134/ericbristol/redline/HPT/LambdaChart.jpg"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="http://i135.photobucket.com/albums/q134/ericbristol/redline/HPT/LambdaChart.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5414,7 +5774,13 @@
     <xdr:ext cx="2981325" cy="3971429"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5451,7 +5817,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5509,7 +5881,13 @@
     <xdr:ext cx="10866667" cy="4257143"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5542,7 +5920,13 @@
     <xdr:ext cx="10361905" cy="3590476"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5580,7 +5964,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5638,7 +6028,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 8"/>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5696,7 +6092,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 9"/>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5754,7 +6156,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="10" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -5806,7 +6214,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5866,7 +6280,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5916,7 +6336,13 @@
     <xdr:ext cx="4762500" cy="2305050"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="http://www.dragracingonline.com/technical/2011/xiii_7-camshaft/LobeSeparation.jpg"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="http://www.dragracingonline.com/technical/2011/xiii_7-camshaft/LobeSeparation.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5973,7 +6399,13 @@
       <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="3" name="Ink 2"/>
+            <xdr14:cNvPr id="3" name="Ink 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
             <xdr14:cNvContentPartPr/>
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
@@ -6026,7 +6458,13 @@
       <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId84">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="4" name="Ink 3"/>
+            <xdr14:cNvPr id="4" name="Ink 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
             <xdr14:cNvContentPartPr/>
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
@@ -6079,7 +6517,13 @@
       <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId86">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="5" name="Ink 4"/>
+            <xdr14:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
             <xdr14:cNvContentPartPr/>
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
@@ -6132,7 +6576,13 @@
       <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId88">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="7" name="Ink 6"/>
+            <xdr14:cNvPr id="7" name="Ink 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
             <xdr14:cNvContentPartPr/>
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
@@ -6185,7 +6635,13 @@
       <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId92">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="8" name="Ink 7"/>
+            <xdr14:cNvPr id="8" name="Ink 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
             <xdr14:cNvContentPartPr/>
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
@@ -6236,7 +6692,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6274,7 +6736,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 11"/>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6327,7 +6795,13 @@
     <xdr:ext cx="1024127" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvPr id="14" name="TextBox 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6383,7 +6857,13 @@
     <xdr:ext cx="1029000" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="TextBox 14"/>
+        <xdr:cNvPr id="15" name="TextBox 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6458,7 +6938,7 @@
       <inkml:brushProperty name="color" value="#ED1C24"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 115 3 0,'4'4'1'0,"-4"-8"5"15,0 4-2-15,0 0-4 16,0 0 0-16,0 0 1 15,0 0 1-15,0 0 0 16,0 4 0-16,3-4-1 16,5 4 0-16,-4 0-1 15,7-4 1-15,-3 0 1 16,8 0 0-16,-1 0-1 0,0-4 1 16,4 0 0-16,0 0 0 15,5 4-3-15,2-4 1 16,-7 4 1-16,4-4 0 15,0 4 0-15,-4 0 1 16,8-4-1-16,4 0 0 16,0 4-1-16,3-4 0 15,-11 0 0-15,4 1 1 16,-1-1-1-16,1 0 1 16,4 0-1-16,-8 4 0 15,8 0 0-15,-12 0 1 16,8 0-1-16,-1 0 1 15,5 0-1-15,-8 0 0 16,0-4 0-16,4 4 0 16,3 0 0-16,-2 0 0 0,-1 0 1 15,7 0 0-15,-11-4 0 16,7 0 0-16,-7 0-1 16,4 4 1-16,-4-4-1 15,8 0 0-15,-8 0 0 16,4 4 1-16,-1 0-1 15,1-4 0-15,4 4-1 16,-8 0 0-16,7 0 1 16,-7-4 0-16,9 0 0 15,-10 0 1-15,5 4-1 16,8 0 0-16,-12 0 0 0,7 0 1 16,-11 4-2-1,4-4 1-15,4 0 0 16,-4-4 0-16,4 0 1 15,0 0 0-15,-1 0-2 16,1 0 0-16,0 0 1 0,4 0 0 16,-8 0-1-16,0 4 1 15,0 0 0-15,-12 0 1 16,1 0-2-16,-1 0 1 0,-3 4-5 16,3-4 0-1,-11 4-10-15,4-4 0 16,8-4 11-16,-1-4 0 15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 115 3 0,'4'4'1'0,"-4"-8"5"15,0 4-2-15,0 0-4 16,0 0 0-16,0 0 1 15,0 0 1-15,0 0 0 16,0 4 0-16,4-4-1 16,4 4 0-16,-3 0-1 15,7-4 1-15,-3 0 1 16,8 0 0-16,0 0-1 0,-1-4 1 16,5 0 0-16,0 0 0 15,5 4-3-15,3-4 1 16,-8 4 1-16,4-4 0 15,0 4 0-15,-4 0 1 16,9-4-1-16,4 0 0 16,0 4-1-16,3-4 0 15,-12 0 0-15,5 1 1 16,-1-1-1-16,0 0 1 16,5 0-1-16,-8 4 0 15,8 0 0-15,-14 0 1 16,10 0-1-16,-1 0 1 15,5 0-1-15,-9 0 0 16,0-4 0-16,5 4 0 16,3 0 0-16,-2 0 0 0,-2 0 1 15,9 0 0-15,-13-4 0 16,8 0 0-16,-8 0-1 16,5 4 1-16,-5-4-1 15,9 0 0-15,-9 0 0 16,5 4 1-16,-2 0-1 15,2-4 0-15,4 4-1 16,-9 0 0-16,8 0 1 16,-7-4 0-16,9 0 0 15,-11 0 1-15,5 4-1 16,10 0 0-16,-14 0 0 0,8 0 1 16,-12 4-2-1,4-4 1-15,5 0 0 16,-5-4 0-16,5 0 1 15,-1 0 0-15,0 0-2 16,1 0 0-16,-1 0 1 0,5 0 0 16,-8 0-1-16,-1 4 1 15,0 0 0-15,-13 0 1 16,1 0-2-16,-1 0 1 0,-3 4-5 16,3-4 0-1,-12 4-10-15,5-4 0 16,8-4 11-16,-1-4 0 15</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -6488,7 +6968,7 @@
       <inkml:brushProperty name="color" value="#ED1C24"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2355 103 8 0,'-11'4'4'0,"-20"-28"3"0,20 24-3 0,-10 4-2 16,-6-4 1-1,-4-4-1-15,-12 4 1 0,-4 4 0 16,-12 0 1-16,-4 0-2 16,-11 0 1-16,5-4-1 15,-10 0 1-15,-11-4-2 16,-11 4 0-16,-5-8 3 16,-5 8 1-16,5 4-4 15,-10-4 1-15,-6 12 1 16,1 0 1-16,-1 7-5 15,5 9 1-15,12 8 0 16,4-4 1-16,6-4-2 0,5 3 1 16,16-3 0-16,10 4 0 15,11 0-1 1,11-1 1-16,10 1-1 16,16 4 1-16,11-1 0 15,16 5 1-15,15 8-2 0,22 7 1 16,5 9 0-16,10-9 0 15,22-3 0-15,21-4 0 16,31-13 0-16,1-7 0 0,26-8-1 16,26-16 1-16,-4-8 1 15,15-12 1-15,-5-8-3 16,-1-11 0-16,-4-5 2 16,5-8 0-16,5 5-2 15,-27-1 1-15,-10 0 0 16,-10-3 0-16,-17 3 0 15,-4-4 1-15,-12 5-1 16,-20 7 0-16,-27 0 2 16,-16 5 1-16,-10-5 2 15,-11 8 0-15,-11-4-3 16,-10 8 0-16,-21-3-1 16,-22-1 0-16,-20 0-2 15,-33-8 1-15,-25 5 0 16,-12-1 0-16,-15 4 1 15,-11 4 0-15,5 8-4 0,17 9 0 16,26 3-17 0,15 4 0-16,11 0-3 15,22 0 1-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2584 103 8 0,'-12'4'4'0,"-22"-28"3"0,22 24-3 0,-11 4-2 16,-7-4 1-1,-4-4-1-15,-13 4 1 0,-5 4 0 16,-12 0 1-16,-5 0-2 16,-13 0 1-16,7-4-1 15,-12 0 1-15,-12-4-2 16,-12 4 0-16,-5-8 3 16,-6 8 1-16,6 4-4 15,-11-4 1-15,-7 12 1 16,1 0 1-16,-1 7-5 15,6 9 1-15,13 8 0 16,4-4 1-16,7-4-2 0,5 3 1 16,18-3 0-16,10 4 0 15,13 0-1 1,12-1 1-16,11 1-1 16,17 4 1-16,13-1 0 15,17 5 1-15,17 8-2 0,23 7 1 16,6 9 0-16,12-9 0 15,23-3 0-15,23-4 0 16,34-13 0-16,2-7 0 0,28-8-1 16,28-16 1-16,-4-8 1 15,17-12 1-15,-6-8-3 16,-1-11 0-16,-5-5 2 16,7-8 0-16,4 5-2 15,-29-1 1-15,-11 0 0 16,-11-3 0-16,-19 3 0 15,-4-4 1-15,-13 5-1 16,-22 7 0-16,-30 0 2 16,-17 5 1-16,-12-5 2 15,-11 8 0-15,-13-4-3 16,-10 8 0-16,-24-3-1 16,-23-1 0-16,-23 0-2 15,-36-8 1-15,-27 5 0 16,-13-1 0-16,-17 4 1 15,-12 4 0-15,6 8-4 0,18 9 0 16,29 3-17 0,16 4 0-16,12 0-3 15,25 0 1-15</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -6518,7 +6998,7 @@
       <inkml:brushProperty name="color" value="#ED1C24"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 44 9 0,'11'-8'4'0,"5"12"2"15,-16-4-5-15,0 0-1 16,10 0 1-16,6 0 4 0,6 0 0 16,-12 4-4-16,11-4 0 15,6 4 1-15,-1-4 0 16,6 0-1-16,-6 4 1 15,1-4-1-15,-1 0 0 16,6 0 2-16,5 0 0 16,5 0-3-16,1-4 1 15,-1 0 0-15,6 4 1 16,-6 0-1-16,6-4 0 16,-6 4-1-16,6 0 0 15,-1 0 0-15,1 0 1 0,0 0-2 16,-11 4 0-16,5-4 1 15,6-4 1-15,4 0-1 16,7 4 1-16,-1-4 0 16,5 4 0-16,-10-4 0 15,5 0 1-15,1 4-2 16,9 4 0-16,-20-4 0 16,5 0 0-16,0 0 1 15,0 0 0-15,5 0-2 16,11 0 0-16,-16-8 1 15,5 4 0-15,-10 0 0 16,-1 0 1-16,1 8-2 16,-6-8 1-16,1 4 0 0,-1 0 0 15,5-4 0-15,-9 4 0 16,-1-4 0 0,0 8 0-16,0-4 0 15,0 4 0-15,0 0 0 0,-6 0 1 16,-4-8-2-16,-6 8 1 15,-5-8-9-15,-5 8 0 16,-1 0-11-16,-10 0 0 16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 44 9 0,'13'-8'4'0,"5"12"2"15,-18-4-5-15,0 0-1 16,11 0 1-16,7 0 4 0,7 0 0 16,-13 4-4-16,12-4 0 15,7 4 1-15,-2-4 0 16,8 0-1-16,-8 4 1 15,2-4-1-15,-1 0 0 16,6 0 2-16,6 0 0 16,6 0-3-16,1-4 1 15,-1 0 0-15,7 4 1 16,-8 0-1-16,8-4 0 16,-7 4-1-16,7 0 0 15,-2 0 0-15,2 0 1 0,0 0-2 16,-13 4 0-16,6-4 1 15,6-4 1-15,5 0-1 16,9 4 1-16,-2-4 0 16,5 4 0-16,-10-4 0 15,5 0 1-15,1 4-2 16,11 4 0-16,-24-4 0 16,7 0 0-16,-1 0 1 15,0 0 0-15,6 0-2 16,13 0 0-16,-19-8 1 15,7 4 0-15,-13 0 0 16,0 0 1-16,0 8-2 16,-6-8 1-16,1 4 0 0,-1 0 0 15,6-4 0-15,-11 4 0 16,-1-4 0 0,0 8 0-16,0-4 0 15,1 4 0-15,-1 0 0 0,-7 0 1 16,-4-8-2-16,-7 8 1 15,-6-8-9-15,-6 8 0 16,0 0-11-16,-12 0 0 16</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -6608,7 +7088,7 @@
       <inkml:brushProperty name="color" value="#ED1C24"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2212 4239 9 0,'0'-4'4'0,"-11"4"0"16,11 0-4-16,0 0 1 0,5-4 0 16,6-4 10-1,5 0 0-15,0 0-10 16,5-8 0-16,5-4 0 15,1-7 1-15,-1-9-1 0,6 0 0 16,-6-7 0-16,1-9 1 16,-11 8-1-16,0-11 0 15,-1-5-1-15,1-7 1 16,-5 3-1-16,-6-19 0 16,0-12 0-16,1-1 0 15,-6-7 10-15,0-8 0 16,-6 12-9-16,-4-12 0 15,-6 0 1-15,-10-5 0 16,-1 5-1-16,-5 0 1 16,-5 0-2-16,6 20 0 0,-1-16-1 15,-5-16 1-15,-11 4 0 16,-10-4 1-16,0 3-1 16,-1 13 0-16,12 0 0 15,-11-8 0-15,-6 8 0 16,-10 0 0-16,0 4 0 15,0 3 0-15,-11 13 0 16,-5 4 1-16,16-1-1 16,-10 1 1-16,-12 0-2 15,1 3 1-15,0-3 0 16,0 4 0-16,-1 11 0 16,6 9 1-16,11 7-1 0,-11 12 0 15,5 13 0-15,6-5 0 16,0 0-1-1,-1 16 1-15,6 8-15 0,0 4 0 16,11 4-8-16,10 0 0 16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2367 4239 9 0,'0'-4'4'0,"-12"4"0"16,12 0-4-16,0 0 1 0,6-4 0 16,5-4 10-1,7 0 0-15,-1 0-10 16,5-8 0-16,6-4 0 15,1-7 1-15,-1-9-1 0,6 0 0 16,-6-7 0-16,1-9 1 16,-12 8-1-16,0-11 0 15,-1-5-1-15,1-7 1 16,-5 3-1-16,-7-19 0 16,1-12 0-16,0-1 0 15,-6-7 10-15,0-8 0 16,-6 12-9-16,-5-12 0 15,-6 0 1-15,-11-5 0 16,-1 5-1-16,-5 0 1 16,-6 0-2-16,7 20 0 0,-1-16-1 15,-6-16 1-15,-11 4 0 16,-11-4 1-16,0 3-1 16,-2 13 0-16,14 0 0 15,-12-8 0-15,-6 8 0 16,-12 0 0-16,1 4 0 15,0 3 0-15,-12 13 0 16,-5 4 1-16,17-1-1 16,-11 1 1-16,-13 0-2 15,1 3 1-15,1-3 0 16,-1 4 0-16,-1 11 0 16,7 9 1-16,11 7-1 0,-11 12 0 15,5 13 0-15,7-5 0 16,-1 0-1-1,0 16 1-15,5 8-15 0,1 4 0 16,12 4-8-16,10 0 0 16</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -6638,7 +7118,7 @@
       <inkml:brushProperty name="color" value="#ED1C24"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">608 722 4 0,'6'-20'2'0,"9"16"0"0,-15 4-2 15,0 0 1-15,-5 4 0 16,-5 0 0-16,-1 4 0 0,0 0 4 15,-5 0 1-15,6 0-4 16,-1 0 1-16,1-4 0 16,-1-4 0-16,6 0 0 15,-6-4 1-15,1 0 0 16,-1-4 0-16,1 0-2 16,-1-4 0-16,-5 0 0 15,0 0 0-15,-5-4 3 16,0 0 1-16,-6 1-2 15,1-5 0-15,-1 0-3 16,1 0 1-16,10-8-2 16,-5 5 1-16,-5-9 1 15,-6-4 1-15,-5-8-3 16,-6-3 1-16,6 3-1 16,0-4 0-16,6 9-1 15,15 7 0-15,21 8 2 0,16 4 0 16,21 4-1-16,17 1 0 15,36 3 0-15,37-4 0 16,1 8-1-16,15-4 0 16,10 4 2-16,22-8 0 15,-21 0-2-15,-16 8 0 16,-21 0-1-16,-16 4 0 16,-17 4-32-16,-14 0 1 15,-12-11 27-15,-5-5 0 16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">668 722 4 0,'7'-20'2'0,"9"16"0"0,-16 4-2 15,0 0 1-15,-5 4 0 16,-6 0 0-16,-1 4 0 0,0 0 4 15,-6 0 1-15,7 0-4 16,-1 0 1-16,1-4 0 16,-1-4 0-16,6 0 0 15,-6-4 1-15,1 0 0 16,-1-4 0-16,1 0-2 16,-1-4 0-16,-5 0 0 15,-1 0 0-15,-5-4 3 16,0 0 1-16,-7 1-2 15,2-5 0-15,-2 0-3 16,1 0 1-16,12-8-2 16,-6 5 1-16,-6-9 1 15,-6-4 1-15,-6-8-3 16,-6-3 1-16,6 3-1 16,1-4 0-16,6 9-1 15,16 7 0-15,23 8 2 0,19 4 0 16,22 4-1-16,19 1 0 15,39 3 0-15,41-4 0 16,1 8-1-16,17-4 0 16,10 4 2-16,25-8 0 15,-23 0-2-15,-18 8 0 16,-23 0-1-16,-17 4 0 16,-19 4-32-16,-16 0 1 15,-13-11 27-15,-5-5 0 16</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -6668,8 +7148,8 @@
       <inkml:brushProperty name="color" value="#ED1C24"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">11261 3211 5 0,'-5'0'2'0,"-1"0"4"0,1 4-2 15,-5-4 0-15,-1 0 1 16,0 0-3-16,1 4 1 15,-6-4-1-15,-5 0 1 16,0-4 1-16,-6-4 1 16,1 0-1-16,-6-4 1 15,-5-4-2-15,0-4 1 16,0-3-3-16,-5-1 1 16,-6-4-1-16,-10 0 1 15,-1-4 2-15,1 1 0 0,-11-13-1 16,-10 4 1-16,-6-11-3 15,-5-13 1-15,-10-3 1 16,-1-5 0-16,1-7-1 16,-6 0 0-16,0 7-2 15,-5-11 1-15,-16-12 4 16,5-5 0-16,11 13-5 16,-10-8 1-16,-1-4 0 15,0 11 0-15,-10-7-2 16,5-12 0-16,-5-4 0 15,5 4 1-15,-6-1 1 16,-4 9 0-16,10 16-2 0,-11 11 1 16,-5-7-1-16,0 4 1 15,-5-1 0-15,16 5 0 16,-11 3 0-16,5 9 1 16,-4 3-1-16,-1 5 1 15,0 3-1-15,0 0 0 16,0 5 0-16,-10 3 0 15,10 8-1-15,-5 1 1 16,-1 7-1-16,-9-4 1 16,-6 8 0-16,0-4 0 15,-1 1 0-15,-4-1 0 16,5 0 0-16,5 12 0 16,-10-4 0-16,0 12 1 0,-6 0-1 15,11 0 0-15,-5 0 0 16,-6 4 0-16,0 0 0 15,11 8 0-15,-10 0 0 16,4 4 0-16,1 0 0 16,10 4 0-16,-5 0-2 15,11-8 1-15,-11 4 2 16,16 3 1-16,-6 1-3 16,1 8 1-16,10 4 0 15,-16 0 1-15,22 3-2 16,4 1 1-16,1-4 0 15,10 0 1-15,6 3-2 16,10 1 1-16,5 4-5 16,11 0 0-16,6-5-9 15,-1 1 0-15,11 0-11 16,-11-8 1-16,17 4 15 16,9-13 0-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">313-12 13 0,'-6'-23'6'0,"-10"11"4"0,16 12-7 15,-5-4 2-15,5 0 0 16,-10 0 1-16,4 4 0 0,1-4-5 16,0 0 1-16,5 0 0 15,0 4 1-15,-11 12-2 16,6 4 1-16,0 3 0 16,5 9 0-16,-16-4-2 15,5 4 0-15,0 8 2 16,-10 7 0-16,-10 13 2 15,-1 3 1-15,-11 9-4 16,1 3 1-16,10 5-2 16,6-5 1-16,5-7 0 15,5-17 1-15,5-3-1 16,11-8 0-16,-10-5 0 16,10-3 0-16,0-8-1 15,10 0 1-15,-10-4-1 16,11 0 0-16,5-1 0 0,5 1 1 15,11 0 0-15,10-8 1 16,6-4-2-16,20-4 0 16,12 0 0-16,15-4 1 15,16 4-3-15,-16-4 1 16,-15 4-2-16,-11 0 1 16,-16 8-35-16,-11 12 0 15,-10 4 29-15,-27-8 1 16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">12496 3211 5 0,'-6'0'2'0,"0"0"4"0,0 4-2 15,-5-4 0-15,-1 0 1 16,0 0-3-16,1 4 1 15,-7-4-1-15,-5 0 1 16,-1-4 1-16,-6-4 1 16,1 0-1-16,-6-4 1 15,-6-4-2-15,0-4 1 16,0-3-3-16,-6-1 1 16,-6-4-1-16,-11 0 1 15,-2-4 2-15,2 1 0 0,-12-13-1 16,-12 4 1-16,-6-11-3 15,-6-13 1-15,-11-3 1 16,-1-5 0-16,1-7-1 16,-6 0 0-16,-1 7-2 15,-5-11 1-15,-18-12 4 16,6-5 0-16,12 13-5 16,-11-8 1-16,-2-4 0 15,1 11 0-15,-11-7-2 16,5-12 0-16,-5-4 0 15,5 4 1-15,-7-1 1 16,-4 9 0-16,11 16-2 0,-12 11 1 16,-5-7-1-16,-1 4 1 15,-5-1 0-15,18 5 0 16,-13 3 0-16,6 9 1 16,-4 3-1-16,-2 5 1 15,1 3-1-15,-1 0 0 16,1 5 0-16,-12 3 0 15,11 8-1-15,-5 1 1 16,-1 7-1-16,-10-4 1 16,-7 8 0-16,0-4 0 15,-1 1 0-15,-4-1 0 16,5 0 0-16,6 12 0 16,-12-4 0-16,1 12 1 0,-7 0-1 15,12 0 0-15,-5 0 0 16,-8 4 0-16,1 0 0 15,13 8 0-15,-12 0 0 16,4 4 0-16,2 0 0 16,10 4 0-16,-4 0-2 15,11-8 1-15,-12 4 2 16,18 3 1-16,-7 1-3 16,2 8 1-16,10 4 0 15,-17 0 1-15,24 3-2 16,4 1 1-16,2-4 0 15,11 0 1-15,6 3-2 16,11 1 1-16,6 4-5 16,13 0 0-16,6-5-9 15,-2 1 0-15,13 0-11 16,-12-8 1-16,19 4 15 16,9-13 0-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">356-12 13 0,'-6'-23'6'0,"-12"11"4"0,18 12-7 15,-6-4 2-15,6 0 0 16,-11 0 1-16,5 4 0 0,0-4-5 16,0 0 1-16,6 0 0 15,0 4 1-15,-12 12-2 16,7 4 1-16,-1 3 0 16,6 9 0-16,-18-4-2 15,6 4 0-15,0 8 2 16,-11 7 0-16,-12 13 2 15,0 3 1-15,-13 9-4 16,2 3 1-16,10 5-2 16,7-5 1-16,6-7 0 15,5-17 1-15,6-3-1 16,12-8 0-16,-11-5 0 16,11-3 0-16,0-8-1 15,11 0 1-15,-11-4-1 16,12 0 0-16,6-1 0 0,5 1 1 15,13 0 0-15,10-8 1 16,8-4-2-16,21-4 0 16,14 0 0-16,16-4 1 15,18 4-3-15,-18-4 1 16,-16 4-2-16,-12 0 1 16,-19 8-35-16,-11 12 0 15,-11 4 29-15,-31-8 1 16</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -6699,18 +7179,18 @@
       <inkml:brushProperty name="color" value="#ED1C24"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2381 5005 36 0,'-31'-12'18'0,"31"24"-1"16,0-12-18-16,0 8 1 15,0 0 0-15,0 0 0 16,5-1 1-16,0 1 8 16,1 4 0-16,4 0-8 15,6 4 1-15,10 0-1 0,-4 4 0 16,15 4-1 0,10 7 1-16,11 1-2 15,1 12 1-15,-1-5-1 16,-10 1 1-16,-6 0 1 0,-10-4 1 15,-1-9-2-15,-20 5 0 16,-6 4 6-16,-15 7 1 16,-27 9-7-16,-22 4 0 15,-4-1 3-15,-16 5 0 16,-11-1-3-16,5-3 1 16,6-9-3-16,10-7 0 15,11-4-15-15,15-12 1 16,11-8-18-16,17-5 0 15,15-22 29-15,5-17 1 16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">3789 5132 11 0,'11'-4'5'0,"-1"-4"2"0,-10 8-6 15,5 0 2-15,-5 0 1 16,6-4 2-16,-1 0 0 16,0-4 0-16,1-4 1 15,-1 0-1-15,-5-4 1 16,0 0-1-16,-5 4 0 16,-11 1 1-16,-16 7 0 15,-10 4-2-15,-6 11 1 0,-15 13-5 16,-6 4 1-16,-5 4-2 15,10 8 0-15,6 7-1 16,5-3 1-16,0 3 0 16,5-7 0-16,11-4-1 15,11-4 1-15,10-1 0 16,11-3 0-16,10 0 1 16,11 8 0-16,16 3-2 15,26 5 1-15,16 0-1 16,5 3 1-16,6-7 1 15,0 0 1-15,-16 3-2 16,-17 1 0-16,-9 0 5 16,-17 7 1-16,-36 9-5 15,-27-5 0-15,-16 5 1 16,-16-5 0-16,-10 1-2 16,4-8 1-16,1-9-5 0,0-11 0 15,0-16-4-15,5-8 0 16,16-8-5-16,11-8 1 15,10 0-5-15,17-12 1 16,20 4-7-16,16 5 1 16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">4244 6112 28 0,'0'0'14'0,"0"4"8"0,0-4-13 15,0 0-3-15,-5 4 1 16,-6-8 0-16,1 0 0 16,-1-4-3-16,6-8 1 0,-6-16-3 15,6-7 0-15,5-9 0 16,0-11 1-16,5-13-2 15,0 1 0-15,1-13 1 16,-1-11 0-16,0 8-2 16,1 11 0-16,-1 9 0 15,0-1 0 1,-5 68 0-16,11-39-1 16,-6 3 0-16,6 8 0 15,-1 12 1-15,1 12 0 16,10 8 1-16,5 4-1 15,6 24 0-15,5 12-1 16,0 11 1-16,0 1 1 16,6 7 0-16,-1 5-1 0,6 3 0 15,5-3-2-15,-6-13 1 16,-5 5-5-16,-10-13 1 16,-5-7-8-1,-6-4 1-15,-11-8-5 16,-4-5 0-16,-12-7-8 0,-4-8 1 15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">4281 5787 36 0,'-26'-8'18'0,"-1"4"8"0,22 4-18 0,0 0-8 15,5 0 0-15,-6 0 4 16,6 0 0-16,0 0 2 16,0-4 0-16,6-4-5 15,9 0 0-15,12-4-1 16,15 0 0-16,11-4-1 16,0 4 0-16,0 0-10 15,5 0 0-15,-5 4-5 16,-5 5 0-16,-6 3-11 15,-10-4 1-15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4">4890 5140 28 0,'-6'8'14'0,"6"4"0"0,0-5-15 16,6 13 4-16,-1 0 0 0,6 4 5 15,4 8 0-15,22 15-4 16,11 1 0-16,5-4-3 16,-5-9 1-16,5-3 3 15,-1 0 0-15,7-4 2 16,-12-9 1-16,1 1-4 16,-16-4 0-16,-1-8 2 15,-9 0 0-15,-1-8-4 16,-11-8 0-16,-4-4-2 15,-6-12 1-15,0-19-2 16,-11-21 1-16,0-7 0 16,1-9 0-16,5 1-1 0,5 0 1 15,0 15-8 1,0 9 0-16,5 7-12 0,-5 12 0 16,5 12-9-16,0 5 1 15,11 3 17 1,-5 4 0-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5">6038 4691 37 0,'-5'-16'18'0,"5"16"2"0,0 0-18 0,0 0-4 16,0 12 1-16,0 8 4 16,-6 8 1-16,1 0 1 15,0 3 0-15,-1 9-2 16,6 4 1-16,0 3 1 15,6 1 0-15,-1-4-1 16,6-5 0-16,5 1 0 16,5-4 0-16,5-1-2 15,6-3 1-15,5-8-1 16,0-4 1-16,11 0-1 16,-1-12 0-16,1-8-2 0,5-4 1 15,-6-12-3-15,-4 4 0 16,-12-4-7-16,-9 4 1 15,-1-4-7 1,-5 4 0-16,-6-4-9 0,-4 1 1 16,-1-1 3-16,-5 4 0 15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6">5953 4604 37 0,'6'-28'18'0,"-12"4"6"0,6 20-19 16,0 0 1-16,0 4 1 0,0-4-1 16,-5 0 0-16,10 4-4 15,6-8 1-15,10 4-2 16,11-3 1-16,15-5-1 16,6-8 0-16,0 0-2 15,0-4 1-15,0 4-11 16,-5 4 1-16,-6 1-16 15,-5 3 1-15,-5 8 2 16,-11-4 1-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7">6091 4878 37 0,'-27'-20'18'0,"17"16"4"16,10 4-19-16,0 0-4 15,0 0 1-15,0 0 8 16,5 0 1-16,6 0-1 15,10 0 0-15,11-4-3 16,5-8 1-16,0 0-6 16,5-12 0-16,0 8-1 15,6-3 0-15,-6-1-12 16,-10 0 1-16,-5 0-11 16,-12 12 0-16,-4-8-2 15,0-4 1-15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8">7022 4239 29 0,'-10'-16'14'0,"4"8"7"16,6 8-15-16,0 0 0 15,0 0 0-15,0 0 0 16,0 0 1-16,0 0 1 16,0 0 1-16,-5 8-6 15,5 0 1-15,0 4-2 16,5 8 1-16,-5 7-2 16,6 9 1-16,4 0-1 15,1 3 0-15,-1 13-3 16,6-4 1-16,0-5 2 0,0 1 1 15,0-4-15-15,-6-5 0 16,1-11-15-16,-6-4 0 16,1-4 5-16,-1-20 0 15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9">7398 5005 47 0,'10'-4'23'0,"-10"4"9"16,0 0-25-16,-5 8 1 16,0 8 0-16,-6 3-7 15,1 5 0-15,-1-4-8 16,1-4 1-16,4 0-5 15,1-4 1-15,5-12-16 16,0-12 0-16,5-12 6 16,6-12 1-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10">7350 4120 35 0,'-10'-16'17'0,"-1"12"5"0,11 4-17 0,-5-4-3 16,0 4 0-16,-6 0 2 16,11 0 1-16,0 0-3 15,0 0-2 1,0 0 0-16,0 16 9 15,5 8 1-15,6 7-10 16,5 9 1-16,5 8 0 16,0-1 0-16,0 5-2 15,0-12 1-15,1 3-1 16,-7-7 0-16,1-4-12 0,0-9 0 16,-5 1-14-16,5-12 0 15,-6-4 11 1,1-8 0-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11">7996 4842 47 0,'5'0'23'0,"11"4"2"0,-16 8-25 16,-11 12 4-16,1 7 0 15,-1 5-1-15,1 4 1 0,-1-4-5 16,6-9 1-16,0-7-1 16,-1-4 1-16,6-4-5 15,0-4 0-15,6-8-9 16,-1-4 1-16,5-8-22 15,1-8 1-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2402 5005 36 0,'-34'-12'18'0,"34"24"-1"16,0-12-18-16,0 8 1 15,0 0 0-15,0 0 0 16,6-1 1-16,-1 1 8 16,2 4 0-16,3 0-8 15,8 4 1-15,10 0-1 0,-4 4 0 16,17 4-1 0,10 7 1-16,12 1-2 15,1 12 1-15,0-5-1 16,-12 1 1-16,-6 0 1 0,-11-4 1 15,-2-9-2-15,-21 5 0 16,-6 4 6-16,-17 7 1 16,-29 9-7-16,-25 4 0 15,-3-1 3-15,-18 5 0 16,-13-1-3-16,7-3 1 16,6-9-3-16,10-7 0 15,13-4-15-15,16-12 1 16,12-8-18-16,19-5 0 15,16-22 29-15,5-17 1 16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">3937 5132 11 0,'12'-4'5'0,"-1"-4"2"0,-11 8-6 15,5 0 2-15,-5 0 1 16,7-4 2-16,-2 0 0 16,1-4 0-16,0-4 1 15,0 0-1-15,-6-4 1 16,0 0-1-16,-6 4 0 16,-11 1 1-16,-18 7 0 15,-11 4-2-15,-6 11 1 0,-17 13-5 16,-6 4 1-16,-6 4-2 15,12 8 0-15,5 7-1 16,7-3 1-16,-1 3 0 16,5-7 0-16,13-4-1 15,12-4 1-15,10-1 0 16,13-3 0-16,10 0 1 16,13 8 0-16,17 3-2 15,28 5 1-15,18 0-1 16,5 3 1-16,6-7 1 15,1 0 1-15,-18 3-2 16,-18 1 0-16,-10 0 5 16,-19 7 1-16,-39 9-5 15,-29-5 0-15,-18 5 1 16,-17-5 0-16,-11 1-2 16,4-8 1-16,1-9-5 0,1-11 0 15,-1-16-4-15,6-8 0 16,17-8-5-16,12-8 1 15,11 0-5-15,19-12 1 16,21 4-7-16,18 5 1 16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">4433 6112 28 0,'0'0'14'0,"0"4"8"0,0-4-13 15,0 0-3-15,-5 4 1 16,-7-8 0-16,1 0 0 16,-1-4-3-16,6-8 1 0,-6-16-3 15,7-7 0-15,5-9 0 16,0-11 1-16,5-13-2 15,1 1 0-15,0-13 1 16,0-11 0-16,-1 8-2 16,2 11 0-16,-2 9 0 15,1-1 0 1,-6 68 0-16,12-39-1 16,-7 3 0-16,7 8 0 15,-1 12 1-15,1 12 0 16,11 8 1-16,5 4-1 15,7 24 0-15,6 12-1 16,-1 11 1-16,0 1 1 16,7 7 0-16,-1 5-1 0,6 3 0 15,6-3-2-15,-7-13 1 16,-5 5-5-16,-11-13 1 16,-6-7-8-1,-6-4 1-15,-12-8-5 16,-4-5 0-16,-14-7-8 0,-4-8 1 15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">4474 5787 36 0,'-29'-8'18'0,"0"4"8"0,23 4-18 0,1 0-8 15,5 0 0-15,-7 0 4 16,7 0 0-16,0 0 2 16,0-4 0-16,7-4-5 15,9 0 0-15,14-4-1 16,15 0 0-16,13-4-1 16,0 4 0-16,0 0-10 15,5 0 0-15,-5 4-5 16,-6 5 0-16,-6 3-11 15,-11-4 1-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4">5138 5140 28 0,'-7'8'14'0,"7"4"0"0,0-5-15 16,7 13 4-16,-2 0 0 0,7 4 5 15,4 8 0-15,25 15-4 16,11 1 0-16,6-4-3 16,-6-9 1-16,6-3 3 15,-1 0 0-15,7-4 2 16,-13-9 1-16,2 1-4 16,-19-4 0-16,0-8 2 15,-10 0 0-15,-1-8-4 16,-12-8 0-16,-4-4-2 15,-7-12 1-15,0-19-2 16,-12-21 1-16,0-7 0 16,1-9 0-16,5 1-1 0,6 0 1 15,0 15-8 1,0 9 0-16,6 7-12 0,-6 12 0 16,5 12-9-16,1 5 1 15,11 3 17 1,-5 4 0-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5">6389 4691 37 0,'-5'-16'18'0,"5"16"2"0,0 0-18 0,0 0-4 16,0 12 1-16,0 8 4 16,-7 8 1-16,2 0 1 15,-1 3 0-15,0 9-2 16,6 4 1-16,0 3 1 15,6 1 0-15,0-4-1 16,6-5 0-16,5 1 0 16,6-4 0-16,5-1-2 15,7-3 1-15,6-8-1 16,-1-4 1-16,12 0-1 16,0-12 0-16,0-8-2 0,6-4 1 15,-7-12-3-15,-4 4 0 16,-13-4-7-16,-10 4 1 15,-1-4-7 1,-6 4 0-16,-6-4-9 0,-5 1 1 16,0-1 3-16,-6 4 0 15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6">6297 4604 37 0,'6'-28'18'0,"-12"4"6"0,6 20-19 16,0 0 1-16,0 4 1 0,0-4-1 16,-6 0 0-16,12 4-4 15,6-8 1-15,10 4-2 16,13-3 1-16,17-5-1 16,5-8 0-16,1 0-2 15,0-4 1-15,0 4-11 16,-6 4 1-16,-6 1-16 15,-6 3 1-15,-5 8 2 16,-12-4 1-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7">6447 4878 37 0,'-29'-20'18'0,"18"16"4"16,11 4-19-16,0 0-4 15,0 0 1-15,0 0 8 16,5 0 1-16,7 0-1 15,11 0 0-15,12-4-3 16,5-8 1-16,1 0-6 16,4-12 0-16,1 8-1 15,6-3 0-15,-6-1-12 16,-11 0 1-16,-5 0-11 16,-14 12 0-16,-4-8-2 15,0-4 1-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8">7462 4239 29 0,'-11'-16'14'0,"5"8"7"16,6 8-15-16,0 0 0 15,0 0 0-15,0 0 0 16,0 0 1-16,0 0 1 16,0 0 1-16,-6 8-6 15,6 0 1-15,0 4-2 16,6 8 1-16,-6 7-2 16,6 9 1-16,5 0-1 15,1 3 0-15,-1 13-3 16,6-4 1-16,1-5 2 0,-1 1 1 15,1-4-15-15,-7-5 0 16,1-11-15-16,-7-4 0 16,2-4 5-16,-2-20 0 15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9">7872 5005 47 0,'11'-4'23'0,"-11"4"9"16,0 0-25-16,-6 8 1 16,1 8 0-16,-7 3-7 15,1 5 0-15,-1-4-8 16,1-4 1-16,5 0-5 15,0-4 1-15,6-12-16 16,0-12 0-16,6-12 6 16,6-12 1-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10">7820 4120 35 0,'-11'-16'17'0,"-1"12"5"0,12 4-17 0,-6-4-3 16,1 4 0-16,-7 0 2 16,12 0 1-16,0 0-3 15,0 0-2 1,0 0 0-16,0 16 9 15,5 8 1-15,7 7-10 16,6 9 1-16,5 8 0 16,0-1 0-16,-1 5-2 15,1-12 1-15,1 3-1 16,-7-7 0-16,0-4-12 0,1-9 0 16,-6 1-14-16,5-12 0 15,-6-4 11 1,1-8 0-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11">8524 4842 47 0,'5'0'23'0,"13"4"2"0,-18 8-25 16,-12 12 4-16,1 7 0 15,-1 5-1-15,1 4 1 0,-1-4-5 16,7-9 1-16,-1-7-1 16,0-4 1-16,6-4-5 15,0-4 0-15,6-8-9 16,0-4 1-16,5-8-22 15,1-8 1-15</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -6740,7 +7220,7 @@
       <inkml:brushProperty name="color" value="#ED1C24"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">688 8 10 0,'-32'-8'5'0,"-36"12"4"15,46 4-5-15,-4 4-2 16,-1 12 1-16,-10 0-3 15,-5 11 0-15,-16 9 0 16,5 4 1-16,0-1-1 0,0 13 0 16,5 11 0-16,11 9 1 15,11 23-1-15,15 8 0 16,17-20 1-16,15-8 0 16,26-11 0-16,17-13 1 0,-1-19-2 15,17-24 0 1,10-16 1-16,10 0 0 0,1-16 0 15,5-20 1-15,-22-7 0 16,-20-9 0 0,-11-7 1-16,-6-1 0 0,-10-3-2 15,-15-1 1-15,-6 5-2 16,-6 7 0 0,-15-4 0-16,-22 1 0 0,-20-1 0 15,-11 5 0-15,-11 11 0 16,-11 8 0-16,1 12 0 15,15 12 0-15,-4 12 0 16,-1 12 1-16,0 8-2 16,-5 12 1-16,11 15-1 15,10 17 1-15,10 7 0 16,12 36 1-16,15-3-1 16,10 3 0-16,22-4-1 15,21-12 1-15,11-19 0 16,5-21 1-16,10-19-1 15,17-16 0-15,4-20 0 16,12-20 0-16,4-12 0 0,-15-12 0 16,-11-19 0-1,-11-20 1-15,-10 3 1 0,-16-3 0 16,-10-1 0-16,-17 5 1 16,-4 12-4-16,-17-1 0 15,-26 1 2-15,-21 7 0 16,-16 9-2-16,-11 15 1 15,-5 24-1-15,-5 16 1 0,0 12 0 16,-6 8 1 0,11 15-2-16,11 21 1 15,10 7 0-15,16 21 0 16,16 15-1-16,16-4 0 16,26 4 1-16,22-8 0 15,20-11 0-15,11-21 0 0,6-19-1 16,15-16 1-16,11-24 1 15,11-20 1-15,5-16-2 16,-6-4 1-16,-20-23-2 16,-17-13 1-16,-10-7 0 15,-16-4 0-15,-11-5 0 16,-10-3 0-16,-21 8-1 16,-21-13 0-16,-27 5 2 15,-16 4 0-15,-16 19-2 16,-5 21 0-16,11 15 2 0,-16 20 0 15,-1 20-1-15,12 20 0 16,4 16-2-16,6 3 0 16,11 21 3-1,10 15 0-15,16 24-1 0,16 20 0 16,21-20 0-16,16-7 0 16,21-17 0-16,21-12 0 15,5-19-1-15,17-20 1 0,10-24 1 16,5-12 1-16,5-8-2 15,1-20 1-15,-6-24-2 16,-15-11 1-16,-22-5 1 16,-11-11 0-16,-10-4-1 15,-10 3 0-15,-11-7 0 16,-22 0 1 0,-20-4-2-16,-27 11 0 0,-10 17 1 15,-17 19 1-15,-10 13-2 16,6 27 1-16,-12 27 0 15,1 21 1-15,5 12-2 16,11 15 1-16,10 20-1 16,11 21 1-16,15 23 1 15,22 0 0-15,21-8-1 16,21-8 0-16,16-20-1 16,27-20 1-16,-1-23 0 15,12-20 0-15,9-24 0 16,6-20 0-16,11-20 1 0,-1-4 1 15,-4-23-3 1,-28-17 0-16,-9-7 2 0,-17-4 0 16,-10-9-1-1,-11 1 0-15,-16 0 0 16,-31-4 0-16,-22 7 0 0,-16 5 1 16,-20 28-2-16,-11 23 1 15,-1 24 0-15,-4 20 0 16,-1 24 0-16,11 7 0 0,6 17-1 15,10 19 0-15,21 9 1 16,16 35 0 0,21 0-1-16,16-8 1 15,26-12 0-15,22-12 1 0,15-19-2 16,6-24 1-16,21-25 2 16,11-19 0-16,10-15-2 15,5-13 0-15,-15-20 0 16,-17-23 0-16,-10-13 0 15,-21-3 0-15,-16-4 3 16,-15 7 0-16,-12-3-4 16,-26-16 1-16,-31 4-1 15,-22 11 0-15,-26 17 0 16,-6 19 0-16,-5 25 1 16,-16 31 1-16,6 31-1 15,5 21 0-15,10 19 0 16,11 24 0-16,22 24-1 15,25 20 0-15,22 0 1 0,26-8 1 16,22-24-1 0,15-23 0-16,27-13-1 0,0-27 1 15,10-17 1-15,11-23 0 16,11-24 0-16,5-23 0 16,-1-5-1-16,-9-11 1 15,-12-29-2-15,-26-3 1 16,-10-8 0-16,-11-9 1 15,-21 13-3-15,-21-12 1 16,-27-12 1-16,-16 8 1 16,-15 23-1-16,-11 21 0 15,-6 23 0-15,6 32 0 16,-5 20-1-16,0 24 1 16,-1 11-1-16,11 21 1 15,6 27 0-15,15 28 1 16,17 12-1-16,15 8 1 0,21-12-2 15,27-20 1-15,15-28-1 16,6-19 1-16,11-24 0 16,20-28 1-16,12-28-1 15,9-20 1-15,1-8-1 16,-26-19 0-16,-6-21 1 16,-16-7 0-16,-16-8-1 15,-10 0 0-15,-11 0-1 16,-21-9 0-16,-21-7 1 15,-21 16 1-15,-11 16-2 16,-16 23 0-16,-10 28 1 16,-6 25 1-16,11 22-2 15,0 25 0-15,-6 12 0 16,12-9 1-16,15 9-19 16,21 3 0-16,16 1 3 0,11-24 1 15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">797 8 10 0,'-37'-8'5'0,"-42"12"4"15,54 4-5-15,-6 4-2 16,0 12 1-16,-12 0-3 15,-5 11 0-15,-19 9 0 16,5 4 1-16,1-1-1 0,-1 13 0 16,7 11 0-16,12 9 1 15,13 23-1-15,17 8 0 16,20-20 1-16,17-8 0 16,31-11 0-16,19-13 1 0,-1-19-2 15,20-24 0 1,11-16 1-16,12 0 0 0,1-16 0 15,5-20 1-15,-24-7 0 16,-24-9 0 0,-13-7 1-16,-6-1 0 0,-12-3-2 15,-18-1 1-15,-6 5-2 16,-8 7 0 0,-17-4 0-16,-25 1 0 0,-23-1 0 15,-14 5 0-15,-12 11 0 16,-12 8 0-16,0 12 0 15,18 12 0-15,-5 12 0 16,-1 12 1-16,1 8-2 16,-7 12 1-16,13 15-1 15,11 17 1-15,13 7 0 16,13 36 1-16,17-3-1 16,12 3 0-16,26-4-1 15,24-12 1-15,12-19 0 16,7-21 1-16,11-19-1 15,19-16 0-15,6-20 0 16,13-20 0-16,5-12 0 0,-18-12 0 16,-12-19 0-1,-13-20 1-15,-12 3 1 0,-18-3 0 16,-12-1 0-16,-19 5 1 16,-5 12-4-16,-20-1 0 15,-30 1 2-15,-24 7 0 16,-19 9-2-16,-12 15 1 15,-6 24-1-15,-6 16 1 0,0 12 0 16,-7 8 1 0,12 15-2-16,14 21 1 15,11 7 0-15,18 21 0 16,20 15-1-16,17-4 0 16,31 4 1-16,25-8 0 15,24-11 0-15,12-21 0 0,7-19-1 16,18-16 1-16,12-24 1 15,13-20 1-15,6-16-2 16,-8-4 1-16,-22-23-2 16,-20-13 1-16,-11-7 0 15,-20-4 0-15,-11-5 0 16,-13-3 0-16,-24 8-1 16,-24-13 0-16,-31 5 2 15,-19 4 0-15,-19 19-2 16,-5 21 0-16,13 15 2 0,-19 20 0 15,-2 20-1-15,15 20 0 16,4 16-2-16,8 3 0 16,12 21 3-1,11 15 0-15,19 24-1 0,19 20 0 16,24-20 0-16,19-7 0 16,24-17 0-16,24-12 0 15,6-19-1-15,19-20 1 0,13-24 1 16,5-12 1-16,5-8-2 15,2-20 1-15,-7-24-2 16,-17-11 1-16,-26-5 1 16,-12-11 0-16,-12-4-1 15,-12 3 0-15,-13-7 0 16,-24 0 1 0,-25-4-2-16,-30 11 0 0,-12 17 1 15,-20 19 1-15,-11 13-2 16,7 27 1-16,-14 27 0 15,1 21 1-15,5 12-2 16,14 15 1-16,11 20-1 16,13 21 1-16,17 23 1 15,26 0 0-15,24-8-1 16,24-8 0-16,19-20-1 16,31-20 1-16,-1-23 0 15,14-20 0-15,10-24 0 16,7-20 0-16,13-20 1 0,-1-4 1 15,-5-23-3 1,-32-17 0-16,-11-7 2 0,-19-4 0 16,-12-9-1-1,-13 1 0-15,-18 0 0 16,-36-4 0-16,-25 7 0 0,-20 5 1 16,-22 28-2-16,-13 23 1 15,-1 24 0-15,-5 20 0 16,-1 24 0-16,13 7 0 0,6 17-1 15,13 19 0-15,23 9 1 16,20 35 0 0,23 0-1-16,19-8 1 15,30-12 0-15,26-12 1 0,17-19-2 16,7-24 1-16,24-25 2 16,13-19 0-16,11-15-2 15,7-13 0-15,-18-20 0 16,-20-23 0-16,-11-13 0 15,-25-3 0-15,-18-4 3 16,-17 7 0-16,-15-3-4 16,-29-16 1-16,-37 4-1 15,-25 11 0-15,-30 17 0 16,-7 19 0-16,-6 25 1 16,-18 31 1-16,7 31-1 15,5 21 0-15,12 19 0 16,13 24 0-16,25 24-1 15,29 20 0-15,26 0 1 0,30-8 1 16,25-24-1 0,18-23 0-16,31-13-1 0,0-27 1 15,11-17 1-15,13-23 0 16,13-24 0-16,6-23 0 16,-1-5-1-16,-11-11 1 15,-14-29-2-15,-30-3 1 16,-11-8 0-16,-13-9 1 15,-25 13-3-15,-23-12 1 16,-32-12 1-16,-19 8 1 16,-17 23-1-16,-13 21 0 15,-6 23 0-15,6 32 0 16,-6 20-1-16,1 24 1 16,-2 11-1-16,13 21 1 15,7 27 0-15,18 28 1 16,19 12-1-16,17 8 1 0,25-12-2 15,31-20 1-15,18-28-1 16,6-19 1-16,13-24 0 16,23-28 1-16,15-28-1 15,9-20 1-15,2-8-1 16,-30-19 0-16,-8-21 1 16,-17-7 0-16,-20-8-1 15,-11 0 0-15,-12 0-1 16,-25-9 0-16,-25-7 1 15,-23 16 1-15,-14 16-2 16,-18 23 0-16,-11 28 1 16,-8 25 1-16,14 22-2 15,-1 25 0-15,-7 12 0 16,14-9 1-16,18 9-19 16,24 3 0-16,18 1 3 0,14-24 1 15</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -6770,7 +7250,7 @@
       <inkml:brushProperty name="color" value="#ED1C24"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">566 1179 8 0,'-5'4'4'0,"0"-4"8"16,5 0-4-16,-6 4-2 16,1 0 1-16,5-4-3 15,-5 12 1-15,0 0-2 16,-6 3 1-16,0 9-1 16,1 0 1-16,-1 8-1 15,-5 8 1-15,6 11-3 16,-1 13 0-16,1 15 0 15,-1 20 1-15,-5 12-2 0,0 24 1 16,0 16-1-16,6 24 1 16,-1 7 2-16,6 9 1 15,10 19-3-15,1-4 0 16,4 1 1-16,11 7 0 16,-10-15-2-16,5-9 1 0,16-15 0 15,15-13 1-15,17 5 1 16,4-28 0-16,17-4-2 15,10-8 1-15,-15-20-1 16,4-16 1-16,12-3 0 16,4-13 1-16,17-3-2 15,4-17 1-15,-15-7-2 16,5-13 0-16,0 1 0 16,-5-12 0-16,-16 8-1 15,-10-8 1-15,-6-1-1 16,-11-7 1-16,-10 4-6 15,0 0 6 1,-53-20 0-16,16 16-37 16,5 8 0-16,0-1 19 15,-10 1 1-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">603 1179 8 0,'-6'4'4'0,"0"-4"8"16,6 0-4-16,-7 4-2 16,1 0 1-16,6-4-3 15,-6 12 1-15,0 0-2 16,-7 3 1-16,0 9-1 16,2 0 1-16,-2 8-1 15,-6 8 1-15,7 11-3 16,-1 13 0-16,1 15 0 15,-1 20 1-15,-6 12-2 0,1 24 1 16,-1 16-1-16,7 24 1 16,-1 7 2-16,7 9 1 15,12 19-3-15,1-4 0 16,5 1 1-16,13 7 0 16,-13-15-2-16,7-9 1 0,19-15 0 15,17-13 1-15,21 5 1 16,4-28 0-16,20-4-2 15,12-8 1-15,-17-20-1 16,4-16 1-16,14-3 0 16,5-13 1-16,19-3-2 15,6-17 1-15,-18-7-2 16,6-13 0-16,0 1 0 16,-6-12 0-16,-19 8-1 15,-12-8 1-15,-7-1-1 16,-12-7 1-16,-13 4-6 15,0 0 6 1,-62-20 0-16,19 16-37 16,6 8 0-16,0-1 19 15,-12 1 1-15</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -6800,7 +7280,7 @@
       <inkml:brushProperty name="color" value="#ED1C24"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32 76 4 0,'-11'0'2'0,"-5"8"1"0,16-8-2 0,0 0 4 16,0 0 0-16,-5 0-2 16,5 0 0-16,0 0-2 15,0 0 0-15,0 0 2 16,0 0 0-16,0 0-2 15,0 0 1-15,0 0-1 16,0 0 0-16,0 4 0 16,5-4 0-16,1 4 0 15,-1 0 0-15,6-4-1 16,-6 0 0-16,5 0 1 16,6 0 1-16,0 0-2 0,0 0 1 15,0 4-1 1,0-4 0-16,0 0 1 0,5 0 1 15,0 4-1 1,5 0 1-16,1-4-2 0,-1 0 0 16,1 0 1-16,-1 0 1 15,1 0-1-15,-1-4 0 16,-5 0-1-16,6 0 0 16,-1 0-1-16,1 0 1 15,4 0 0-15,1 0 0 16,0 4 0-16,5 0 1 15,0-4 0-15,0 0 0 16,5 4-1-16,-5 0 1 0,6 0 0 16,-6 0 0-1,5-4-1-15,-5 4 1 0,6-4 0 16,-6 0 0-16,-6 4-1 16,1 0 1-16,-5 0-2 15,4 0 1-15,1-4-1 16,5 4 0-16,0-4 1 15,0 4 0-15,0-4 1 16,0 4 0-16,0-4 0 16,0 4 0-16,0-4-1 15,0 4 0-15,0 0-1 16,-5 0 1-16,5 0 0 16,0 0 1-16,0 0-1 15,0-4 0-15,0 0 0 16,0 0 0-16,1 4 1 0,-1-4 0 15,0 0-1-15,0 0 1 16,0 0-1 0,0 0 0-16,0 4 0 0,0 0 0 15,-5 0-1-15,-1 0 1 16,1 0 0-16,-5 0 0 16,4 0 0-16,6 0 1 15,0 0-1-15,0 0 0 0,0 0 0 16,-5-4 0-16,0 4 0 15,0 0 1-15,-1 0-2 16,6 0 1-16,1 0 0 16,4 0 0-16,0-4 0 15,1 4 0 1,-6 0 0-16,0 0 0 0,0 0 0 16,0 0 0-16,0 0-1 15,0 0 1-15,0 4-11 16,0 0 1-16,-5-4-14 15,-11 4 0-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">36 76 4 0,'-13'0'2'0,"-4"8"1"0,17-8-2 0,0 0 4 16,0 0 0-16,-6 0-2 16,6 0 0-16,0 0-2 15,0 0 0-15,0 0 2 16,0 0 0-16,0 0-2 15,0 0 1-15,0 0-1 16,0 0 0-16,0 4 0 16,6-4 0-16,0 4 0 15,0 0 0-15,6-4-1 16,-6 0 0-16,5 0 1 16,7 0 1-16,0 0-2 0,-1 0 1 15,1 4-1 1,0-4 0-16,0 0 1 0,5 0 1 15,1 4-1 1,5 0 1-16,1-4-2 0,-1 0 0 16,1 0 1-16,-1 0 1 15,1 0-1-15,-1-4 0 16,-5 0-1-16,6 0 0 16,-1 0-1-16,1 0 1 15,5 0 0-15,0 0 0 16,1 4 0-16,5 0 1 15,1-4 0-15,-1 0 0 16,6 4-1-16,-6 0 1 0,7 0 0 16,-7 0 0-1,6-4-1-15,-5 4 1 0,6-4 0 16,-7 0 0-16,-7 4-1 16,2 0 1-16,-6 0-2 15,5 0 1-15,1-4-1 16,5 4 0-16,0-4 1 15,0 4 0-15,1-4 1 16,-1 4 0-16,0-4 0 16,1 4 0-16,-1-4-1 15,0 4 0-15,0 0-1 16,-5 0 1-16,5 0 0 16,1 0 1-16,-1 0-1 15,0-4 0-15,1 0 0 16,-1 0 0-16,1 4 1 0,0-4 0 15,-1 0-1-15,0 0 1 16,0 0-1 0,1 0 0-16,-1 4 0 0,0 0 0 15,-5 0-1-15,-1 0 1 16,0 0 0-16,-4 0 0 16,3 0 0-16,7 0 1 15,1 0-1-15,-1 0 0 0,0 0 0 16,-5-4 0-16,0 4 0 15,-1 0 1-15,0 0-2 16,6 0 1-16,2 0 0 16,4 0 0-16,-1-4 0 15,2 4 0 1,-6 0 0-16,-1 0 0 0,0 0 0 16,1 0 0-16,-1 0-1 15,0 0 1-15,0 4-11 16,1 0 1-16,-7-4-14 15,-11 4 0-15</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -6832,7 +7312,7 @@
       <inkml:brushProperty name="rasterOp" value="maskPen"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 191 7 0,'0'-4'3'0,"0"8"3"0,0-4-5 16,0 0 0-16,0 0 1 15,0 0 3-15,0 0 1 16,0 0-3-16,0 0 1 16,0 3-4-16,5 1 0 0,1 0 2 15,-1 0 1 1,5-4 0-16,1 0 0 16,5 0-3-16,5 0 1 0,0 0 0 15,6 0 0 1,-1 0-2-16,6 0 1 0,5 0-1 15,0 0 1-15,0 4 2 16,5-4 0-16,1 0-2 16,-1 0 0-16,0 0 0 15,-10 0 1-15,0 0-1 16,0 0 1-16,-1 0-1 16,6 0 1-16,0 4-1 15,0-4 1-15,6 4-2 16,-1-4 0-16,0 0 1 15,1 4 1-15,-6 0-1 16,0 4 0-16,0-4 0 0,0-4 1 16,5 4 0-16,6-4 1 15,-6 4-2-15,-10-4 0 16,5 0 1-16,0 0 0 16,0-4-1-1,0 4 0-15,0-4 0 0,6 4 0 16,-6-4 0-16,5 4 0 15,-5 0 1 1,0 0 1-16,0 0-3 0,0 4 1 16,0-4-1-16,5 0 0 15,1 0 2-15,-1 0 1 16,-5 0-2-16,-5-4 1 16,0 0 0-16,-6 4 1 0,6 0-4 15,0 0 0-15,5 0 2 16,0 0 1-16,5 0-1 15,-5 0 1-15,5 0 0 16,1 0 0-16,-6 0-2 16,0 0 0-16,5 0 2 15,0 0 1-15,6-8 0 16,0 4 0-16,-6 0-1 16,-10 0 0-16,5 0-2 15,0 0 1-15,0 4-1 16,5-4 1-16,-5 0 0 15,6 1 1-15,4 3-1 16,1 0 0-16,-6-4 1 16,1 4 0-16,-1 0-1 15,6-4 1-15,-1 4-2 16,1 0 1-16,-6 0 0 16,-10-4 1-16,0 0-1 0,-1 4 1 15,6 0-2-15,0 0 1 16,0 0 0-16,1 0 0 15,4-4 0-15,-5 4 1 16,5-4 0-16,-5 4 0 16,0 0-1-16,-5 0 0 15,5 0-1-15,0 0 0 16,0 0 2-16,6 0 0 16,-1 0-2-16,-5 0 0 15,-5 0 1-15,5-4 0 16,0 0 1-16,0 4 0 0,0-4-1 15,0 0 0 1,5 4 0-16,1 0 1 16,-1-4-1-16,0 0 1 0,1 4-1 15,-1-4 0-15,0 0 0 16,6 0 1-16,-1 4 0 16,1-4 0-16,-11 0-1 15,0 4 0-15,0 0 0 16,6 0 0-16,-1 4 0 15,5 0 1-15,1-4-2 16,5 0 1-16,-5 4 0 0,-1 0 1 16,1 0-1-16,0 0 0 15,4 0 2-15,1 0 1 16,-5 4-4-16,-6 0 0 16,1-4 2-16,-1 0 0 15,6 0-1 1,5 0 1-16,-1 0-1 0,1-4 1 15,0 0 0-15,-5 3 0 16,5 1-2-16,0-4 1 16,0 4 0-16,5-4 1 15,-16 0-1-15,1 0 0 16,4 0-1-16,1 0 1 16,5 0 0-16,0 0 1 0,0 0-2 15,-1 0 1 1,-4 0 0-16,5 4 0 15,0-4-1-15,0 0 1 16,0 0 1-16,0 4 0 16,-11-4-2-16,0 0 1 0,6 4 1 15,0 0 0-15,4-4-2 16,7 0 1-16,-1 0 0 16,0-4 1-16,-10 4 2 15,-1 0 1-15,6 0-4 16,0 0 0-16,0 0 0 15,-5 0 1-15,-1 0-1 16,1 0 1-16,0-4-1 16,5 4 0-16,-1-4 1 15,7 0 0-15,-1 4 3 16,-5 0 1-16,5 0-5 0,5 0 1 16,1 0 0-16,-1-4 0 15,-4 0-2-15,4 1 0 16,1-1 2-16,4 4 0 15,1 0-1-15,-5-4 0 16,-6 0-1-16,5 0 1 16,1 0 0-16,-6 4 1 15,0 0-2-15,-10-4 1 16,0 4 0-16,-1-4 1 16,6 0-2-16,0 0 1 15,5 0 0-15,-5 0 1 16,0 0-3-16,0 0 1 15,5 0 2-15,0-4 0 16,1 4-1-16,-6 0 1 16,-6 0 0-16,1 0 0 0,5 0-2 15,5 0 0-15,5 0 0 16,1 4 1-16,-6 0 1 16,-5 0 1-16,5 0-2 15,6 4 0-15,-1 0 0 16,-4-4 0-16,-12 0 0 15,1 0 0-15,5 0 0 16,5 0 0-16,0 0 0 16,6-4 1-16,-11 4-1 15,-6 4 0-15,6-4-1 16,0 0 1-16,0 0 0 16,0 0 0-16,-6 0 0 15,-10 0 1-15,1 0-2 16,4 0 1-16,5-4 0 0,1 0 1 15,5 4-1-15,5-4 1 16,-5 4 0-16,0 0 0 16,-5 4-2-16,5 4 1 15,5 0-1-15,5 0 1 16,-10-4 1-16,5-4 0 16,6 4-1-16,5-4 0 0,-6 0-1 15,6 0 1-15,-11 0 0 16,0 0 1-16,1 0-2 15,-1 0 0-15,0 0 1 16,0-4 1-16,-5 0-2 16,0 4 0-16,5-4 1 15,6 0 1-15,5-4 0 16,-6 0 0-16,-10 4-1 16,0-4 0-16,5 0 0 15,0 0 0-15,-5 1-1 16,0-1 1-16,-10 0 0 15,4 0 1-15,1 0-2 16,-1 0 0-16,6 4 1 16,0 0 1-16,0 0-1 15,0 0 1-15,-5 0-1 16,-1 0 0-16,6 4 0 16,5 0 0-16,-5 0-1 15,-5 0 1-15,0 0 0 0,-1 0 1 16,1 0-1-1,5 0 0-15,0 0 1 0,-6 0 1 16,1 4-3-16,0-4 1 16,-11 4 0-16,0 0 0 15,5-4-1-15,11 4 1 16,0 0-1-16,0 0 1 16,-6-4 0-16,1 0 1 15,0 0-1-15,5-4 1 16,-1 0-1-16,7 4 1 15,-6 0-1-15,-6-4 0 16,1 4-1-16,-1 0 1 0,6 0 0 16,0 0 0-1,5 0 1-15,-10 0 0 0,0 0-2 16,5 4 0-16,5-4 1 16,0 0 1-16,0 0-1 15,0 0 0-15,-5 0 0 16,0 0 0-16,-53 0 0 15,80 8 0 1,-1-8 0-16,-15 4 0 16,-6 0 1-16,0-4-1 15,0 0 0-15,-5 4-1 16,0-4 0-16,0 4 1 16,0 0 1-16,-11 0-2 15,1 0 1-15,4 0 0 16,6 0 1-16,-5-4-1 15,-1 4 1-15,1 0-2 16,-11-1 0-16,5 5 2 0,1-4 0 16,-1 4-2-16,6-4 1 15,-1 0 0-15,1 4 1 16,-1 0-1-16,-4-4 0 16,-1 0-1-16,0 4 1 15,6 0 0-15,5-4 0 16,0 0 0-16,-5 0 1 15,-6 4-2-15,6-4 0 16,-1 0 2-16,1 0 1 0,-1-4-3 16,6 4 1-16,-5-4 0 15,5 0 1-15,-6 0-1 16,1 0 0-16,5 0-2 16,5 0 1-16,-5 0 1 15,0-4 1-15,0 4-2 16,5-4 1-16,0 4 0 15,6-4 1-15,-6 4-1 16,0 0 0-16,6 0-1 16,5 0 1-16,5 0 2 15,-6 4 0-15,7-4-2 16,4 4 1-16,6 0 0 16,-1 4 0-16,-10 3-2 15,6-3 1-15,4 0 0 16,1 0 1-16,-6-4-2 15,1 0 1-15,4 0-2 16,-4 0 1-16,-6 0-5 16,-11 4 1-16,6 0-1 0,0 4 1 15,0-4-10-15,0 0 1 16,-16 8-19-16,-6 4 1 16,-5-9 25-16,-4-3 0 15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 191 7 0,'0'-4'3'0,"0"8"3"0,0-4-5 16,0 0 0-16,0 0 1 15,0 0 3-15,0 0 1 16,0 0-3-16,0 0 1 16,0 3-4-16,6 1 0 0,0 0 2 15,0 0 1 1,5-4 0-16,1 0 0 16,6 0-3-16,5 0 1 0,0 0 0 15,7 0 0 1,-1 0-2-16,6 0 1 0,6 0-1 15,0 0 1-15,0 4 2 16,6-4 0-16,0 0-2 16,0 0 0-16,-1 0 0 15,-10 0 1-15,-1 0-1 16,0 0 1-16,0 0-1 16,6 0 1-16,0 4-1 15,0-4 1-15,6 4-2 16,0-4 0-16,-1 0 1 15,2 4 1-15,-7 0-1 16,0 4 0-16,0-4 0 0,-1-4 1 16,7 4 0-16,6-4 1 15,-6 4-2-15,-12-4 0 16,6 0 1-16,0 0 0 16,0-4-1-1,0 4 0-15,0-4 0 0,6 4 0 16,-6-4 0-16,6 4 0 15,-6 0 1 1,0 0 1-16,0 0-3 0,0 4 1 16,0-4-1-16,5 0 0 15,2 0 2-15,-2 0 1 16,-5 0-2-16,-6-4 1 16,1 0 0-16,-7 4 1 0,6 0-4 15,1 0 0-15,4 0 2 16,1 0 1-16,6 0-1 15,-6 0 1-15,5 0 0 16,2 0 0-16,-7 0-2 16,0 0 0-16,5 0 2 15,1 0 1-15,6-8 0 16,0 4 0-16,-6 0-1 16,-12 0 0-16,6 0-2 15,0 0 1-15,0 4-1 16,5-4 1-16,-5 0 0 15,7 1 1-15,4 3-1 16,1 0 0-16,-7-4 1 16,2 4 0-16,-1 0-1 15,6-4 1-15,-1 4-2 16,1 0 1-16,-7 0 0 16,-10-4 1-16,-1 0-1 0,-1 4 1 15,7 0-2-15,0 0 1 16,0 0 0-16,1 0 0 15,5-4 0-15,-6 4 1 16,5-4 0-16,-5 4 0 16,0 0-1-16,-5 0 0 15,5 0-1-15,0 0 0 16,-1 0 2-16,8 0 0 16,-1 0-2-16,-7 0 0 15,-4 0 1-15,5-4 0 16,0 0 1-16,0 4 0 0,0-4-1 15,0 0 0 1,5 4 0-16,2 0 1 16,-2-4-1-16,1 0 1 0,0 4-1 15,0-4 0-15,-1 0 0 16,7 0 1-16,-1 4 0 16,2-4 0-16,-14 0-1 15,1 4 0-15,0 0 0 16,7 0 0-16,-2 4 0 15,6 0 1-15,2-4-2 16,4 0 1-16,-5 4 0 0,-1 0 1 16,2 0-1-16,-1 0 0 15,4 0 2-15,2 0 1 16,-6 4-4-16,-7 0 0 16,2-4 2-16,-1 0 0 15,6 0-1 1,5 0 1-16,0 0-1 0,1-4 1 15,-1 0 0-15,-5 3 0 16,6 1-2-16,0-4 1 16,-1 4 0-16,7-4 1 15,-19 0-1-15,2 0 0 16,4 0-1-16,1 0 1 16,5 0 0-16,1 0 1 0,0 0-2 15,-2 0 1 1,-4 0 0-16,6 4 0 15,0-4-1-15,-1 0 1 16,1 0 1-16,0 4 0 16,-13-4-2-16,1 0 1 0,6 4 1 15,0 0 0-15,4-4-2 16,9 0 1-16,-2 0 0 16,0-4 1-16,-11 4 2 15,-1 0 1-15,7 0-4 16,0 0 0-16,-1 0 0 15,-5 0 1-15,-1 0-1 16,2 0 1-16,-1-4-1 16,5 4 0-16,0-4 1 15,7 0 0-15,-1 4 3 16,-5 0 1-16,5 0-5 0,6 0 1 16,1 0 0-16,-1-4 0 15,-5 0-2-15,5 1 0 16,0-1 2-16,6 4 0 15,0 0-1-15,-5-4 0 16,-7 0-1-16,6 0 1 16,1 0 0-16,-7 4 1 15,0 0-2-15,-11-4 1 16,0 4 0-16,-1-4 1 16,7 0-2-16,0 0 1 15,5 0 0-15,-6 0 1 16,1 0-3-16,0 0 1 15,5 0 2-15,0-4 0 16,1 4-1-16,-6 0 1 16,-7 0 0-16,1 0 0 0,6 0-2 15,5 0 0-15,6 0 0 16,1 4 1-16,-7 0 1 16,-5 0 1-16,5 0-2 15,7 4 0-15,-2 0 0 16,-3-4 0-16,-14 0 0 15,1 0 0-15,5 0 0 16,7 0 0-16,-1 0 0 16,7-4 1-16,-13 4-1 15,-6 4 0-15,7-4-1 16,0 0 1-16,-1 0 0 16,1 0 0-16,-7 0 0 15,-11 0 1-15,1 0-2 16,4 0 1-16,6-4 0 0,2 0 1 15,4 4-1-15,6-4 1 16,-5 4 0-16,0 0 0 16,-6 4-2-16,6 4 1 15,5 0-1-15,5 0 1 16,-10-4 1-16,5-4 0 16,7 4-1-16,6-4 0 0,-8 0-1 15,8 0 1-15,-13 0 0 16,0 0 1-16,1 0-2 15,0 0 0-15,-1 0 1 16,0-4 1-16,-5 0-2 16,-1 4 0-16,6-4 1 15,7 0 1-15,6-4 0 16,-8 0 0-16,-10 4-1 16,0-4 0-16,5 0 0 15,0 0 0-15,-5 1-1 16,-1-1 1-16,-10 0 0 15,4 0 1-15,1 0-2 16,-1 0 0-16,7 4 1 16,-1 0 1-16,1 0-1 15,0 0 1-15,-6 0-1 16,-1 0 0-16,7 4 0 16,5 0 0-16,-6 0-1 15,-4 0 1-15,-1 0 0 0,-1 0 1 16,1 0-1-1,5 0 0-15,1 0 1 0,-7 0 1 16,1 4-3-16,0-4 1 16,-12 4 0-16,0 0 0 15,6-4-1-15,11 4 1 16,1 0-1-16,0 0 1 16,-7-4 0-16,1 0 1 15,0 0-1-15,6-4 1 16,-2 0-1-16,9 4 1 15,-8 0-1-15,-6-4 0 16,1 4-1-16,-1 0 1 0,7 0 0 16,0 0 0-1,5 0 1-15,-11 0 0 0,0 0-2 16,6 4 0-16,5-4 1 16,0 0 1-16,0 0-1 15,1 0 0-15,-7 0 0 16,1 0 0-16,-59 0 0 15,88 8 0 1,0-8 0-16,-17 4 0 16,-7 0 1-16,0-4-1 15,0 0 0-15,-5 4-1 16,0-4 0-16,-1 4 1 16,1 0 1-16,-13 0-2 15,2 0 1-15,4 0 0 16,7 0 1-16,-6-4-1 15,-1 4 1-15,1 0-2 16,-12-1 0-16,5 5 2 0,2-4 0 16,-2 4-2-16,8-4 1 15,-2 0 0-15,1 4 1 16,-1 0-1-16,-5-4 0 16,0 0-1-16,-1 4 1 15,7 0 0-15,6-4 0 16,0 0 0-16,-6 0 1 15,-7 4-2-15,8-4 0 16,-2 0 2-16,1 0 1 0,-1-4-3 16,6 4 1-16,-5-4 0 15,6 0 1-15,-7 0-1 16,1 0 0-16,6 0-2 16,5 0 1-16,-5 0 1 15,-1-4 1-15,1 4-2 16,5-4 1-16,0 4 0 15,7-4 1-15,-6 4-1 16,-1 0 0-16,7 0-1 16,5 0 1-16,6 0 2 15,-7 4 0-15,8-4-2 16,5 4 1-16,6 0 0 16,-1 4 0-16,-12 3-2 15,8-3 1-15,4 0 0 16,1 0 1-16,-6-4-2 15,0 0 1-15,5 0-2 16,-4 0 1-16,-8 0-5 16,-11 4 1-16,7 0-1 0,-1 4 1 15,0-4-10-15,1 0 1 16,-19 8-19-16,-6 4 1 16,-5-9 25-16,-5-3 0 15</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -6894,7 +7374,7 @@
       <inkml:brushProperty name="color" value="#ED1C24"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 2453 6 0,'0'0'3'0,"0"19"1"0,0-19-3 0,0 0 0 16,0 8 1-16,0-4 0 15,0-4 0-15,0 0 8 16,5-4 1-16,6 4-10 16,-1 0 0-16,1-8-1 15,5-3 1-15,10-5 0 16,1-8 0-16,4-4 0 16,6 0 0-16,-10 1 1 15,10-9 0-15,0 0-2 16,10-4 1-16,12-3 9 0,4-5 1 15,-5-3-11-15,22-1 1 16,4 12 0 0,1-11 0-16,5-1-1 0,11-7 0 15,-1-13 1-15,11 5 0 16,6 3-1-16,-6-3 0 16,5-5 0-16,11 1 0 15,-16 11 0-15,11 17 1 16,10-13-1-16,-15-8 1 15,4 1-1-15,1 3 1 16,0 1-2-16,5 3 1 0,-5 1 0 16,-1-1 0-16,12 1 0 15,-1-1 0 1,-132 56 0-16,212-71-1 16,-17 15 1-16,-36 1 1 15,16-1 1-15,-27 8-3 16,0 1 1-16,0-5-2 15,-10 9 1-15,10-5 1 16,-16 8 0-16,1 4 1 16,9 9 1-16,-9-1-2 15,4 4 0-15,1 4 0 16,-11 0 0-16,10 1 0 16,1 7 1-16,0 0-2 15,-1 4 0-15,-20 0 1 16,-1 4 0-16,6 4 0 15,-6 8 1-15,16 0-1 16,-5 0 0-16,-10 0 0 16,-1 4 0-16,1 7 0 15,-11 5 0-15,10 8 0 0,6-4 0 16,-16 7 0 0,5 5 0-16,0 8-1 0,-11-1 0 15,-10-3 2 1,-5-4 0-16,0 3-1 0,-1 1 0 0,-10 4 0 15,-5 3 1 1,0 5-2-16,0 11 1 16,0 5-1-16,-6 3 1 0,-5 1 0 15,-10-13 1 1,-1 12-2-16,-4 5 1 16,-6-5 0-16,0 5 0 0,-5 7 1 15,-1-4 0-15,-4-3-2 16,-6-13 0-16,-10-7 0 15,-6-5 1-15,-10-3-10 16,-6-5 0-16,-10-3-8 16,-6-8 1-16,12-4 4 15,-1-5 1-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 2453 6 0,'0'0'3'0,"0"19"1"0,0-19-3 0,0 0 0 16,0 8 1-16,0-4 0 15,0-4 0-15,0 0 8 16,5-4 1-16,8 4-10 16,-2 0 0-16,1-8-1 15,5-3 1-15,12-5 0 16,0-8 0-16,5-4 0 16,7 0 0-16,-11 1 1 15,10-9 0-15,1 0-2 16,10-4 1-16,14-3 9 0,4-5 1 15,-5-3-11-15,24-1 1 16,4 12 0 0,1-11 0-16,6-1-1 0,12-7 0 15,-2-13 1-15,13 5 0 16,6 3-1-16,-6-3 0 16,5-5 0-16,13 1 0 15,-18 11 0-15,11 17 1 16,12-13-1-16,-16-8 1 15,3 1-1-15,2 3 1 16,0 1-2-16,5 3 1 0,-5 1 0 16,-1-1 0-16,13 1 0 15,-1-1 0 1,-145 56 0-16,232-71-1 16,-18 15 1-16,-39 1 1 15,17-1 1-15,-30 8-3 16,1 1 1-16,-1-5-2 15,-11 9 1-15,12-5 1 16,-18 8 0-16,1 4 1 16,9 9 1-16,-9-1-2 15,5 4 0-15,0 4 0 16,-12 0 0-16,12 1 0 16,0 7 1-16,0 0-2 15,0 4 0-15,-23 0 1 16,-1 4 0-16,7 4 0 15,-6 8 1-15,16 0-1 16,-4 0 0-16,-12 0 0 16,-1 4 0-16,2 7 0 15,-13 5 0-15,11 8 0 0,7-4 0 16,-18 7 0 0,6 5 0-16,0 8-1 0,-12-1 0 15,-11-3 2 1,-6-4 0-16,0 3-1 0,-1 1 0 0,-11 4 0 15,-5 3 1 1,0 5-2-16,-1 11 1 16,1 5-1-16,-7 3 1 0,-5 1 0 15,-11-13 1 1,-2 12-2-16,-4 5 1 16,-6-5 0-16,0 5 0 0,-6 7 1 15,-1-4 0-15,-5-3-2 16,-6-13 0-16,-11-7 0 15,-6-5 1-15,-12-3-10 16,-6-5 0-16,-11-3-8 16,-6-8 1-16,12-4 4 15,0-5 1-15</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -6924,7 +7404,7 @@
       <inkml:brushProperty name="color" value="#ED1C24"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32 432 14 0,'0'-27'7'0,"-6"19"10"0,1 4-7 0,5-4-7 15,-5 4 1-15,0-4 3 16,-1 0 1-16,1 0-1 16,5 4 1-16,0 0-4 15,0 0 0-15,0 4-4 16,5 0 0-16,11 4 2 15,-5 4 0-15,5 8 1 16,5 8 1-16,10 7-1 0,12 9 0 16,4 8-2-16,6 7 0 15,-5 5-1-15,0-5 1 16,-6-7 2-16,0-8 0 16,-5-1-1-16,-5-7 1 15,-11-8-1-15,-5-8 1 16,0-4-2-16,-5 4 1 15,-6-12-1-15,0 4 1 16,-5-8-2-16,0 0 1 16,-5-8 0-16,0-8 0 15,5-8-1-15,5-12 0 16,5-7-1-16,6-13 1 16,5-19-1-16,11-5 0 0,0 1-2 15,0-8 1 1,5-1-10-16,0 1 1 15,0 11-17-15,0 13 1 0,-11 7 1 16,-4 5 1-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">38 432 14 0,'0'-27'7'0,"-7"19"10"0,1 4-7 0,6-4-7 15,-6 4 1-15,0-4 3 16,-1 0 1-16,1 0-1 16,6 4 1-16,0 0-4 15,0 0 0-15,0 4-4 16,6 0 0-16,13 4 2 15,-6 4 0-15,6 8 1 16,7 8 1-16,11 7-1 0,14 9 0 16,5 8-2-16,8 7 0 15,-7 5-1-15,1-5 1 16,-8-7 2-16,0-8 0 16,-6-1-1-16,-5-7 1 15,-14-8-1-15,-6-8 1 16,0-4-2-16,-6 4 1 15,-7-12-1-15,0 4 1 16,-6-8-2-16,0 0 1 16,-6-8 0-16,0-8 0 15,6-8-1-15,6-12 0 16,6-7-1-16,7-13 1 16,6-19-1-16,14-5 0 0,-1 1-2 15,0-8 1 1,7-1-10-16,-1 1 1 15,0 11-17-15,0 13 1 0,-13 7 1 16,-4 5 1-16</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -6954,9 +7434,9 @@
       <inkml:brushProperty name="color" value="#ED1C24"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">185 63 9 0,'-5'-4'4'0,"0"-15"2"16,5 15-5-16,0 0 4 16,0 0 1-16,-6 4-3 0,1-8 0 15,5 8 2-15,0 0 0 16,-5-8-3-16,0 12 1 16,-6-12-2-1,11 4 0-15,-5 0 0 0,5 4 0 16,0 0 0-16,0 0 0 15,0 8-1-15,0 12 0 16,0 3 1-16,5 5 1 16,-5 16-3-16,5 0 1 15,1-1 0-15,-1 1 1 16,-5 4-2-16,5-5 1 0,0-3 0 16,1 0 0-1,-1-9 0-15,0-3 0 0,1-4-1 16,-6-4 1-16,5-4 7 15,-5-4 1-15,0-5-7 16,0-7 1-16,0-4-1 16,-5 1 0-16,5-9-1 15,-6-4 1-15,6-8-1 16,-5-4 1-16,5-4 0 16,-11 9 0-16,1-5-1 15,-1-4 1-15,-10 4 0 16,5 0 1-16,6 1-1 15,-6 3 0-15,5 4-2 16,6 4 1-16,0 0-1 16,5 4 1-16,5 0 0 15,0 12 1-15,-5 0-2 16,11 12 1-16,-6 16 0 0,6 0 1 16,-6 12-1-16,0 3 0 15,6 5 0-15,-6-4 0 16,0-5 0-16,1-3 0 15,-6-8 0-15,5 0 0 16,-5-9 0-16,5-3 0 16,1 0 0-16,-6-8 1 15,-6-4-2-15,6-4 1 0,0-8 1 16,-5-4 1-16,0-12-3 16,-6-7 1-16,1-5-1 15,-1-4 0 1,0 8 1-16,1 1 0 0,-1-5 1 15,6 8 0-15,0 4-2 16,5 1 1-16,0 7 0 16,0 4 1-16,0 0-1 15,5 12 0-15,5 8 0 16,6 4 0-16,-5 4-1 16,0 15 0-16,-1 9 1 15,-5 8 0-15,6-1 0 16,-6-3 0-16,1-4 1 15,-1-1 0-15,5-7-2 16,-4-4 1-16,-1 0 0 16,0-12 0-16,1-5 0 15,-1-11 1-15,-5-4-1 16,0-3 0-16,0-9 0 0,-5-12 1 16,-1-8-1-16,6-7 1 15,0-5-2 1,0 4 1-16,0-3 0 0,0-1 1 15,0 0-2-15,-5 1 1 16,5 3 0-16,0 4 0 16,0 1 0-16,0 15 0 15,-5 4 1-15,5 4 0 16,0 4-2-16,-6 8 1 16,6 12-1-16,0 12 1 15,0 12 0-15,6 7 0 16,-6 1 0-16,-6 8 1 0,12 3-2 15,-6 1 1-15,0-4 0 16,0-1 0-16,0-7 0 16,0-8 0-16,0-8 0 15,0-5 1-15,0-3-1 16,0-4 1-16,0-4-1 16,0-4 0-16,0-4-1 15,0-4 0-15,0-8 2 16,0-4 0-16,0-4-3 15,0-3 1-15,-6 3 1 16,6 0 1-16,-5 8-1 16,5 0 0-16,0 4 0 0,0 8 1 15,0 4 0-15,5 8 0 16,-5 4-3 0,0 0 1-16,0 4 1 0,0-4 0 15,0-1 0-15,0 1 0 16,0 0 0-16,0-4 0 15,0-4 0-15,0 0 0 16,0-8 0-16,0 4 0 16,0-4 0-16,0 8 1 0,0-8-1 15,0 0 0 1,0 0-1-16,0-4 0 0,11 0 2 16,5-4 0-16,10 0-1 15,17-4 0-15,10 0-1 16,0 4 1-16,5 0 0 15,11 8 0-15,5 4-1 16,-11 0 1-16,1 0 0 16,-1 4 1-16,6 4-2 15,0-4 1-15,-11-4 0 16,-5 0 1-16,-6-4-1 16,-10 0 1-16,-5 0-1 15,-11 0 1-15,-5 0 1 16,-5-4 1-16,-6 0-3 15,-5 4 0-15,-5-4 0 16,-11 0 1-16,-10 0-2 16,-12 0 1-16,-4 0-1 15,-5 8 1-15,-17 0 0 16,-21 4 0-16,-5 0 0 16,-5 0 1-16,-5 4-1 15,10 0 0-15,21 0 0 0,11 4 0 16,5-13-2-1,16 5 1-15,10-4 1 0,6-4 1 16,10 0-2-16,11-8 1 16,22 1 0-16,15-1 0 15,16 0 0-15,5 4 1 16,16-4-2-16,5 4 1 16,1 4 0-16,-1-4 1 15,6 0-1-15,5 0 0 16,-6-4-1-16,-10 4 1 0,-10 0 0 15,-6 0 1 1,-10 0-1-16,-11 0 1 0,-11 0 0 16,-5 4 1-16,-5 0 2 15,-10 0 1-15,-17 4-5 16,-5 0 1-16,-5 0 0 16,-16 0 0-16,-16 0-1 15,-11 4 0-15,-10-4 0 16,-5 4 1-16,-6-4-2 15,11 0 1-15,5 0 0 16,1 0 0-16,4 4 0 16,11-8 0-16,11 0-2 15,10 0 1-15,11 0 0 16,10-4 1-16,17 4 0 16,10-4 0-16,10 0-1 0,22 0 1 15,10 0 0-15,5 0 1 16,6 4-2-16,5 0 1 15,11 0 0-15,0 0 1 16,-1 4-1-16,-4-4 1 16,-12 0-1-16,-9 4 0 15,-6-4 0-15,-16 4 0 0,-6-4 1 16,-15 4 0-16,-10-4-1 16,-17 0 1-16,-10 0-2 15,-6 4 0-15,-4-4 2 16,-12 0 0-16,1 0-1 15,-6-4 0-15,6 0-1 16,5 4 1-16,5 0 0 16,6-4 1-16,5 4-1 15,5-4 0-15,5 0 0 16,11 4 0-16,11-4-1 16,10 0 1-16,5 0 0 15,6 0 0-15,0 0 0 16,0 0 1-16,5-4-1 15,5 4 0-15,-5-4-1 16,0 4 0-16,-5-4 2 16,-1 0 0-16,-4 0-1 15,-11 4 0-15,0 0 1 16,-6 0 0-16,1 1-2 16,-6-1 0-16,0 4 1 0,-5-4 1 15,6 0-1-15,-1-4 0 16,-5-4 1-16,0-4 1 15,0 0 0 1,0-4 1-16,-5 0-2 0,-1-4 1 16,-4 1-1-16,-1-9 0 15,1-4-2-15,-6-11 1 16,5 3 0-16,1 8 1 16,-1-7-2-16,0 11 0 15,6 4 1-15,0 0 0 16,0 12 0-16,-1 4 0 15,1 1 0-15,5 7 0 0,5 8 0 16,1 7 0-16,4 17-1 16,1 8 1-16,5 8 0 15,-6-9 1-15,6 5-2 16,0 4 0-16,0-1 1 16,-6 5 1-16,1-8-2 15,-6-5 1-15,1 1 1 16,-1 0-1-16,-5-36 0 15,-5 16 0 1,5 0 0-16,-6-8 0 16,1-8 0-16,-6-8 1 15,1-8 0-15,-1-12-2 0,-5-4 1 16,-5-4 0 0,0-7 0-16,0-5 0 0,0 5 0 15,5-1 0 1,0 4 0-16,5 12 0 0,1 1 0 15,5 11-1-15,-1 0 1 16,1 12 0-16,5 12 0 16,5 8 0-16,1 7 0 15,4 5 0-15,6 12 1 16,-5 4-1-16,-1-1 0 0,1 1-1 16,-1-4 0-1,1-9 1-15,-6-3 1 0,0-4-1 16,1-4 0-16,-6-4 0 15,0-4 1-15,0-8-1 16,0-4 0 0,-6-12 0-16,1-8 1 0,0-4-2 15,0-12 1-15,-6 8 0 16,6-3 0-16,-1-5 0 16,6 0 0-16,-5 9-1 15,5-1 1-15,0 8 0 16,0 4 1-16,0 0-3 15,0 4 1-15,0 0 1 16,0 0 0-16,5 8 1 16,1 4 0-16,-1 0-3 15,0 0 1-15,1-4 1 16,-1 8 1-16,5-4-1 16,-4-4 1-16,-1 8-1 0,0 4 0 15,-5-8-1 1,6 4 1-16,-6-4 1 15,-11 0 0-15,6-4-2 0,-6-8 0 16,-5 5 2-16,0-1 0 16,-5 0-1-16,-5-4 0 15,-17-4 0-15,-15 4 0 16,-11-4 0-16,1 4 0 16,-22 4 0-16,0 4 1 15,-5 8-3-15,-1-4 1 16,6 8 1-16,11-4 0 15,10 4-1-15,16 0 1 16,11-4 1-16,10 4 0 16,11-8-2-16,5 4 0 15,0-8 1-15,6 0 0 0,-1 0-1 16,16-4 1-16,6 4 0 16,15 4 0-16,17-8-1 15,4 4 1-15,12 0 0 16,4 0 0-16,11 4 0 15,0 0 0-15,0 0 1 16,6-4 1-16,-1 8-3 16,0 0 0-16,-4 4 0 15,-12-4 1-15,1 0 0 16,-12 4 1-16,-9-8-1 16,-6-4 1-16,-11 4-2 15,-5 4 1-15,-10-4 1 16,-11 0 0-16,-11-4-2 15,-4 0 0-15,-17 0 2 16,-11-4 1-16,-15 4-3 0,-5 8 1 16,-6-4-1-16,-10 4 1 15,-6 4 0-15,6-4 0 16,4 4-1-16,1 0 1 16,6 0 0-16,9-8 1 15,12-4-1-15,10 4 1 16,5 0-2-16,11-4 1 0,10 0-1 15,17 0 0-15,9-4 1 16,17 4 1-16,5 0-2 16,27 4 0-16,10-4 1 15,-5 0 1 1,10 12-1-16,11-4 0 0,0 0 0 16,-5 0 0-16,-6-8 0 15,0 0 0-15,-15 4 0 16,-22 0 0-16,-5 4 1 15,-16-4 0-15,-15 8-2 16,-22 4 1-16,-5 0 1 16,-22 0 0-16,-15-4-1 15,-11 4 0-15,-5-4-1 16,-21-1 1-16,-11 1 0 16,-16-4 1-16,-10 4-2 15,26-4 0-15,6 4 1 16,-1 0 1-16,22 0-2 15,10-4 1-15,21 0-1 16,11-4 1-16,11-4-1 16,15 4 0-16,11-4 2 15,21-8 0-15,11 8-2 0,5-4 1 16,21-8-1-16,11 8 0 16,5-3 2-16,6 3 0 15,10-8-1-15,0-4 0 16,-22 0-1-16,-4 4 1 15,-6 0 1-15,-16 12 0 16,-5-4-1-16,-10-3 0 16,-11 7 1-16,-6-4 0 0,-15 4-2 15,0 0 1-15,-22 4 0 16,-15 4 0-16,-16 4-1 16,-22 3 1-16,-15 5 0 15,5 4 1-15,6-8-1 16,-6 4 1-16,10 0-2 15,6-4 1-15,16 0-1 16,16-8 1-16,10 0-1 16,11 4 1-16,10-5 0 15,22-3 0-15,10 0-1 16,11-3 1-16,5-1 0 16,10 0 0-16,17-4 0 15,5 4 0-15,-1 0 0 0,1-8 1 16,5 12-1-16,0-8 0 15,-10 4-1-15,-11 4 1 16,-11-8-1-16,-10 4 1 16,-11 4 0-16,0 0 1 15,-5 0-1-15,-5-8 1 16,-1 0-1-16,-5 0 0 16,-5 0 0-16,-5-4 1 15,-11 8-1-15,-15 0 0 16,-12 4 0-16,-4 0 0 15,-6 4-1-15,-11 4 1 16,1-4 0-16,-1 4 1 16,6 0-1-16,16-4 1 15,5 0-1-15,5-8 0 16,5 8 0-16,6-4 0 16,5 0-1-16,11 0 1 0,0 0 0 15,-1 0 0-15,6-8-1 16,11 4 1-16,10 0-1 15,11 0 0-15,5 4 0 16,5-4 1-16,-5 0 0 16,-5 0 0-16,-5 8-1 15,-6-4 1-15,-5 0-1 16,-6 0 1-16,-4 4-5 16,-6-4 1-16,-11 8 1 15,-5-4 0-15,-5-8 2 16,-6 4 0-16,-4 0 1 15,-1-4 0-15,-5-4 0 16,5 8 1-16,0-8-2 16,6 4 1-16,-6 0 0 0,0 0 1 15,1-3-1 1,-1-1 0-16,5 4 0 0,6 0 0 16,5 4 0-16,1 4 1 15,4-4-1-15,6 8 0 16,5 3 0-16,0 1 0 15,10 8-1-15,1 4 1 16,-1 12 1-16,1 3 0 16,0-3-2-16,4 4 0 15,-4 0 1-15,0 3 1 0,-6 1-1 16,0-4 0 0,1-5 0-16,-6 1 1 15,0-8-2-15,-6-4 1 0,6-5 0 16,-5-3 0-16,5-4 0 15,0-4 0-15,0-8 0 16,-5-4 1-16,-1-8-1 16,1-8 1-16,0-11-1 15,-1-1 0-15,1-8-1 16,-5 8 1-16,-1 1 1 16,0 7 1-16,1 4-3 15,5 4 1-15,-1 0-1 16,1 4 0-16,5 4 1 0,5 8 0 15,1 8 1 1,4 4 0-16,-5 8-1 16,1 12 0-16,4 4-1 0,-4-1 1 15,-1 1 0-15,5-4 1 16,-4-4-3-16,-1-5 1 16,-5-7-20-1,0-4 0-15,-5-8-6 0,-1-20 1 16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1455 218 11 0,'-16'-12'5'0,"-5"36"3"0,16-20-7 16,-6 12 3-16,1-8 1 16,-1 0 0-16,6 4 0 15,-6-8-1-15,6 0 1 16,0 4-1-16,5-8 0 15,0 0 0-15,-11 4 1 16,11-4 0-16,0 0 0 0,-5 0-1 16,5 0 0-16,0 0-1 15,-5-12 1-15,5 0-2 16,-6-8 0-16,6-4 2 16,-5-8 1-16,5-3-3 15,5-9 1-15,6-8-3 16,5-11 1-16,10-9-1 15,6 1 1-15,0-12 1 16,5-1 0-16,16-15-2 16,15 12 0-16,7-1 0 15,4 1 0-15,16 0 1 16,0 11 0-16,6 5-1 16,15-4 0-16,1 7-1 15,20 1 1-15,-10 3 0 16,11 9 0-16,5 7 0 15,-11 12 1-15,-5 28-1 16,0 20 1-16,-26 16 0 16,-11 24 1-16,-11 7-2 15,-15 13 1-15,-6 3 0 16,-16-8 1-16,-5 1-2 16,-10-1 1-16,-6-11-2 15,-5-8 1-15,-11-9-5 0,0-7 1 16,-5-4-12-16,-5-12 1 15,0-8-4-15,-6-12 1 16,6-8-8-16,5-12 1 16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">3329-611 19 0,'-6'-4'9'0,"6"-4"2"0,0 4-10 0,0 0-1 15,6 0 1-15,-1 4 3 16,-5-4 0-16,0 4 0 15,0-4 1-15,5 0 2 16,-5 4 1-16,5 4-7 16,-5 0 0-16,0 0 0 15,6 0 1-15,-1 8 0 16,0 0 0-16,1 0-1 16,-1 3 1-16,0-3-2 15,6 4 0-15,5-8 0 16,5 4 1-16,-5 0 0 0,0 0 0 15,5 0 1-15,5 0 0 16,-5 0-1-16,1 7 0 16,4-3-1-16,6 0 0 15,5 4 0-15,5 4 0 16,0 0 7-16,1-1 0 16,-1 1-6-16,0 0 0 15,-15-4-1-15,-1 0 0 16,-10-4 2-16,0-4 0 15,-5-4 0-15,-1-1 1 16,-4 1-2-16,-1 0 0 16,0-4-1-16,-5-4 0 0,0 0 0 15,0 0 0-15,0-4 0 16,5 4 1-16,-5-4 0 16,0-4 0-16,0-3 0 15,6-5 1-15,-6-4-2 16,5-8 0-16,-5-4 0 15,0-15 1-15,0-25-1 16,0-3 0-16,0-5 0 16,0 1 0-16,-5 8-6 15,-1 3 1-15,-4 5-12 16,-1 15 1-16,-5 0-15 16,6 5 0-16,-1-1 22 15,6-15 1-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">210 63 9 0,'-6'-4'4'0,"0"-15"2"16,6 15-5-16,0 0 4 16,0 0 1-16,-7 4-3 0,2-8 0 15,5 8 2-15,0 0 0 16,-6-8-3-16,0 12 1 16,-6-12-2-1,12 4 0-15,-6 0 0 0,6 4 0 16,0 0 0-16,0 0 0 15,0 8-1-15,0 12 0 16,0 3 1-16,6 5 1 16,-6 16-3-16,6 0 1 15,0-1 0-15,0 1 1 16,-6 4-2-16,6-5 1 0,-1-3 0 16,2 0 0-1,-1-9 0-15,0-3 0 0,0-4-1 16,-6-4 1-16,6-4 7 15,-6-4 1-15,0-5-7 16,0-7 1-16,0-4-1 16,-6 1 0-16,6-9-1 15,-6-4 1-15,6-8-1 16,-6-4 1-16,6-4 0 16,-13 9 0-16,2-5-1 15,-1-4 1-15,-12 4 0 16,6 0 1-16,6 1-1 15,-6 3 0-15,6 4-2 16,6 4 1-16,0 0-1 16,6 4 1-16,6 0 0 15,0 12 1-15,-6 0-2 16,12 12 1-16,-6 16 0 0,6 0 1 16,-6 12-1-16,0 3 0 15,6 5 0-15,-6-4 0 16,0-5 0-16,0-3 0 15,-6-8 0-15,6 0 0 16,-6-9 0-16,6-3 0 16,0 0 0-16,-6-8 1 15,-6-4-2-15,6-4 1 0,0-8 1 16,-6-4 1-16,0-12-3 16,-6-7 1-16,1-5-1 15,-2-4 0 1,1 8 1-16,0 1 0 0,0-5 1 15,6 8 0-15,0 4-2 16,6 1 1-16,0 7 0 16,0 4 1-16,0 0-1 15,6 12 0-15,5 8 0 16,8 4 0-16,-7 4-1 16,1 15 0-16,-2 9 1 15,-5 8 0-15,6-1 0 16,-6-3 0-16,0-4 1 15,0-1 0-15,5-7-2 16,-4-4 1-16,-1 0 0 16,0-12 0-16,0-5 0 15,0-11 1-15,-6-4-1 16,0-3 0-16,0-9 0 0,-6-12 1 16,0-8-1-16,6-7 1 15,0-5-2 1,0 4 1-16,0-3 0 0,0-1 1 15,0 0-2-15,-6 1 1 16,6 3 0-16,0 4 0 16,0 1 0-16,0 15 0 15,-6 4 1-15,6 4 0 16,0 4-2-16,-7 8 1 16,7 12-1-16,0 12 1 15,0 12 0-15,7 7 0 16,-7 1 0-16,-7 8 1 0,14 3-2 15,-7 1 1-15,0-4 0 16,0-1 0-16,0-7 0 16,0-8 0-16,0-8 0 15,0-5 1-15,0-3-1 16,0-4 1-16,0-4-1 16,0-4 0-16,0-4-1 15,0-4 0-15,0-8 2 16,0-4 0-16,0-4-3 15,0-3 1-15,-7 3 1 16,7 0 1-16,-5 8-1 16,5 0 0-16,0 4 0 0,0 8 1 15,0 4 0-15,5 8 0 16,-5 4-3 0,0 0 1-16,0 4 1 0,0-4 0 15,0-1 0-15,0 1 0 16,0 0 0-16,0-4 0 15,0-4 0-15,0 0 0 16,0-8 0-16,0 4 0 16,0-4 0-16,0 8 1 0,0-8-1 15,0 0 0 1,0 0-1-16,0-4 0 0,13 0 2 16,5-4 0-16,11 0-1 15,20-4 0-15,11 0-1 16,0 4 1-16,6 0 0 15,12 8 0-15,6 4-1 16,-13 0 1-16,2 0 0 16,-2 4 1-16,7 4-2 15,1-4 1-15,-14-4 0 16,-5 0 1-16,-6-4-1 16,-13 0 1-16,-4 0-1 15,-14 0 1-15,-4 0 1 16,-7-4 1-16,-6 0-3 15,-6 4 0-15,-6-4 0 16,-12 0 1-16,-12 0-2 16,-13 0 1-16,-4 0-1 15,-6 8 1-15,-20 0 0 16,-23 4 0-16,-6 0 0 16,-6 0 1-16,-5 4-1 15,11 0 0-15,24 0 0 0,12 4 0 16,6-13-2-1,18 5 1-15,12-4 1 0,6-4 1 16,11 0-2-16,13-8 1 16,25 1 0-16,17-1 0 15,18 0 0-15,6 4 1 16,18-4-2-16,5 4 1 16,2 4 0-16,-2-4 1 15,8 0-1-15,5 0 0 16,-7-4-1-16,-11 4 1 0,-12 0 0 15,-6 0 1 1,-12 0-1-16,-12 0 1 0,-12 0 0 16,-7 4 1-16,-5 0 2 15,-11 0 1-15,-19 4-5 16,-6 0 1-16,-6 0 0 16,-18 0 0-16,-18 0-1 15,-13 4 0-15,-10-4 0 16,-7 4 1-16,-6-4-2 15,12 0 1-15,6 0 0 16,1 0 0-16,4 4 0 16,13-8 0-16,13 0-2 15,10 0 1-15,14 0 0 16,10-4 1-16,20 4 0 16,11-4 0-16,12 0-1 0,24 0 1 15,12 0 0-15,5 0 1 16,7 4-2-16,6 0 1 15,12 0 0-15,1 0 1 16,-2 4-1-16,-5-4 1 16,-13 0-1-16,-10 4 0 15,-7-4 0-15,-18 4 0 0,-7-4 1 16,-17 4 0-16,-11-4-1 16,-19 0 1-16,-12 0-2 15,-7 4 0-15,-4-4 2 16,-13 0 0-16,0 0-1 15,-6-4 0-15,6 0-1 16,6 4 1-16,6 0 0 16,6-4 1-16,7 4-1 15,4-4 0-15,7 0 0 16,12 4 0-16,12-4-1 16,12 0 1-16,6 0 0 15,6 0 0-15,0 0 0 16,0 0 1-16,6-4-1 15,6 4 0-15,-6-4-1 16,0 4 0-16,-6-4 2 16,-1 0 0-16,-4 0-1 15,-13 4 0-15,0 0 1 16,-7 0 0-16,2 1-2 16,-8-1 0-16,1 4 1 0,-6-4 1 15,7 0-1-15,-1-4 0 16,-6-4 1-16,0-4 1 15,0 0 0 1,0-4 1-16,-6 0-2 0,-1-4 1 16,-4 1-1-16,-2-9 0 15,2-4-2-15,-7-11 1 16,5 3 0-16,2 8 1 16,-1-7-2-16,-1 11 0 15,7 4 1-15,1 0 0 16,-1 12 0-16,-1 4 0 15,2 1 0-15,5 7 0 0,5 8 0 16,2 7 0-16,4 17-1 16,2 8 1-16,5 8 0 15,-7-9 1-15,8 5-2 16,-1 4 0-16,0-1 1 16,-7 5 1-16,2-8-2 15,-8-5 1-15,2 1 1 16,-1 0-1-16,-6-36 0 15,-6 16 0 1,6 0 0-16,-7-8 0 16,2-8 0-16,-8-8 1 15,2-8 0-15,-2-12-2 0,-5-4 1 16,-6-4 0 0,1-7 0-16,-1-5 0 0,0 5 0 15,6-1 0 1,0 4 0-16,5 12 0 0,2 1 0 15,5 11-1-15,0 0 1 16,0 12 0-16,6 12 0 16,6 8 0-16,0 7 0 15,6 5 0-15,6 12 1 16,-6 4-1-16,0-1 0 0,0 1-1 16,-1-4 0-1,2-9 1-15,-8-3 1 0,1-4-1 16,1-4 0-16,-7-4 0 15,0-4 1-15,0-8-1 16,0-4 0 0,-7-12 0-16,1-8 1 0,1-4-2 15,-1-12 1-15,-6 8 0 16,6-3 0-16,-1-5 0 16,7 0 0-16,-5 9-1 15,5-1 1-15,0 8 0 16,0 4 1-16,0 0-3 15,0 4 1-15,0 0 1 16,0 0 0-16,5 8 1 16,2 4 0-16,-1 0-3 15,-1 0 1-15,2-4 1 16,-1 8 1-16,5-4-1 16,-4-4 1-16,-1 8-1 0,-1 4 0 15,-5-8-1 1,7 4 1-16,-7-4 1 15,-12 0 0-15,6-4-2 0,-7-8 0 16,-5 5 2-16,0-1 0 16,-6 0-1-16,-5-4 0 15,-20-4 0-15,-16 4 0 16,-14-4 0-16,2 4 0 16,-25 4 0-16,0 4 1 15,-5 8-3-15,-2-4 1 16,7 8 1-16,13-4 0 15,11 4-1-15,17 0 1 16,14-4 1-16,11 4 0 16,12-8-2-16,6 4 0 15,0-8 1-15,6 0 0 0,0 0-1 16,17-4 1-16,8 4 0 16,16 4 0-16,20-8-1 15,4 4 1-15,14 0 0 16,5 0 0-16,11 4 0 15,1 0 0-15,0 0 1 16,7-4 1-16,-2 8-3 16,1 0 0-16,-5 4 0 15,-14-4 1-15,1 0 0 16,-13 4 1-16,-10-8-1 16,-7-4 1-16,-13 4-2 15,-5 4 1-15,-11-4 1 16,-13 0 0-16,-13-4-2 15,-4 0 0-15,-19 0 2 16,-13-4 1-16,-16 4-3 0,-7 8 1 16,-6-4-1-16,-11 4 1 15,-8 4 0-15,8-4 0 16,4 4-1-16,1 0 1 16,7 0 0-16,10-8 1 15,14-4-1-15,11 4 1 16,6 0-2-16,12-4 1 0,11 0-1 15,20 0 0-15,10-4 1 16,20 4 1-16,4 0-2 16,32 4 0-16,11-4 1 15,-6 0 1 1,11 12-1-16,13-4 0 0,0 0 0 16,-5 0 0-16,-8-8 0 15,1 0 0-15,-18 4 0 16,-24 0 0-16,-6 4 1 15,-19-4 0-15,-16 8-2 16,-25 4 1-16,-6 0 1 16,-24 0 0-16,-18-4-1 15,-12 4 0-15,-6-4-1 16,-24-1 1-16,-12 1 0 16,-18-4 1-16,-12 4-2 15,30-4 0-15,7 4 1 16,-1 0 1-16,24 0-2 15,12-4 1-15,24 0-1 16,12-4 1-16,12-4-1 16,18 4 0-16,12-4 2 15,24-8 0-15,12 8-2 0,6-4 1 16,23-8-1-16,14 8 0 16,4-3 2-16,8 3 0 15,11-8-1-15,0-4 0 16,-25 0-1-16,-5 4 1 15,-6 0 1-15,-18 12 0 16,-6-4-1-16,-12-3 0 16,-12 7 1-16,-6-4 0 0,-18 4-2 15,0 0 1-15,-24 4 0 16,-18 4 0-16,-17 4-1 16,-26 3 1-16,-17 5 0 15,6 4 1-15,7-8-1 16,-7 4 1-16,12 0-2 15,6-4 1-15,18 0-1 16,18-8 1-16,12 0-1 16,12 4 1-16,12-5 0 15,24-3 0-15,12 0-1 16,12-3 1-16,6-1 0 16,12 0 0-16,18-4 0 15,6 4 0-15,-1 0 0 0,2-8 1 16,4 12-1-16,1-8 0 15,-11 4-1-15,-13 4 1 16,-13-8-1-16,-10 4 1 16,-14 4 0-16,1 0 1 15,-6 0-1-15,-5-8 1 16,-2 0-1-16,-5 0 0 16,-6 0 0-16,-6-4 1 15,-12 8-1-15,-17 0 0 16,-14 4 0-16,-4 0 0 15,-7 4-1-15,-13 4 1 16,2-4 0-16,-2 4 1 16,8 0-1-16,17-4 1 15,6 0-1-15,6-8 0 16,5 8 0-16,8-4 0 16,4 0-1-16,14 0 1 0,-1 0 0 15,-1 0 0-15,7-8-1 16,13 4 1-16,11 0-1 15,12 0 0-15,6 4 0 16,5-4 1-16,-5 0 0 16,-5 0 0-16,-7 8-1 15,-6-4 1-15,-6 0-1 16,-7 0 1-16,-4 4-5 16,-7-4 1-16,-12 8 1 15,-6-4 0-15,-6-8 2 16,-7 4 0-16,-4 0 1 15,-1-4 0-15,-6-4 0 16,6 8 1-16,-1-8-2 16,8 4 1-16,-7 0 0 0,-1 0 1 15,2-3-1 1,-1-1 0-16,5 4 0 0,8 0 0 16,5 4 0-16,1 4 1 15,4-4-1-15,7 8 0 16,6 3 0-16,0 1 0 15,12 8-1-15,0 4 1 16,0 12 1-16,0 3 0 16,0-3-2-16,5 4 0 15,-4 0 1-15,-1 3 1 0,-6 1-1 16,0-4 0 0,1-5 0-16,-7 1 1 15,0-8-2-15,-7-4 1 0,7-5 0 16,-6-3 0-16,6-4 0 15,0-4 0-15,0-8 0 16,-6-4 1-16,0-8-1 16,0-8 1-16,0-11-1 15,-1-1 0-15,2-8-1 16,-7 8 1-16,0 1 1 16,0 7 1-16,0 4-3 15,7 4 1-15,-2 0-1 16,1 4 0-16,6 4 1 0,6 8 0 15,1 8 1 1,4 4 0-16,-5 8-1 16,0 12 0-16,6 4-1 0,-6-1 1 15,0 1 0-15,5-4 1 16,-4-4-3-16,-1-5 1 16,-6-7-20-1,0-4 0-15,-6-8-6 0,-1-20 1 16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1648 218 11 0,'-18'-12'5'0,"-6"36"3"0,19-20-7 16,-8 12 3-16,2-8 1 16,-2 0 0-16,8 4 0 15,-8-8-1-15,8 0 1 16,-1 4-1-16,6-8 0 15,0 0 0-15,-13 4 1 16,13-4 0-16,0 0 0 0,-5 0-1 16,5 0 0-16,0 0-1 15,-6-12 1-15,6 0-2 16,-7-8 0-16,7-4 2 16,-5-8 1-16,5-3-3 15,5-9 1-15,8-8-3 16,5-11 1-16,11-9-1 15,8 1 1-15,-1-12 1 16,6-1 0-16,18-15-2 16,17 12 0-16,8-1 0 15,4 1 0-15,19 0 1 16,0 11 0-16,6 5-1 16,17-4 0-16,2 7-1 15,22 1 1-15,-11 3 0 16,12 9 0-16,6 7 0 15,-12 12 1-15,-6 28-1 16,0 20 1-16,-30 16 0 16,-12 24 1-16,-13 7-2 15,-16 13 1-15,-7 3 0 16,-19-8 1-16,-5 1-2 16,-11-1 1-16,-8-11-2 15,-4-8 1-15,-14-9-5 0,1-7 1 16,-6-4-12-16,-6-12 1 15,1-8-4-15,-8-12 1 16,7-8-8-16,6-12 1 16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">3771-611 19 0,'-7'-4'9'0,"7"-4"2"0,0 4-10 0,0 0-1 15,7 0 1-15,-1 4 3 16,-6-4 0-16,0 4 0 15,0-4 1-15,5 0 2 16,-5 4 1-16,6 4-7 16,-6 0 0-16,0 0 0 15,7 0 1-15,-1 8 0 16,-1 0 0-16,2 0-1 16,-1 3 1-16,-1-3-2 15,8 4 0-15,5-8 0 16,6 4 1-16,-6 0 0 0,0 0 0 15,6 0 1-15,5 0 0 16,-5 0-1-16,1 7 0 16,4-3-1-16,8 0 0 15,5 4 0-15,5 4 0 16,1 0 7-16,0-1 0 16,0 1-6-16,0 0 0 15,-18-4-1-15,0 0 0 16,-12-4 2-16,0-4 0 15,-6-4 0-15,0-1 1 16,-6 1-2-16,0 0 0 16,0-4-1-16,-6-4 0 0,0 0 0 15,0 0 0-15,0-4 0 16,5 4 1-16,-5-4 0 16,0-4 0-16,0-3 0 15,7-5 1-15,-7-4-2 16,6-8 0-16,-6-4 0 15,0-15 1-15,0-25-1 16,0-3 0-16,0-5 0 16,0 1 0-16,-6 8-6 15,-1 3 1-15,-4 5-12 16,-1 15 1-16,-7 0-15 16,8 5 0-16,-1-1 22 15,6-15 1-15</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -7046,17 +7526,17 @@
       <inkml:brushProperty name="color" value="#177D36"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2026 4 29 0,'0'0'14'0,"-5"-12"9"0,5 12-15 0,11 0-4 16,-1 0 1-16,6 0-4 15,5 0 0-15,6 4-2 16,5 0 0-16,-1-4 1 16,1 4 0-16,-5-4-13 15,-1 0 0-15,-5-4-15 16,-5-4 1-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">2127 183 27 0,'11'4'13'0,"20"-24"10"0,-15 16-14 15,5-4-6-15,6 4 1 16,-1 0-4-16,6 4 1 16,-11-8-2-16,0 12 1 0,1 0-10 15,-1 0 1-15,-5 0-21 16,-6 4 1-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">2561-52 21 0,'21'-4'10'0,"0"-7"11"0,-5 7-11 15,0 0-2-15,0 0 1 16,0-4-6-16,5 4 0 16,11 0-3-16,10 4 0 15,0 0 0-15,6 4 0 16,0 0-4-16,-6-4 0 15,-10 4-33-15,-11-4 0 16,-5 0 36-16,-11-4 1 16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">2741-131 22 0,'-5'-4'11'0,"10"20"11"0,-5-8-10 15,5 8-5-15,0 4 0 16,1 3-5-16,-1 9 0 16,6 8-2-16,-1 4 1 15,1 7-3-15,-6-3 1 16,0-9-12-16,1-7 0 0,-6-4-15 16,0-4 1-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4">3233-99 29 0,'0'-12'14'0,"16"-4"7"15,-11 8-15-15,6 0-3 16,-1 0 0-16,6 0-2 16,5 0 1-16,-5 4 0 15,5 4 1-15,6 4-2 16,-1 4 1-16,1 8-2 15,-1 8 0-15,-10 4 5 16,-5 3 0-16,-6 13-2 16,-5-4 1-16,-11 4-3 0,1-1 0 15,-6-3-1-15,5-8 0 16,-10-9-7-16,0-3 1 16,-5-12-12-16,-1-4 1 15,6-4-11-15,5-8 0 16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5">3265-79 17 0,'0'8'8'0,"10"11"15"15,1 9-23-15,-11-28 0 16,0 28 18-16,16 16 1 16,5-1-19-16,-5 5 1 15,0-8-2-15,-6-5 0 16,1 1-8-16,-1-4 1 15,-10-16-25-15,-5-12 1 16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6">3783-202 17 0,'6'-20'8'0,"4"12"13"16,-10 8-9-16,0 0-2 16,5-4 0-16,-5 4-4 15,0 0 0-15,0 0-3 16,0-4 0-16,-5 4 0 15,5 4 1-15,-5 4-3 16,-6 8 1-16,-5 4 3 16,1 7 0-16,-1 9-3 15,5 4 1-15,6 3 2 16,5-3 1-16,10 8-2 0,6-1 0 16,16-11-5-16,10-8 1 15,11-8 2-15,-5-12 1 16,-6-16-9-16,1-4 1 15,-6 4-18-15,-11-4 0 32</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7">180 12 20 0,'5'-4'10'0,"0"-4"3"0,-5 8-11 0,0 0 0 16,0 0 0-16,0 0 11 15,0 0 1-15,-5 4-13 16,-11 0 0-16,0 4 0 16,-10 0 0-16,-1 4-1 15,1 12 1-15,5-5-1 16,5 13 1-16,5-4-1 15,1 4 0-15,-1-1 0 16,6-7 1-16,10 0 0 16,6-8 1-16,10-8-2 15,11-4 1-15,5-12 0 16,0-4 0-16,-6 8-1 16,-4-4 1-16,-6-4 10 15,-5-8 1-15,-6-3-12 0,-4 3 1 16,-6 0-1-16,0 0 0 15,-6 4-1-15,1 4 1 16,-5 0 0-16,4 4 1 16,1 12-1-16,5 0 0 15,0 4 0-15,5 16 1 16,6 8-1-16,5 0 1 16,0-1 0-16,-1 9 0 15,12-8-1-15,-1 7 1 16,-4 5-1-16,4 8 1 15,-10 3-1-15,-6 1 1 0,-10-9-1 16,-5-7 1-16,-5 20-1 16,-6-9 0-16,0 1 0 15,-5-20 0-15,-11-13 0 16,-10-3 0-16,-1-20 0 16,-4-8 0-16,4-11-2 15,6-1 0-15,11-4-1 16,5 0 1-16,5-4-14 15,5 5 0-15,6 3-1 16,10 0 1-16,6 4-4 16,5 0 1-16,10 1 18 15,1 3 1-15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8">428 64 14 0,'-10'-4'7'0,"20"35"9"0,-4-23-6 15,4 8-5-15,6 8 1 0,0 4-1 16,0 7 0-16,-6-7 0 16,1 4 1-16,0-12-3 15,-1 0 1-15,-5-8 6 16,1-1 0-16,-6-11-10 16,-6-7 0-16,-4-13-1 15,-1-4 1-15,-5-4-1 16,1-12 0-16,-1 9 1 15,5-1 1-15,1 8-3 16,10 0 0-16,10 8 1 16,6 5 1-16,5 3 0 15,6 4 1-15,-1 0-2 16,-5 0 1-16,0 8-1 16,1-8 1-16,-7 4-6 15,1 0 0-15,-5 0-6 0,-1-4 0 16,-4 0 5-16,-6 4 1 15,0 0-9-15,5-8 1 16,0 0 4-16,1 4 1 16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9">809-16 20 0,'0'4'10'0,"0"8"6"0,0-8-9 0,0-4-4 16,0 4 1-16,6 0 0 16,-6 0 0-16,0-4-1 15,5 4 0-15,-5-4-1 16,5-4 1-16,1-4-2 16,-1-4 1-16,0 0-2 15,-5-4 0-15,0 0-1 16,-5 4 0-16,0 1 1 15,-6 3 0-15,-5 8-1 16,0 4 1-16,0 8 1 16,0 3 0-16,6 13-1 15,-1 4 1-15,11 4 0 16,6-5 0-16,9 5 1 16,12-4 0-16,10-4-3 15,0-12 1-15,0 3 0 16,5-7 1-16,-5-8-1 15,6-4 0-15,-12-12-1 0,1-8 0 16,-5 5 1-16,-1-13 1 16,-10 8-1-16,0 0 0 15,-6 0-1-15,1 4 1 16,-6 1 1-16,-5 3 0 16,0 0-2-16,0 0 1 15,-5 0 1-15,0 4 0 16,-1 0-2-16,6 0 1 15,-5 0 0-15,0 4 1 16,0 0 1-16,-1 0 0 16,-4 0-1-16,-1 4 0 0,-5 0 0 15,0 0 1-15,1 4 0 16,-1 0 1-16,5 4-5 16,6 4 1-16,-1 0 3 15,1 12 0-15,16 8-1 16,5 7 1-16,10-3-1 15,11-4 0-15,0-5-2 16,0-11 1-16,-5 0 1 16,5-4 0-16,-5-16-3 15,-6 4 1-15,-5-8-16 16,-5-4 1-16,-10 0-9 16,-1-3 0-16,-5-1 13 15,0 0 1-15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10">1397 60 11 0,'0'11'5'0,"10"-14"12"0,-4 10-7 16,-1 5-1-16,0 8 1 15,0 0-4-15,1-8 0 16,-1 0 1-16,0-4 0 15,1-12-6-15,-1-8 1 16,0 0-3-16,6-8 1 16,-1-8-1-16,1-7 0 0,0-1 2 15,-1 8 0-15,1 4-2 16,5 8 0-16,-1 9 1 16,1 10 1-16,6 13-1 15,4 4 1-15,-5 16-1 16,0 8 0-16,6 3 0 15,-6-7 0-15,0 4-10 16,-5-9 0-16,0-3-24 16,-11-8 0-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2202 4 29 0,'0'0'14'0,"-6"-12"9"0,6 12-15 0,12 0-4 16,-1 0 1-16,6 0-4 15,6 0 0-15,7 4-2 16,4 0 0-16,0-4 1 16,1 4 0-16,-6-4-13 15,-1 0 0-15,-5-4-15 16,-5-4 1-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">2311 183 27 0,'12'4'13'0,"22"-24"10"0,-16 16-14 15,4-4-6-15,8 4 1 16,-2 0-4-16,7 4 1 16,-12-8-2-16,-1 12 1 0,2 0-10 15,-1 0 1-15,-6 0-21 16,-6 4 1-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">2783-52 21 0,'23'-4'10'0,"0"-7"11"0,-6 7-11 15,1 0-2-15,-1 0 1 16,0-4-6-16,6 4 0 16,12 0-3-16,11 4 0 15,-1 0 0-15,7 4 0 16,1 0-4-16,-8-4 0 15,-10 4-33-15,-12-4 0 16,-6 0 36-16,-11-4 1 16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">2979-131 22 0,'-6'-4'11'0,"12"20"11"0,-6-8-10 15,5 8-5-15,1 4 0 16,0 3-5-16,0 9 0 16,6 8-2-16,-2 4 1 15,2 7-3-15,-6-3 1 16,-1-9-12-16,2-7 0 0,-7-4-15 16,0-4 1-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4">3513-99 29 0,'0'-12'14'0,"18"-4"7"15,-13 8-15-15,7 0-3 16,-1 0 0-16,6 0-2 16,6 0 1-16,-5 4 0 15,4 4 1-15,8 4-2 16,-2 4 1-16,1 8-2 15,0 8 0-15,-12 4 5 16,-5 3 0-16,-7 13-2 16,-5-4 1-16,-12 4-3 0,2-1 0 15,-8-3-1-15,6-8 0 16,-11-9-7-16,1-3 1 16,-7-12-12-16,0-4 1 15,6-4-11-15,6-8 0 16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5">3548-79 17 0,'0'8'8'0,"11"11"15"15,1 9-23-15,-12-28 0 16,0 28 18-16,17 16 1 16,6-1-19-16,-5 5 1 15,-1-8-2-15,-6-5 0 16,1 1-8-16,-1-4 1 15,-11-16-25-15,-6-12 1 16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6">4111-202 17 0,'7'-20'8'0,"3"12"13"16,-10 8-9-16,0 0-2 16,6-4 0-16,-6 4-4 15,0 0 0-15,0 0-3 16,0-4 0-16,-6 4 0 15,6 4 1-15,-5 4-3 16,-7 8 1-16,-5 4 3 16,0 7 0-16,0 9-3 15,5 4 1-15,7 3 2 16,5-3 1-16,11 8-2 0,6-1 0 16,18-11-5-16,10-8 1 15,13-8 2-15,-6-12 1 16,-6-16-9-16,0-4 1 15,-5 4-18-15,-13-4 0 32</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7">196 12 20 0,'5'-4'10'0,"0"-4"3"0,-5 8-11 0,0 0 0 16,0 0 0-16,0 0 11 15,0 0 1-15,-5 4-13 16,-12 0 0-16,-1 4 0 16,-10 0 0-16,-1 4-1 15,0 12 1-15,7-5-1 16,4 13 1-16,6-4-1 15,1 4 0-15,-1-1 0 16,7-7 1-16,10 0 0 16,7-8 1-16,11-8-2 15,12-4 1-15,5-12 0 16,0-4 0-16,-6 8-1 16,-5-4 1-16,-6-4 10 15,-5-8 1-15,-7-3-12 0,-5 3 1 16,-6 0-1-16,0 0 0 15,-6 4-1-15,0 4 1 16,-5 0 0-16,5 4 1 16,0 12-1-16,6 0 0 15,0 4 0-15,6 16 1 16,6 8-1-16,5 0 1 16,0-1 0-16,0 9 0 15,12-8-1-15,-1 7 1 16,-4 5-1-16,4 8 1 15,-10 3-1-15,-7 1 1 0,-11-9-1 16,-6-7 1-16,-5 20-1 16,-6-9 0-16,0 1 0 15,-6-20 0-15,-12-13 0 16,-11-3 0-16,0-20 0 16,-5-8 0-16,4-11-2 15,7-1 0-15,11-4-1 16,7 0 1-16,4-4-14 15,6 5 0-15,7 3-1 16,10 0 1-16,7 4-4 16,6 0 1-16,10 1 18 15,1 3 1-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8">465 64 14 0,'-11'-4'7'0,"22"35"9"0,-4-23-6 15,4 8-5-15,6 8 1 0,0 4-1 16,1 7 0-16,-7-7 0 16,0 4 1-16,1-12-3 15,-1 0 1-15,-5-8 6 16,0-1 0-16,-6-11-10 16,-6-7 0-16,-5-13-1 15,-1-4 1-15,-5-4-1 16,0-12 0-16,0 9 1 15,5-1 1-15,1 8-3 16,11 0 0-16,11 8 1 16,6 5 1-16,6 3 0 15,6 4 1-15,0 0-2 16,-6 0 1-16,-1 8-1 16,2-8 1-16,-7 4-6 15,0 0 0-15,-5 0-6 0,-1-4 0 16,-5 0 5-16,-6 4 1 15,0 0-9-15,6-8 1 16,-1 0 4-16,2 4 1 16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9">879-16 20 0,'0'4'10'0,"0"8"6"0,0-8-9 0,0-4-4 16,0 4 1-16,7 0 0 16,-7 0 0-16,0-4-1 15,5 4 0-15,-5-4-1 16,6-4 1-16,0-4-2 16,0-4 1-16,-1 0-2 15,-5-4 0-15,0 0-1 16,-5 4 0-16,-1 1 1 15,-6 3 0-15,-5 8-1 16,-1 4 1-16,1 8 1 16,0 3 0-16,6 13-1 15,-1 4 1-15,12 4 0 16,6-5 0-16,11 5 1 16,12-4 0-16,11-4-3 15,0-12 1-15,1 3 0 16,4-7 1-16,-5-8-1 15,7-4 0-15,-13-12-1 0,1-8 0 16,-6 5 1-16,-1-13 1 16,-10 8-1-16,-1 0 0 15,-6 0-1-15,1 4 1 16,-7 1 1-16,-5 3 0 16,0 0-2-16,0 0 1 15,-5 0 1-15,-1 4 0 16,0 0-2-16,6 0 1 15,-6 0 0-15,1 4 1 16,0 0 1-16,-2 0 0 16,-4 0-1-16,-1 4 0 0,-5 0 0 15,-1 0 1-15,2 4 0 16,-1 0 1-16,5 4-5 16,6 4 1-16,0 0 3 15,0 12 0-15,18 8-1 16,6 7 1-16,10-3-1 15,12-4 0-15,0-5-2 16,1-11 1-16,-7 0 1 16,7-4 0-16,-7-16-3 15,-5 4 1-15,-7-8-16 16,-4-4 1-16,-12 0-9 16,0-3 0-16,-6-1 13 15,0 0 1-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10">1518 60 11 0,'0'11'5'0,"11"-14"12"0,-4 10-7 16,-2 5-1-16,0 8 1 15,1 0-4-15,0-8 0 16,0 0 1-16,-1-4 0 15,2-12-6-15,-2-8 1 16,1 0-3-16,6-8 1 16,-2-8-1-16,2-7 0 0,0-1 2 15,-1 8 0-15,1 4-2 16,6 8 0-16,-2 9 1 16,1 10 1-16,7 13-1 15,4 4 1-15,-5 16-1 16,0 8 0-16,6 3 0 15,-6-7 0-15,0 4-10 16,-6-9 0-16,1-3-24 16,-13-8 0-16</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -7086,8 +7566,8 @@
       <inkml:brushProperty name="color" value="#3165BB"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">-1762 1861 17 0,'-11'-4'8'0,"0"-11"9"0,11 15-10 16,0 0-4-16,0 0 0 16,0 0 2-16,0-4 0 15,0 4-1-15,0 0 0 16,0 0-2-16,0 0 0 0,0 0 1 15,0 0 0-15,0 0 0 16,0 0 0-16,6-4-1 16,-6 4 1-16,10-4-4 15,1-4 1-15,-6 0 2 16,0 0 0-16,1 8-2 16,4 0 0-16,6-8 1 15,0 4 0-15,5 0 1 16,6 8 0-16,-1-4-4 15,6 0 1-15,5-4 3 16,-5 4 0-16,-1 0-2 16,1 0 0-16,5 0 2 15,6 4 0-15,4-4-2 16,1 0 1-16,5 4-3 16,-6-4 1-16,1 4 2 15,-6 4 0-15,1 4-1 0,-1 0 0 16,-5 3-1-16,0 1 1 15,-5 0 1-15,0 0 0 16,-6-4-1-16,1 0 1 16,-12 0-2-16,1-4 1 15,-5-4 0-15,-1 0 0 16,-10 0-3-16,0 0 1 16,0-4-15-16,0 4 1 15,0-4-13-15,0 0 1 16,-5-4 22-16,0 0 0 15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">-715 1718 19 0,'-5'0'9'0,"10"-15"8"0,-5 19-10 16,0-4-1-16,0 0 1 15,0 0-2-15,0-4 0 16,0 0-3-16,0 4 0 0,0 0 1 15,0 4 0-15,0-4 0 16,0 4 0-16,0 7 0 16,0 1 0-16,0 0 1 15,6 0 1-15,4 4-3 16,1 0 0-16,5 4 1 16,0 0 1-16,5 3-3 15,0 1 0 1,5 8-1-1,1-4 1-15,-11-8-1 16,0-1 1-16,-6-3-2 16,1-4 1-16,-6 0 1 15,0 4 0-15,-5 0 0 16,0-4 0-16,-5 4 1 16,0 0 0-16,-6-4 0 15,-5 3 0-15,-5-7-2 16,-5 8 1-16,-6 0 0 0,11-12 0 15,-11 4-2-15,-10 0 1 16,5-8-1-16,-6 0 1 16,6 0 0-16,0 4 0 15,11-8-1-15,-1 8 0 16,11 0-2-16,6 0 1 16,10 8-17-16,0-4 0 15,10 4-10-15,1-1 1 16,5 1 13-16,-6-8 1 15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">-1759 1861 17 0,'-12'-4'8'0,"-1"-11"9"0,13 15-10 16,0 0-4-16,0 0 0 16,0 0 2-16,0-4 0 15,0 4-1-15,0 0 0 16,0 0-2-16,0 0 0 0,0 0 1 15,0 0 0-15,0 0 0 16,0 0 0-16,7-4-1 16,-7 4 1-16,11-4-4 15,2-4 1-15,-8 0 2 16,1 0 0-16,1 8-2 16,4 0 0-16,7-8 1 15,1 4 0-15,5 0 1 16,6 8 0-16,0-4-4 15,6 0 1-15,6-4 3 16,-5 4 0-16,-2 0-2 16,1 0 0-16,7 0 2 15,5 4 0-15,6-4-2 16,0 0 1-16,7 4-3 16,-8-4 1-16,2 4 2 15,-7 4 0-15,1 4-1 0,-2 0 0 16,-5 3-1-16,0 1 1 15,-5 0 1-15,-1 0 0 16,-6-4-1-16,1 0 1 16,-14 0-2-16,1-4 1 15,-6-4 0-15,0 0 0 16,-12 0-3-16,0 0 1 16,0-4-15-16,0 4 1 15,0-4-13-15,0 0 1 16,-6-4 22-16,0 0 0 15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">-568 1718 19 0,'-6'0'9'0,"12"-15"8"0,-6 19-10 16,0-4-1-16,0 0 1 15,0 0-2-15,0-4 0 16,0 0-3-16,0 4 0 0,0 0 1 15,0 4 0-15,0-4 0 16,0 4 0-16,0 7 0 16,0 1 0-16,0 0 1 15,7 0 1-15,4 4-3 16,2 0 0-16,5 4 1 16,0 0 1-16,6 3-3 15,0 1 0 1,5 8-1-1,2-4 1-15,-13-8-1 16,1-1 1-16,-8-3-2 16,1-4 1-16,-6 0 1 15,0 4 0-15,-6 0 0 16,0-4 0-16,-6 4 1 16,0 0 0-16,-6-4 0 15,-6 3 0-15,-6-7-2 16,-6 8 1-16,-6 0 0 0,12-12 0 15,-12 4-2-15,-12 0 1 16,6-8-1-16,-7 0 1 16,7 0 0-16,0 4 0 15,12-8-1-15,-1 8 0 16,13 0-2-16,7 0 1 16,11 8-17-16,0-4 0 15,11 4-10-15,2-1 1 16,5 1 13-16,-7-8 1 15</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -7117,8 +7597,8 @@
       <inkml:brushProperty name="color" value="#ED1C24"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">-3456 1846 18 0,'-10'-24'9'0,"20"16"7"15,-10 8-9-15,0-4-5 16,0 4 0-16,0 0 1 16,0 0 1-16,6 0 2 15,-1 8 0-15,0 4-1 16,0 4 0-16,1 3 0 0,-6 9 0 15,-6 4 0-15,6 0 1 16,-5-1-4-16,0-3 0 16,0-4 0-16,-1 4 0 15,6 0-2-15,0-5 0 16,0-3 1-16,-5-4 1 16,5-4 1-16,0 0 0 15,11-4-2-15,-1-8 0 16,6-4 0-16,10-4 0 15,12 8-1-15,4-8 1 16,0 0-1-16,6 4 0 16,-1 0 0-16,-4 4 0 0,-1-4 0 15,-10-4 1-15,-6 4-17 16,1 4 1-16,-11 0-14 16,-6 8 1-16,1 8 9 15,-11 0 1-15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">-2408 1818 16 0,'-11'-4'8'0,"22"-4"6"16,-11 8-9-16,0 0-3 15,0 0 0-15,0 0 2 16,0 0 0-16,0 0 3 16,0 0 0-16,0 0 0 15,0-4 0-15,0 4-3 16,0 0 0-16,0 0 0 0,0 0 0 15,0 0-1-15,0-4 1 16,0 4 0-16,0 0 1 16,0-4-3-16,0 4 1 15,-5 4-1-15,5-4 0 16,-6 0 1-16,6-4 0 16,-5 0-3-16,-5 4 1 15,-1-8-2-15,-5 4 0 16,0 0 3-16,-5-4 0 0,-5-4 1 15,-1 8 0-15,1-4-1 16,-6 4 1-16,5-4-5 16,-4 12 0-16,10-4 4 15,-1 4 0-15,-4 0-2 16,-1 8 0-16,1-4 0 16,0 0 0-16,-6-4 0 15,0 0 1-15,0 0 0 16,-5 0 0-16,6 4-1 15,4 0 1-15,-5 4-1 16,6 0 1-16,-6 4-2 16,0 3 0-16,1-3 2 15,4 4 0-15,1-4-2 16,-1 4 1-16,6-4-1 16,5-4 1-16,6-1 0 0,-1-3 1 15,0 0-2-15,6 0 0 16,0-4-3-1,0 0 1-15,-1 0-15 0,1 0 1 16,0 0-7-16,-1 0 1 16,6 4-5-16,-5 0 1 15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">-3454 1846 18 0,'-12'-24'9'0,"24"16"7"15,-12 8-9-15,0-4-5 16,0 4 0-16,0 0 1 16,0 0 1-16,7 0 2 15,-1 8 0-15,-1 4-1 16,1 4 0-16,1 3 0 0,-7 9 0 15,-7 4 0-15,7 0 1 16,-6-1-4-16,1-3 0 16,-1-4 0-16,-1 4 0 15,7 0-2-15,0-5 0 16,0-3 1-16,-6-4 1 16,6-4 1-16,0 0 0 15,13-4-2-15,-2-8 0 16,8-4 0-16,11-4 0 15,15 8-1-15,4-8 1 16,0 0-1-16,7 4 0 16,-1 0 0-16,-5 4 0 0,-1-4 0 15,-12-4 1-15,-6 4-17 16,0 4 1-16,-12 0-14 16,-8 8 1-16,2 8 9 15,-13 0 1-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">-2231 1818 16 0,'-13'-4'8'0,"26"-4"6"16,-13 8-9-16,0 0-3 15,0 0 0-15,0 0 2 16,0 0 0-16,0 0 3 16,0 0 0-16,0 0 0 15,0-4 0-15,0 4-3 16,0 0 0-16,0 0 0 0,0 0 0 15,0 0-1-15,0-4 1 16,0 4 0-16,0 0 1 16,0-4-3-16,0 4 1 15,-6 4-1-15,6-4 0 16,-7 0 1-16,7-4 0 16,-6 0-3-16,-6 4 1 15,0-8-2-15,-7 4 0 16,0 0 3-16,-5-4 0 0,-7-4 1 15,0 8 0-15,1-4-1 16,-8 4 1-16,7-4-5 16,-5 12 0-16,11-4 4 15,-1 4 0-15,-4 0-2 16,-2 8 0-16,2-4 0 16,0 0 0-16,-8-4 0 15,1 0 1-15,0 0 0 16,-6 0 0-16,6 4-1 15,6 0 1-15,-6 4-1 16,6 0 1-16,-6 4-2 16,-1 3 0-16,2-3 2 15,5 4 0-15,0-4-2 16,0 4 1-16,6-4-1 16,7-4 1-16,6-1 0 0,-1-3 1 15,0 0-2-15,8 0 0 16,-1-4-3-1,0 0 1-15,-1 0-15 0,1 0 1 16,0 0-7-16,-1 0 1 16,7 4-5-16,-6 0 1 15</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -7148,7 +7628,7 @@
       <inkml:brushProperty name="color" value="#ED1C24"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2995 104 9 0,'5'-4'4'0,"-10"-4"5"0,5 8-6 15,-10 4 1-15,-1-8 1 16,-5 4-1-16,0-8 0 15,-5 4-1-15,0 0 0 16,-6 0 0-16,-4 0 0 16,-1 0-1-16,-10-4 0 15,-6 0 0-15,-5 8 0 16,-5-4 1-16,-6 0 1 0,-10 0 1 16,-5-4 1-16,-6-4-1 15,-15 4 0-15,-6 4-3 16,0 0 1-16,-10 4-2 15,-6 8 1-15,-10 4-3 16,-1 12 1-16,1 4 0 16,0-4 0-16,5 0 0 15,5-5 1-15,-10 1 1 16,10 0 1-16,16 4-3 16,0 4 0-16,11 3 0 15,10 5 0-15,1 0 0 16,15 4 0-16,11-5-2 15,10 1 0-15,11 8 4 16,11-1 0-16,15 5-2 0,11 0 1 16,5-1 0-16,17 5 0 15,25-13-1-15,6 1 0 16,11 0 0-16,15-4 0 16,16 3-1-16,16 5 0 15,11 0 1-15,-6-9 1 16,17 1-1-16,10-8 0 15,10-8-1-15,1-1 1 16,-154-19 0 0,312-11 0-16,-58-1 0 15,-16-8 0-15,-37-4 1 16,-11-4-1-16,-31 4 1 16,-5-3-1-16,-11-1 0 0,-11 0 0 15,-21-4 1-15,-5 1-2 16,-11-5 1-16,-16 0 1 15,-10-4 0-15,-16 9 1 16,-16-13 0-16,-10 4 1 16,-12 9 0-16,-15-9-2 15,-15 0 1-15,-7-7-1 16,-15-9 0-16,-10 4 0 16,-22 1 1-16,-10-5-2 15,-6 5 1-15,-21 7-4 16,-5 4 0-16,-5 9-6 15,-1 7 0-15,11 4-13 16,22 8 1-16,10-4-8 16,10 8 0-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3283 104 9 0,'5'-4'4'0,"-10"-4"5"0,5 8-6 15,-11 4 1-15,-1-8 1 16,-6 4-1-16,1-8 0 15,-6 4-1-15,0 0 0 16,-7 0 0-16,-4 0 0 16,-1 0-1-16,-11-4 0 15,-7 0 0-15,-5 8 0 16,-5-4 1-16,-7 0 1 0,-12 0 1 16,-4-4 1-16,-7-4-1 15,-17 4 0-15,-6 4-3 16,0 0 1-16,-11 4-2 15,-7 8 1-15,-11 4-3 16,-1 12 1-16,2 4 0 16,-1-4 0-16,6 0 0 15,5-5 1-15,-11 1 1 16,12 0 1-16,16 4-3 16,1 4 0-16,12 3 0 15,11 5 0-15,1 0 0 16,16 4 0-16,13-5-2 15,10 1 0-15,13 8 4 16,11-1 0-16,17 5-2 0,12 0 1 16,5-1 0-16,20 5 0 15,26-13-1-15,7 1 0 16,12 0 0-16,17-4 0 16,17 3-1-16,18 5 0 15,11 0 1-15,-5-9 1 16,17 1-1-16,12-8 0 15,11-8-1-15,1-1 1 16,-169-19 0 0,342-11 0-16,-64-1 0 15,-17-8 0-15,-41-4 1 16,-12-4-1-16,-33 4 1 16,-6-3-1-16,-13-1 0 0,-11 0 0 15,-23-4 1-15,-6 1-2 16,-12-5 1-16,-17 0 1 15,-12-4 0-15,-17 9 1 16,-17-13 0-16,-12 4 1 16,-12 9 0-16,-17-9-2 15,-17 0 1-15,-7-7-1 16,-16-9 0-16,-12 4 0 16,-23 1 1-16,-12-5-2 15,-6 5 1-15,-23 7-4 16,-6 4 0-16,-5 9-6 15,-1 7 0-15,11 4-13 16,25 8 1-16,11-4-8 16,11 8 0-16</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -7208,8 +7688,8 @@
       <inkml:brushProperty name="color" value="#ED1C24"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2022 4 10 0,'-16'-4'5'15,"-5"8"3"-15,15 0-6 0,6-4-2 16,-10 4 0-16,5-4 5 15,5 0 1-15,-11 4-3 16,6 4 0-16,-1 0-3 16,-4 0 1-16,5 0-1 15,-1 4 1-15,1-5 0 16,5 1 0-16,0 4-1 16,0-4 1-16,-5 0 1 15,5 8 1-15,0 4-2 16,5-4 0-16,0 0-1 15,1 7 1-15,-6 9 0 16,5 4 0-16,-5 12-1 16,0-17 0-16,0 13 0 15,0 4 0-15,0 11 0 16,0 5 0-16,0-9 0 0,0 13 1 16,-5 3-2-16,-1 4 1 15,-4 5 1-15,-6-17 0 16,-5 9-1-16,-1-1 0 15,1 1 1-15,-10 3 0 16,-7 8-2-16,-4 5 1 16,0-5 1-16,-6-4 1 15,6-3-4-15,0-9 1 0,-1-3 2 16,-4 3 1-16,-1 1 0 16,6-13 0-1,-6-7-3-15,0 8 1 0,1-9 1 16,-1 1 0-1,-5-1-1-15,-5 1 1 16,0 0 1-16,0-1 0 16,5-7-2-16,5-8 0 0,-5-1 1 15,-5 1 0-15,0 0 0 16,-1-4 0-16,1 3-1 16,0 1 0-16,0-4 1 15,0 0 0-15,5-4-1 16,0-5 0-16,5-3 0 15,1 0 0-15,10-4-1 16,5 0 0-16,0 0 1 16,11 0 0-16,0-4-3 15,5 0 0-15,0 0-27 16,5-4 1-16,17-12 24 16,4-8 0-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">-47 2461 12 0,'0'0'6'0,"-6"-4"1"0,6 4-5 16,0 0 2-16,0 0 1 15,0 0 0-15,0 0 0 16,-5 15-2-16,0 5 0 0,-6 0-3 16,1 4 0-16,-6 8 1 15,-5 11 0-15,-6 5 0 16,1-4 0-16,-1 3 1 16,6-3 1-16,0 4-3 15,5-9 1-15,0-3-1 16,6-4 0-16,-1-1 0 15,6-11 0-15,-1 0 4 16,6 0 0-16,0-8-3 16,0 0 0-16,6 4 0 15,10-4 0-15,5 4 0 16,11-5 0-16,10 1-1 16,5-8 0-16,6 0 0 15,11 0 1-15,10 0-2 16,0-4 1-16,0 4 0 15,0-4 0-15,-5-4-2 0,-11 4 1 16,-5 4-27-16,-5-4 1 16,-1-8 19-16,1-4 0 15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2375 4 10 0,'-19'-4'5'15,"-5"8"3"-15,17 0-6 0,7-4-2 16,-11 4 0-16,5-4 5 15,6 0 1-15,-13 4-3 16,8 4 0-16,-2 0-3 16,-5 0 1-16,6 0-1 15,0 4 1-15,0-5 0 16,6 1 0-16,0 4-1 16,0-4 1-16,-6 0 1 15,6 8 1-15,0 4-2 16,6-4 0-16,0 0-1 15,0 7 1-15,-6 9 0 16,6 4 0-16,-6 12-1 16,0-17 0-16,0 13 0 15,0 4 0-15,0 11 0 16,0 5 0-16,0-9 0 0,0 13 1 16,-6 3-2-16,0 4 1 15,-6 5 1-15,-6-17 0 16,-7 9-1-16,0-1 0 15,1 1 1-15,-12 3 0 16,-8 8-2-16,-4 5 1 16,0-5 1-16,-8-4 1 15,8-3-4-15,0-9 1 0,-2-3 2 16,-4 3 1-16,-1 1 0 16,6-13 0-1,-6-7-3-15,0 8 1 0,1-9 1 16,-1 1 0-1,-7-1-1-15,-4 1 1 16,-1 0 1-16,0-1 0 16,6-7-2-16,6-8 0 0,-6-1 1 15,-6 1 0-15,0 0 0 16,-1-4 0-16,2 3-1 16,-1 1 0-16,0-4 1 15,0 0 0-15,6-4-1 16,0-5 0-16,6-3 0 15,1 0 0-15,11-4-1 16,6 0 0-16,0 0 1 16,13 0 0-16,0-4-3 15,6 0 0-15,-1 0-27 16,7-4 1-16,18-12 24 16,6-8 0-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">-8 2461 12 0,'0'0'6'0,"-7"-4"1"0,7 4-5 16,0 0 2-16,0 0 1 15,0 0 0-15,0 0 0 16,-5 15-2-16,-1 5 0 0,-7 0-3 16,2 4 0-16,-8 8 1 15,-5 11 0-15,-7 5 0 16,1-4 0-16,-1 3 1 16,7-3 1-16,0 4-3 15,5-9 1-15,1-3-1 16,6-4 0-16,0-1 0 15,6-11 0-15,-1 0 4 16,7 0 0-16,0-8-3 16,0 0 0-16,7 4 0 15,11-4 0-15,7 4 0 16,11-5 0-16,13 1-1 16,5-8 0-16,7 0 0 15,13 0 1-15,11 0-2 16,0-4 1-16,0 4 0 15,0-4 0-15,-5-4-2 0,-13 4 1 16,-6 4-27-16,-6-4 1 16,-1-8 19-16,1-4 0 15</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -7239,8 +7719,8 @@
       <inkml:brushProperty name="color" value="#ED1C24"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">16 48 7 0,'5'4'3'0,"-15"-12"2"15,10 8-5-15,-6 4 4 16,6-4 0-16,0 0 1 16,0 0 0-16,0 0 2 15,0 9 0-15,0-5-2 16,-5-4 1-16,5 0-1 15,5-4 0-15,1-1-4 0,4 1 0 16,1 0 1-16,5-1 0 16,10 1 2-16,6-1 1 15,5 1-3-15,0 0 0 16,0-5-1-16,11 4 1 16,10 1 0-16,5 0 0 15,1 4-1-15,-6 0 0 16,0 4 3-16,6 5 1 15,5 13-3-15,-1 0 0 16,-4 4-2-16,-6-4 1 16,11 14-1-16,0 12 1 0,5 1-2 15,-16 8 1-15,0 1 1 16,0 21 0-16,1 0-2 16,-1 14 0-16,-5-5 1 15,0 9 0-15,-11 5 0 16,-5-1 0-16,-5 18 0 15,-6 9 0-15,-5-9 1 16,1 5 1-16,-12 4-3 16,-4 4 1-16,-6 10 0 15,0 3 1-15,-6-17-1 16,-4 0 0-16,-6 4 0 16,-5-4 1-16,-11 5-2 15,-5-1 1-15,0-8 0 16,0-1 1-16,10-4-2 15,1-8 1-15,-1 8 0 0,6-5 0 16,0-12 0-16,0-5 0 16,5-13 1-16,-5-5 0 15,5-4-1-15,0 0 0 16,0-4-2-16,6-5 1 16,-1-9 0-16,0-4 0 15,6-9-12-15,0 5 1 16,0-9-10-16,5-5 1 15,5 0 1-15,5-8 0 16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">969 4337 13 0,'0'0'6'0,"5"4"4"0,-5-4-8 16,0 9 4-16,0 0 0 15,0 4 4-15,0 5 0 16,0 4-5-16,0 9 0 0,0-1-2 16,0 6 0-16,0-1 1 15,0 0 0-15,5-8 2 16,0 8 0-16,1-8-3 16,-1 4 0-16,0-9-1 15,1-9 0-15,-1 4-1 16,0-3 0-16,6-1 4 15,-6-4 0-15,6-5 0 16,-1 5 0-16,6-5 1 16,11-4 0-16,-1-13-6 15,11-22 0-15,5-9-2 16,-5-18 1-16,11 5-2 16,5 4 1-16,0-5-4 15,10 1 1-15,-4 4-14 16,-1 4 1-16,11 1-14 15,-1-1 0-15,6 10 21 16,-5-1 1-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">18 48 7 0,'5'4'3'0,"-16"-12"2"15,11 8-5-15,-7 4 4 16,7-4 0-16,0 0 1 16,0 0 0-16,0 0 2 15,0 9 0-15,0-5-2 16,-5-4 1-16,5 0-1 15,5-4 0-15,2-1-4 0,4 1 0 16,1 0 1-16,6-1 0 16,10 1 2-16,7-1 1 15,6 1-3-15,-1 0 0 16,1-5-1-16,11 4 1 16,12 1 0-16,5 0 0 15,1 4-1-15,-6 0 0 16,-1 4 3-16,7 5 1 15,6 13-3-15,-2 0 0 16,-4 4-2-16,-6-4 1 16,12 14-1-16,-1 12 1 0,6 1-2 15,-17 8 1-15,-1 1 1 16,1 21 0-16,0 0-2 16,0 14 0-16,-6-5 1 15,0 9 0-15,-12 5 0 16,-5-1 0-16,-6 18 0 15,-7 9 0-15,-5-9 1 16,1 5 1-16,-13 4-3 16,-4 4 1-16,-7 10 0 15,0 3 1-15,-7-17-1 16,-4 0 0-16,-6 5 0 16,-6-5 1-16,-12 5-2 15,-6-1 1-15,1-8 0 16,-1-1 1-16,12-4-2 15,0-8 1-15,-1 8 0 0,7-5 0 16,0-12 0-16,0-5 0 16,6-13 1-16,-6-5 0 15,5-4-1-15,1 0 0 16,-1-4-2-16,7-5 1 16,-1-9 0-16,0-4 0 15,7-9-12-15,-1 5 1 16,1-9-10-16,5-5 1 15,5 0 1-15,6-8 0 16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1062 4338 13 0,'0'0'6'0,"5"4"4"0,-5-4-8 16,0 9 4-16,0 0 0 15,0 4 4-15,0 5 0 16,0 4-5-16,0 9 0 0,0-1-2 16,0 6 0-16,0-1 1 15,0 0 0-15,6-8 2 16,-1 8 0-16,2-8-3 16,-2 4 0-16,1-9-1 15,0-9 0-15,0 4-1 16,-1-3 0-16,7-1 4 15,-6-4 0-15,6-5 0 16,-1 5 0-16,6-5 1 16,13-4 0-16,-2-13-6 15,13-22 0-15,5-9-2 16,-6-18 1-16,13 5-2 16,5 4 1-16,0-5-4 15,11 1 1-15,-4 4-14 16,-2 4 1-16,13 1-14 15,-2-1 0-15,7 10 21 16,-5-1 1-16</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -7270,8 +7750,8 @@
       <inkml:brushProperty name="color" value="#ED1C24"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">37 1266 8 0,'-10'0'4'0,"5"4"1"0,5-4-4 16,0 0 2-16,0 0 1 15,-6 0-1-15,1 0 0 16,5 0-1-16,-11 0 1 16,11 4-1-16,0-4 0 15,0 0 0-15,0 0 1 16,0 0 0-16,0 0 1 16,0 0 1-16,0 0 1 0,11-8-5 15,0-4 0-15,4-7 1 16,7-9 1-16,15-16 1 15,5-7 0-15,6-5-2 16,5-8 0-16,5-15-2 16,-5-4 0-16,21-9 1 15,5-11 0-15,-5-8-2 16,6 12 1-16,-12 4 0 16,-4 11 1-16,-16 13-2 15,-11 19 1-15,-11 13 0 16,0 7 1-16,-10 8-2 15,-5 8 1-15,-6 4-2 16,-5 12 1-16,-5 4 0 16,0 4 1-16,-1 4-3 15,-10 0 1-15,6 4-5 16,-6 4 1-16,0 0-5 0,6-5 0 16,-6 1-8-16,-5 8 1 15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">466 64 7 0,'-10'4'3'0,"10"-8"3"15,0 4-4-15,10 4-1 16,-10 0 1-16,0 0 2 15,0 0 0-15,0 0 3 16,0 0 0-16,0 0-3 16,0 0 1-16,0 0 0 15,0-4 1-15,11 0 0 16,-1 0 1-16,17-8-6 16,-6-8 1-16,16-8-1 0,5-4 0 15,1-4 0 1,10 1 0-16,5 7 0 0,5-4 1 15,1 0 0-15,-17 0 0 16,6-3-1-16,0 7 0 16,-5 0 0-16,-1 4 1 15,-10 4-1-15,-5 0 0 16,-11 5 2-16,1 7 1 16,-22 4-3-16,0 8 0 15,-11 11 0-15,-5 1 0 16,-10 12 0-16,4 12 0 0,-9 19-2 15,15 13 0-15,-16 7 1 16,0 16 0-16,1-8-8 16,-1-19 1-16,5-9-8 15,-4-3 0-15,-1-1-16 16,0-3 0-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">42 1266 8 0,'-11'0'4'0,"5"4"1"0,6-4-4 16,0 0 2-16,0 0 1 15,-7 0-1-15,2 0 0 16,5 0-1-16,-13 0 1 16,13 4-1-16,0-4 0 15,0 0 0-15,0 0 1 16,0 0 0-16,0 0 1 16,0 0 1-16,0 0 1 0,13-8-5 15,-1-4 0-15,5-7 1 16,8-9 1-16,18-16 1 15,4-7 0-15,8-5-2 16,6-8 0-16,5-15-2 16,-6-4 0-16,25-9 1 15,5-11 0-15,-6-8-2 16,8 12 1-16,-15 4 0 16,-4 11 1-16,-18 13-2 15,-13 19 1-15,-12 13 0 16,-1 7 1-16,-10 8-2 15,-7 8 1-15,-6 4-2 16,-6 12 1-16,-6 4 0 16,1 4 1-16,-2 4-3 15,-12 0 1-15,8 4-5 16,-7 4 1-16,0 0-5 0,6-5 0 16,-6 1-8-16,-6 8 1 15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">532 64 7 0,'-12'4'3'0,"12"-8"3"15,0 4-4-15,12 4-1 16,-12 0 1-16,0 0 2 15,0 0 0-15,0 0 3 16,0 0 0-16,0 0-3 16,0 0 1-16,0 0 0 15,0-4 1-15,12 0 0 16,0 0 1-16,18-8-6 16,-6-8 1-16,19-8-1 0,5-4 0 15,1-4 0 1,11 1 0-16,6 7 0 0,6-4 1 15,1 0 0-15,-19 0 0 16,6-3-1-16,1 7 0 16,-7 0 0-16,0 4 1 15,-12 4-1-15,-5 0 0 16,-13 5 2-16,1 7 1 16,-25 4-3-16,0 8 0 15,-13 11 0-15,-5 1 0 16,-12 12 0-16,5 12 0 0,-10 19-2 15,17 13 0-15,-19 7 1 16,1 16 0-16,0-8-8 16,0-19 1-16,5-9-8 15,-4-3 0-15,-2-1-16 16,1-3 0-16</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -7331,7 +7811,7 @@
       <inkml:brushProperty name="color" value="#3165BB"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1874 151 8 0,'0'-12'4'0,"10"20"6"16,-10-8-3-16,0 0-1 15,0 4 1-15,0-12-3 0,0 4 1 16,-5-4-2-16,0-4 0 15,-6 0 2-15,-5 0 0 16,-5-3-2-16,-6-1 0 16,-15 0 2-16,-5 0 0 15,-12 0-4-15,-4 4 0 16,-27 8 1-16,-16 8 1 16,-26 8-3-16,-6 12 0 15,-15 0 3-15,10 11 0 16,5 13 1-16,11 8 0 15,16-5-5-15,16 13 1 0,5-5-3 16,11 9 1-16,10-1 1 16,16 1 0-16,16-9 1 15,16-3 0-15,15 11-1 16,22 1 1-16,11-5 0 16,20 9 1-16,27-9-1 15,16 1 1-15,32-1 3 16,21-7 1-16,32-5-3 15,26-15 0-15,21-12-2 16,0-16 1-16,0-12-2 16,6-12 1-16,-11-8 1 15,-5 4 0-15,-17-12 2 16,-4 1 0-16,-32-9 0 16,-11-8 1-16,-11 5-3 0,-20-1 1 15,-22-4-1 1,-16 9 1-16,-20-5-2 0,-22-4 1 15,-22-3-1-15,-20-9 1 16,-27 1-1-16,-15-9 0 16,-27 1 1-16,-22-9 0 15,-9 9-2-15,-12 4 0 16,-10 15 0-16,-16 8 0 16,-5 12-5-16,-11 9 0 15,11 11-6-15,11 8 1 16,20 0-13-16,17 8 1 0,15 7-1 15,22 1 0-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2066 151 8 0,'0'-12'4'0,"11"20"6"16,-11-8-3-16,0 0-1 15,0 4 1-15,0-12-3 0,0 4 1 16,-6-4-2-16,1-4 0 15,-7 0 2-15,-6 0 0 16,-5-3-2-16,-7-1 0 16,-16 0 2-16,-6 0 0 15,-13 0-4-15,-5 4 0 16,-29 8 1-16,-18 8 1 16,-28 8-3-16,-7 12 0 15,-17 0 3-15,11 11 0 16,6 13 1-16,12 8 0 15,18-5-5-15,17 13 1 0,6-5-3 16,12 9 1-16,11-1 1 16,18 1 0-16,17-9 1 15,18-3 0-15,16 11-1 16,25 1 1-16,11-5 0 16,23 9 1-16,30-9-1 15,17 1 1-15,35-1 3 16,24-7 1-16,35-5-3 15,29-15 0-15,22-12-2 16,1-16 1-16,0-12-2 16,6-12 1-16,-12-8 1 15,-5 4 0-15,-19-12 2 16,-5 1 0-16,-34-9 0 16,-13-8 1-16,-12 5-3 0,-22-1 1 15,-25-4-1 1,-16 9 1-16,-23-5-2 0,-25-4 1 15,-23-3-1-15,-23-9 1 16,-29 1-1-16,-17-9 0 16,-29 1 1-16,-25-9 0 15,-10 9-2-15,-13 4 0 16,-11 15 0-16,-17 8 0 16,-7 12-5-16,-11 9 0 15,12 11-6-15,12 8 1 16,22 0-13-16,19 8 1 0,16 7-1 15,25 1 0-15</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -7597,14 +8077,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>147</v>
       </c>
@@ -7612,85 +8094,85 @@
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="20"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" ht="26" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="29" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G63" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>109</v>
       </c>
@@ -7698,22 +8180,22 @@
         <v>152</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B66" s="56" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="7"/>
     </row>
   </sheetData>
@@ -7724,14 +8206,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>218</v>
       </c>
@@ -7739,28 +8223,28 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>96</v>
       </c>
@@ -7768,13 +8252,13 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="C10" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="C11">
         <v>737.6</v>
@@ -7810,15 +8294,15 @@
         <v>737.6</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14">
         <v>250.01</v>
       </c>
@@ -7832,7 +8316,7 @@
         <v>250.01</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15">
         <v>250.01</v>
       </c>
@@ -7846,7 +8330,7 @@
         <v>250.01</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C16">
         <v>250.01</v>
       </c>
@@ -7860,7 +8344,7 @@
         <v>250.01</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C17">
         <v>250.01</v>
       </c>
@@ -7874,12 +8358,12 @@
         <v>250.01</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C20">
         <v>1492</v>
       </c>
@@ -7902,12 +8386,12 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C23">
         <v>376</v>
       </c>
@@ -7921,7 +8405,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C24">
         <v>376</v>
       </c>
@@ -7935,7 +8419,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C25">
         <v>376</v>
       </c>
@@ -7949,7 +8433,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C26">
         <v>376</v>
       </c>
@@ -7963,12 +8447,12 @@
         <v>376</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>0.13</v>
       </c>
@@ -8006,12 +8490,12 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>2047.94</v>
       </c>
@@ -8037,141 +8521,144 @@
         <v>2047.97</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B36" s="21">
         <v>0.96</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G44" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G47" s="34" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H51" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H52" s="34" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H55" s="35" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H58" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H63" s="35" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>214</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R80"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -8182,7 +8669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
@@ -8191,12 +8678,12 @@
         <v>8.1229999999999993</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -8207,7 +8694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
@@ -8216,80 +8703,80 @@
         <v>214.29714285714289</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="30"/>
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
       <c r="D29" s="31"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
       <c r="G30" s="17"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -8298,13 +8785,13 @@
         <v>204</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
       <c r="D40" s="16"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>203</v>
       </c>
@@ -8312,12 +8799,12 @@
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>155</v>
       </c>
@@ -8325,17 +8812,17 @@
       <c r="C43" s="31"/>
       <c r="D43" s="31"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="45" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1775</v>
       </c>
@@ -8388,12 +8875,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="44" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1775</v>
       </c>
@@ -8443,19 +8930,19 @@
         <v>6950</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="43"/>
       <c r="B73" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="43"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="20"/>
     </row>
   </sheetData>
@@ -8466,37 +8953,39 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q139"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>237</v>
       </c>
@@ -8504,7 +8993,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>239</v>
       </c>
@@ -8512,7 +9001,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>232</v>
       </c>
@@ -8520,7 +9009,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>230</v>
       </c>
@@ -8528,7 +9017,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>235</v>
       </c>
@@ -8536,7 +9025,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>231</v>
       </c>
@@ -8544,7 +9033,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>241</v>
       </c>
@@ -8552,7 +9041,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>242</v>
       </c>
@@ -8560,22 +9049,22 @@
         <v>243</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>3.9</v>
       </c>
@@ -8625,7 +9114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>16</v>
       </c>
@@ -8675,7 +9164,7 @@
         <v>3.59</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>39.32</v>
       </c>
@@ -8725,7 +9214,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>40</v>
       </c>
@@ -8775,7 +9264,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>44</v>
       </c>
@@ -8825,7 +9314,7 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>47</v>
       </c>
@@ -8875,7 +9364,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>50</v>
       </c>
@@ -8925,7 +9414,7 @@
         <v>6.49</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>52</v>
       </c>
@@ -8975,7 +9464,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>53</v>
       </c>
@@ -9025,7 +9514,7 @@
         <v>7.77</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>55</v>
       </c>
@@ -9075,7 +9564,7 @@
         <v>7.76</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>56</v>
       </c>
@@ -9125,7 +9614,7 @@
         <v>7.81</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>57</v>
       </c>
@@ -9175,7 +9664,7 @@
         <v>7.97</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>58</v>
       </c>
@@ -9225,7 +9714,7 @@
         <v>8.23</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>58</v>
       </c>
@@ -9275,7 +9764,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>58</v>
       </c>
@@ -9325,7 +9814,7 @@
         <v>9.58</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>58</v>
       </c>
@@ -9375,7 +9864,7 @@
         <v>10.78</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>58</v>
       </c>
@@ -9425,7 +9914,7 @@
         <v>11.17</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>58</v>
       </c>
@@ -9475,7 +9964,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>58</v>
       </c>
@@ -9525,7 +10014,7 @@
         <v>12.29</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>58</v>
       </c>
@@ -9575,7 +10064,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B39" s="20" t="s">
         <v>263</v>
       </c>
@@ -9585,30 +10074,30 @@
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="29"/>
       <c r="B42" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B43" s="20" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
         <v>251</v>
       </c>
@@ -9631,7 +10120,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
         <v>252</v>
       </c>
@@ -9654,47 +10143,47 @@
         <v>380</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H50" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H52" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H53" s="7" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H55" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H56" s="5" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>239</v>
       </c>
@@ -9702,27 +10191,27 @@
         <v>266</v>
       </c>
     </row>
-    <row r="65" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="66" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="67" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C67" s="20" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="72" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:13" x14ac:dyDescent="0.2">
       <c r="M72" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>257</v>
       </c>
@@ -9730,12 +10219,12 @@
         <v>265</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C87" s="20" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>258</v>
       </c>
@@ -9743,47 +10232,47 @@
         <v>264</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C90" s="20" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="115" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L115" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="116" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L116" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="134" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J134" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="136" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J136" s="41" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="137" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J137" s="61" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="138" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="10:11" x14ac:dyDescent="0.2">
       <c r="K138" s="20" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="139" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J139" s="5" t="s">
         <v>277</v>
       </c>
@@ -9795,34 +10284,36 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:Y64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D13" zoomScale="116" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="42" t="s">
         <v>89</v>
       </c>
@@ -9830,7 +10321,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0</v>
       </c>
@@ -9904,7 +10395,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0</v>
       </c>
@@ -9978,7 +10469,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0</v>
       </c>
@@ -10052,7 +10543,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0</v>
       </c>
@@ -10126,7 +10617,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0</v>
       </c>
@@ -10200,7 +10691,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0</v>
       </c>
@@ -10274,7 +10765,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0</v>
       </c>
@@ -10348,7 +10839,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0</v>
       </c>
@@ -10422,7 +10913,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0</v>
       </c>
@@ -10496,7 +10987,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0</v>
       </c>
@@ -10570,7 +11061,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0</v>
       </c>
@@ -10644,7 +11135,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0</v>
       </c>
@@ -10718,7 +11209,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="41" t="s">
         <v>93</v>
       </c>
@@ -10726,7 +11217,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0</v>
       </c>
@@ -10800,7 +11291,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0</v>
       </c>
@@ -10874,7 +11365,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0</v>
       </c>
@@ -10948,7 +11439,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0</v>
       </c>
@@ -11022,7 +11513,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0</v>
       </c>
@@ -11096,7 +11587,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0</v>
       </c>
@@ -11170,7 +11661,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0</v>
       </c>
@@ -11244,7 +11735,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0</v>
       </c>
@@ -11318,7 +11809,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0</v>
       </c>
@@ -11392,7 +11883,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0</v>
       </c>
@@ -11466,7 +11957,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0</v>
       </c>
@@ -11540,7 +12031,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0</v>
       </c>
@@ -11614,21 +12105,478 @@
         <v>100</v>
       </c>
     </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>4.5010000000000003</v>
+      </c>
+      <c r="P53">
+        <v>11.999000000000001</v>
+      </c>
+      <c r="Q53">
+        <v>22.986000000000001</v>
+      </c>
+      <c r="R53">
+        <v>37.204000000000001</v>
+      </c>
+      <c r="S53">
+        <v>58.496000000000002</v>
+      </c>
+      <c r="T53">
+        <v>75.629000000000005</v>
+      </c>
+      <c r="U53">
+        <v>86.885999999999996</v>
+      </c>
+      <c r="V53">
+        <v>90.561000000000007</v>
+      </c>
+      <c r="W53">
+        <v>93.007999999999996</v>
+      </c>
+      <c r="X53">
+        <v>97.412000000000006</v>
+      </c>
+      <c r="Y53">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>4.5010000000000003</v>
+      </c>
+      <c r="P54">
+        <v>11.999000000000001</v>
+      </c>
+      <c r="Q54">
+        <v>22.986000000000001</v>
+      </c>
+      <c r="R54">
+        <v>37.204000000000001</v>
+      </c>
+      <c r="S54">
+        <v>58.496000000000002</v>
+      </c>
+      <c r="T54">
+        <v>75.629000000000005</v>
+      </c>
+      <c r="U54">
+        <v>86.885999999999996</v>
+      </c>
+      <c r="V54">
+        <v>90.561000000000007</v>
+      </c>
+      <c r="W54">
+        <v>93.007999999999996</v>
+      </c>
+      <c r="X54">
+        <v>97.412000000000006</v>
+      </c>
+      <c r="Y54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>4.5010000000000003</v>
+      </c>
+      <c r="P55">
+        <v>11.999000000000001</v>
+      </c>
+      <c r="Q55">
+        <v>22.986000000000001</v>
+      </c>
+      <c r="R55">
+        <v>37.204000000000001</v>
+      </c>
+      <c r="S55">
+        <v>58.496000000000002</v>
+      </c>
+      <c r="T55">
+        <v>75.629000000000005</v>
+      </c>
+      <c r="U55">
+        <v>86.885999999999996</v>
+      </c>
+      <c r="V55">
+        <v>90.561000000000007</v>
+      </c>
+      <c r="W55">
+        <v>93.007999999999996</v>
+      </c>
+      <c r="X55">
+        <v>97.412000000000006</v>
+      </c>
+      <c r="Y55">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>4.5010000000000003</v>
+      </c>
+      <c r="P56">
+        <v>11.999000000000001</v>
+      </c>
+      <c r="Q56">
+        <v>22.986000000000001</v>
+      </c>
+      <c r="R56">
+        <v>37.204000000000001</v>
+      </c>
+      <c r="S56">
+        <v>58.496000000000002</v>
+      </c>
+      <c r="T56">
+        <v>75.629000000000005</v>
+      </c>
+      <c r="U56">
+        <v>86.885999999999996</v>
+      </c>
+      <c r="V56">
+        <v>90.561000000000007</v>
+      </c>
+      <c r="W56">
+        <v>93.007999999999996</v>
+      </c>
+      <c r="X56">
+        <v>97.412000000000006</v>
+      </c>
+      <c r="Y56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>4.5010000000000003</v>
+      </c>
+      <c r="P57">
+        <v>9.1</v>
+      </c>
+      <c r="Q57">
+        <v>18.783999999999999</v>
+      </c>
+      <c r="R57">
+        <v>32.061999999999998</v>
+      </c>
+      <c r="S57">
+        <v>52.866</v>
+      </c>
+      <c r="T57">
+        <v>70.977999999999994</v>
+      </c>
+      <c r="U57">
+        <v>84.93</v>
+      </c>
+      <c r="V57">
+        <v>88.846000000000004</v>
+      </c>
+      <c r="W57">
+        <v>91.049000000000007</v>
+      </c>
+      <c r="X57">
+        <v>96.188000000000002</v>
+      </c>
+      <c r="Y57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>3</v>
+      </c>
+      <c r="P58">
+        <v>6.4059999999999997</v>
+      </c>
+      <c r="Q58">
+        <v>14.755000000000001</v>
+      </c>
+      <c r="R58">
+        <v>28.571000000000002</v>
+      </c>
+      <c r="S58">
+        <v>48.462000000000003</v>
+      </c>
+      <c r="T58">
+        <v>66.817999999999998</v>
+      </c>
+      <c r="U58">
+        <v>82.573999999999998</v>
+      </c>
+      <c r="V58">
+        <v>86.968999999999994</v>
+      </c>
+      <c r="W58">
+        <v>89.638999999999996</v>
+      </c>
+      <c r="X58">
+        <v>95.001000000000005</v>
+      </c>
+      <c r="Y58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>3.4</v>
+      </c>
+      <c r="P59">
+        <v>6.7990000000000004</v>
+      </c>
+      <c r="Q59">
+        <v>13.500999999999999</v>
+      </c>
+      <c r="R59">
+        <v>25.4</v>
+      </c>
+      <c r="S59">
+        <v>42.499000000000002</v>
+      </c>
+      <c r="T59">
+        <v>61.499000000000002</v>
+      </c>
+      <c r="U59">
+        <v>79.001000000000005</v>
+      </c>
+      <c r="V59">
+        <v>85.001000000000005</v>
+      </c>
+      <c r="W59">
+        <v>88.698999999999998</v>
+      </c>
+      <c r="X59">
+        <v>94</v>
+      </c>
+      <c r="Y59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>3.601</v>
+      </c>
+      <c r="P60">
+        <v>7.2270000000000003</v>
+      </c>
+      <c r="Q60">
+        <v>12.531000000000001</v>
+      </c>
+      <c r="R60">
+        <v>21.823</v>
+      </c>
+      <c r="S60">
+        <v>36.130000000000003</v>
+      </c>
+      <c r="T60">
+        <v>55.362000000000002</v>
+      </c>
+      <c r="U60">
+        <v>75.466999999999999</v>
+      </c>
+      <c r="V60">
+        <v>83.623999999999995</v>
+      </c>
+      <c r="W60">
+        <v>87.703999999999994</v>
+      </c>
+      <c r="X60">
+        <v>93.5</v>
+      </c>
+      <c r="Y60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>4.0010000000000003</v>
+      </c>
+      <c r="P61">
+        <v>7.9989999999999997</v>
+      </c>
+      <c r="Q61">
+        <v>12.298999999999999</v>
+      </c>
+      <c r="R61">
+        <v>20.001000000000001</v>
+      </c>
+      <c r="S61">
+        <v>32.000999999999998</v>
+      </c>
+      <c r="T61">
+        <v>50</v>
+      </c>
+      <c r="U61">
+        <v>70.998999999999995</v>
+      </c>
+      <c r="V61">
+        <v>81</v>
+      </c>
+      <c r="W61">
+        <v>86.2</v>
+      </c>
+      <c r="X61">
+        <v>92.498999999999995</v>
+      </c>
+      <c r="Y61">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>4.5990000000000002</v>
+      </c>
+      <c r="P62">
+        <v>8.5510000000000002</v>
+      </c>
+      <c r="Q62">
+        <v>11.917</v>
+      </c>
+      <c r="R62">
+        <v>18.359000000000002</v>
+      </c>
+      <c r="S62">
+        <v>27.811</v>
+      </c>
+      <c r="T62">
+        <v>45.972000000000001</v>
+      </c>
+      <c r="U62">
+        <v>67.534999999999997</v>
+      </c>
+      <c r="V62">
+        <v>78.603999999999999</v>
+      </c>
+      <c r="W62">
+        <v>84.847999999999999</v>
+      </c>
+      <c r="X62">
+        <v>91</v>
+      </c>
+      <c r="Y62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>4.1989999999999998</v>
+      </c>
+      <c r="P63">
+        <v>7.6630000000000003</v>
+      </c>
+      <c r="Q63">
+        <v>10.403</v>
+      </c>
+      <c r="R63">
+        <v>16.329999999999998</v>
+      </c>
+      <c r="S63">
+        <v>24.422999999999998</v>
+      </c>
+      <c r="T63">
+        <v>40.75</v>
+      </c>
+      <c r="U63">
+        <v>63.006999999999998</v>
+      </c>
+      <c r="V63">
+        <v>75.143000000000001</v>
+      </c>
+      <c r="W63">
+        <v>82.947000000000003</v>
+      </c>
+      <c r="X63">
+        <v>91</v>
+      </c>
+      <c r="Y63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>4.1989999999999998</v>
+      </c>
+      <c r="P64">
+        <v>7.0979999999999999</v>
+      </c>
+      <c r="Q64">
+        <v>10.278</v>
+      </c>
+      <c r="R64">
+        <v>15.664999999999999</v>
+      </c>
+      <c r="S64">
+        <v>23.251000000000001</v>
+      </c>
+      <c r="T64">
+        <v>37.204000000000001</v>
+      </c>
+      <c r="U64">
+        <v>59.72</v>
+      </c>
+      <c r="V64">
+        <v>73.180999999999997</v>
+      </c>
+      <c r="W64">
+        <v>81.503</v>
+      </c>
+      <c r="X64">
+        <v>91</v>
+      </c>
+      <c r="Y64">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:T161"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A18" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>85</v>
       </c>
@@ -11636,32 +12584,32 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -11672,7 +12620,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>650</v>
       </c>
@@ -11725,87 +12673,87 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1100</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1350</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1760</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2000</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2250</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2750</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3300</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4000</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5000</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6000</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="38" t="s">
         <v>29</v>
       </c>
@@ -11824,42 +12772,42 @@
       <c r="N40" s="38"/>
       <c r="O40" s="38"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="19:19" x14ac:dyDescent="0.2">
       <c r="S49" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="19:19" x14ac:dyDescent="0.2">
       <c r="S61" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="T65" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="32">
         <v>1.1200000000000001</v>
       </c>
@@ -11909,7 +12857,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="32">
         <v>1.1200000000000001</v>
       </c>
@@ -11959,7 +12907,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="32">
         <v>1.1200000000000001</v>
       </c>
@@ -12009,7 +12957,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="32">
         <v>1.1299999999999999</v>
       </c>
@@ -12059,7 +13007,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="32">
         <v>1.1299999999999999</v>
       </c>
@@ -12109,7 +13057,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="32">
         <v>1.1299999999999999</v>
       </c>
@@ -12159,7 +13107,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="32">
         <v>1.1299999999999999</v>
       </c>
@@ -12209,7 +13157,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="32">
         <v>1.1200000000000001</v>
       </c>
@@ -12259,7 +13207,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="32">
         <v>1.1299999999999999</v>
       </c>
@@ -12309,7 +13257,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="32">
         <v>1.1299999999999999</v>
       </c>
@@ -12359,7 +13307,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="32">
         <v>1.1299999999999999</v>
       </c>
@@ -12409,7 +13357,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="32">
         <v>1.1200000000000001</v>
       </c>
@@ -12459,7 +13407,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="32">
         <v>1.1200000000000001</v>
       </c>
@@ -12509,7 +13457,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="32">
         <v>1.1299999999999999</v>
       </c>
@@ -12559,7 +13507,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="32">
         <v>1.1200000000000001</v>
       </c>
@@ -12609,7 +13557,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="32">
         <v>1.1200000000000001</v>
       </c>
@@ -12659,7 +13607,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="32"/>
       <c r="B84" s="32"/>
       <c r="C84" s="32"/>
@@ -12677,7 +13625,7 @@
       <c r="O84" s="32"/>
       <c r="P84" s="32"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="33" t="s">
         <v>82</v>
       </c>
@@ -12697,7 +13645,7 @@
       <c r="O85" s="32"/>
       <c r="P85" s="32"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="32">
         <v>1.22</v>
       </c>
@@ -12747,7 +13695,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="32">
         <v>1.22</v>
       </c>
@@ -12797,7 +13745,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="32">
         <v>1.22</v>
       </c>
@@ -12847,7 +13795,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="32">
         <v>1.23</v>
       </c>
@@ -12897,7 +13845,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="32">
         <v>1.23</v>
       </c>
@@ -12947,7 +13895,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="32">
         <v>1.23</v>
       </c>
@@ -12997,7 +13945,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="32">
         <v>1.23</v>
       </c>
@@ -13047,7 +13995,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="32">
         <v>1.22</v>
       </c>
@@ -13097,7 +14045,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" s="32">
         <v>1.23</v>
       </c>
@@ -13150,7 +14098,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="32">
         <v>1.23</v>
       </c>
@@ -13200,7 +14148,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="32">
         <v>1.23</v>
       </c>
@@ -13250,7 +14198,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="32">
         <v>1.22</v>
       </c>
@@ -13300,7 +14248,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="32">
         <v>1.22</v>
       </c>
@@ -13350,7 +14298,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="32">
         <v>1.23</v>
       </c>
@@ -13400,7 +14348,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="32">
         <v>1.22</v>
       </c>
@@ -13450,7 +14398,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="32">
         <v>1.22</v>
       </c>
@@ -13500,7 +14448,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="32"/>
       <c r="B102" s="32"/>
       <c r="C102" s="32"/>
@@ -13518,7 +14466,7 @@
       <c r="O102" s="32"/>
       <c r="P102" s="32"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="33" t="s">
         <v>81</v>
       </c>
@@ -13538,7 +14486,7 @@
       <c r="O103" s="32"/>
       <c r="P103" s="32"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="32">
         <v>1.38</v>
       </c>
@@ -13588,7 +14536,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="32">
         <v>1.38</v>
       </c>
@@ -13638,7 +14586,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="32">
         <v>1.38</v>
       </c>
@@ -13688,7 +14636,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="32">
         <v>1.39</v>
       </c>
@@ -13738,7 +14686,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="32">
         <v>1.39</v>
       </c>
@@ -13788,7 +14736,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="32">
         <v>1.39</v>
       </c>
@@ -13838,7 +14786,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" s="32">
         <v>1.39</v>
       </c>
@@ -13888,7 +14836,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="32">
         <v>1.38</v>
       </c>
@@ -13938,7 +14886,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="32">
         <v>1.39</v>
       </c>
@@ -13988,7 +14936,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" s="32">
         <v>1.39</v>
       </c>
@@ -14038,7 +14986,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" s="32">
         <v>1.39</v>
       </c>
@@ -14088,7 +15036,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" s="32">
         <v>1.38</v>
       </c>
@@ -14138,7 +15086,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" s="32">
         <v>1.38</v>
       </c>
@@ -14188,7 +15136,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" s="32">
         <v>1.39</v>
       </c>
@@ -14238,7 +15186,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" s="32">
         <v>1.38</v>
       </c>
@@ -14288,7 +15236,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" s="32">
         <v>1.38</v>
       </c>
@@ -14338,7 +15286,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" s="32"/>
       <c r="B120" s="32"/>
       <c r="C120" s="32"/>
@@ -14356,7 +15304,7 @@
       <c r="O120" s="32"/>
       <c r="P120" s="32"/>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" s="32"/>
       <c r="B121" s="32"/>
       <c r="C121" s="32"/>
@@ -14374,7 +15322,7 @@
       <c r="O121" s="32"/>
       <c r="P121" s="32"/>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="46" t="s">
         <v>78</v>
       </c>
@@ -14394,7 +15342,7 @@
       <c r="O122" s="32"/>
       <c r="P122" s="32"/>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" s="32">
         <v>1</v>
       </c>
@@ -14444,7 +15392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" s="32">
         <v>1</v>
       </c>
@@ -14494,7 +15442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" s="32">
         <v>1</v>
       </c>
@@ -14544,7 +15492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" s="32">
         <v>1</v>
       </c>
@@ -14594,7 +15542,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" s="32">
         <v>1</v>
       </c>
@@ -14644,7 +15592,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" s="32">
         <v>1</v>
       </c>
@@ -14694,7 +15642,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="32">
         <v>1</v>
       </c>
@@ -14744,7 +15692,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="32">
         <v>1</v>
       </c>
@@ -14794,7 +15742,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="32">
         <v>1</v>
       </c>
@@ -14844,7 +15792,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="32">
         <v>1</v>
       </c>
@@ -14894,7 +15842,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" s="32">
         <v>1</v>
       </c>
@@ -14944,7 +15892,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" s="32">
         <v>1</v>
       </c>
@@ -14994,7 +15942,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" s="32">
         <v>1</v>
       </c>
@@ -15044,7 +15992,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="32">
         <v>1</v>
       </c>
@@ -15094,7 +16042,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" s="32">
         <v>1</v>
       </c>
@@ -15144,7 +16092,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" s="32">
         <v>1</v>
       </c>
@@ -15194,22 +16142,22 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B140" s="20" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" s="47" t="s">
         <v>127</v>
       </c>
@@ -15217,7 +16165,7 @@
       <c r="C143" s="38"/>
       <c r="D143" s="38"/>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" s="39">
         <v>1.25</v>
       </c>
@@ -15267,7 +16215,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" s="39">
         <v>1.25</v>
       </c>
@@ -15317,7 +16265,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146" s="39">
         <v>1.26</v>
       </c>
@@ -15367,7 +16315,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147" s="39">
         <v>1.26</v>
       </c>
@@ -15417,7 +16365,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148" s="39">
         <v>1.26</v>
       </c>
@@ -15467,7 +16415,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149" s="39">
         <v>1.26</v>
       </c>
@@ -15517,7 +16465,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150" s="39">
         <v>1.27</v>
       </c>
@@ -15567,7 +16515,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151" s="39">
         <v>1.27</v>
       </c>
@@ -15617,7 +16565,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152" s="39">
         <v>1.28</v>
       </c>
@@ -15670,7 +16618,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153" s="39">
         <v>1.31</v>
       </c>
@@ -15720,7 +16668,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154" s="39">
         <v>1.33</v>
       </c>
@@ -15770,7 +16718,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155" s="39">
         <v>1.31</v>
       </c>
@@ -15820,7 +16768,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156" s="39">
         <v>1.31</v>
       </c>
@@ -15870,7 +16818,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157" s="39">
         <v>1.31</v>
       </c>
@@ -15923,7 +16871,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" s="39">
         <v>1.28</v>
       </c>
@@ -15973,7 +16921,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159" s="39">
         <v>1.27</v>
       </c>
@@ -16026,7 +16974,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B161" s="20" t="s">
         <v>84</v>
       </c>
@@ -16039,34 +16987,36 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:R179"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="N47" sqref="N47"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>11</v>
       </c>
@@ -16077,7 +17027,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
@@ -16089,7 +17039,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
@@ -16101,7 +17051,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>9</v>
       </c>
@@ -16113,100 +17063,100 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H13" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H21" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H25" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C30" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C31" s="20"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G44" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="43" t="s">
         <v>134</v>
       </c>
@@ -16227,7 +17177,7 @@
       <c r="P61" s="43"/>
       <c r="Q61" s="43"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="49">
         <v>14.901</v>
       </c>
@@ -16280,7 +17230,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="49">
         <v>14.901</v>
       </c>
@@ -16333,7 +17283,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="49">
         <v>14.901</v>
       </c>
@@ -16386,7 +17336,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="49">
         <v>14.901</v>
       </c>
@@ -16439,7 +17389,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="49">
         <v>14.901</v>
       </c>
@@ -16492,7 +17442,7 @@
         <v>14.004</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="49">
         <v>15.000999999999999</v>
       </c>
@@ -16548,7 +17498,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="49">
         <v>15.000999999999999</v>
       </c>
@@ -16601,7 +17551,7 @@
         <v>13.358000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="49">
         <v>15.000999999999999</v>
       </c>
@@ -16654,7 +17604,7 @@
         <v>13.500999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="49">
         <v>15.000999999999999</v>
       </c>
@@ -16707,7 +17657,7 @@
         <v>12.496</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="49">
         <v>15.000999999999999</v>
       </c>
@@ -16760,7 +17710,7 @@
         <v>12.496</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="49">
         <v>14.670999999999999</v>
       </c>
@@ -16816,7 +17766,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="49">
         <v>14.670999999999999</v>
       </c>
@@ -16869,7 +17819,7 @@
         <v>11.301</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="49">
         <v>14.670999999999999</v>
       </c>
@@ -16922,7 +17872,7 @@
         <v>11.201000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="49">
         <v>14.670999999999999</v>
       </c>
@@ -16975,7 +17925,7 @@
         <v>11.201000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="49">
         <v>14.670999999999999</v>
       </c>
@@ -17028,7 +17978,7 @@
         <v>11.201000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="49">
         <v>14.670999999999999</v>
       </c>
@@ -17081,7 +18031,7 @@
         <v>11.201000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="49">
         <v>14.535</v>
       </c>
@@ -17134,7 +18084,7 @@
         <v>11.201000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="49">
         <v>14.311999999999999</v>
       </c>
@@ -17187,12 +18137,12 @@
         <v>11.201000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="48">
         <v>14.670999999999999</v>
       </c>
@@ -17245,7 +18195,7 @@
         <v>14.083</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="48">
         <v>14.670999999999999</v>
       </c>
@@ -17298,7 +18248,7 @@
         <v>14.083</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="48">
         <v>14.670999999999999</v>
       </c>
@@ -17351,7 +18301,7 @@
         <v>14.083</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="48">
         <v>14.670999999999999</v>
       </c>
@@ -17404,7 +18354,7 @@
         <v>14.083</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="48">
         <v>14.670999999999999</v>
       </c>
@@ -17457,7 +18407,7 @@
         <v>14.004</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" s="48">
         <v>14.670999999999999</v>
       </c>
@@ -17510,7 +18460,7 @@
         <v>14.004</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" s="48">
         <v>14.670999999999999</v>
       </c>
@@ -17563,7 +18513,7 @@
         <v>13.358000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" s="48">
         <v>14.670999999999999</v>
       </c>
@@ -17616,7 +18566,7 @@
         <v>13.500999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" s="48">
         <v>14.670999999999999</v>
       </c>
@@ -17669,7 +18619,7 @@
         <v>12.496</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" s="48">
         <v>14.670999999999999</v>
       </c>
@@ -17722,7 +18672,7 @@
         <v>12.496</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" s="48">
         <v>14.670999999999999</v>
       </c>
@@ -17775,7 +18725,7 @@
         <v>11.273</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" s="48">
         <v>14.670999999999999</v>
       </c>
@@ -17828,7 +18778,7 @@
         <v>11.021000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" s="48">
         <v>14.670999999999999</v>
       </c>
@@ -17881,7 +18831,7 @@
         <v>10.878</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" s="48">
         <v>14.670999999999999</v>
       </c>
@@ -17934,7 +18884,7 @@
         <v>10.878</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" s="48">
         <v>14.670999999999999</v>
       </c>
@@ -17987,7 +18937,7 @@
         <v>10.878</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" s="48">
         <v>14.670999999999999</v>
       </c>
@@ -18040,7 +18990,7 @@
         <v>10.878</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" s="48">
         <v>14.535</v>
       </c>
@@ -18093,7 +19043,7 @@
         <v>10.878</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" s="48">
         <v>14.311999999999999</v>
       </c>
@@ -18146,12 +19096,12 @@
         <v>10.878</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -18204,7 +19154,7 @@
         <v>14.083</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -18257,7 +19207,7 @@
         <v>14.083</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -18310,7 +19260,7 @@
         <v>14.083</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -18363,7 +19313,7 @@
         <v>14.083</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -18416,7 +19366,7 @@
         <v>14.004</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -18469,7 +19419,7 @@
         <v>14.004</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -18522,7 +19472,7 @@
         <v>13.358000000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -18575,7 +19525,7 @@
         <v>13.500999999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -18628,7 +19578,7 @@
         <v>12.496</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -18681,7 +19631,7 @@
         <v>12.496</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -18734,7 +19684,7 @@
         <v>11.273</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -18787,7 +19737,7 @@
         <v>11.021000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -18840,7 +19790,7 @@
         <v>10.878</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -18893,7 +19843,7 @@
         <v>10.878</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -18946,7 +19896,7 @@
         <v>10.878</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -18999,7 +19949,7 @@
         <v>10.878</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118" s="21">
         <v>14.535</v>
       </c>
@@ -19052,7 +20002,7 @@
         <v>10.878</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" s="21">
         <v>14.311999999999999</v>
       </c>
@@ -19105,12 +20055,12 @@
         <v>10.878</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -19163,7 +20113,7 @@
         <v>14.083</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -19216,7 +20166,7 @@
         <v>14.083</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -19269,7 +20219,7 @@
         <v>14.083</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A125" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -19322,7 +20272,7 @@
         <v>14.083</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -19375,7 +20325,7 @@
         <v>14.004</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -19428,7 +20378,7 @@
         <v>14.004</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -19481,7 +20431,7 @@
         <v>13.358000000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -19534,7 +20484,7 @@
         <v>13.500999999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -19587,7 +20537,7 @@
         <v>12.496</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -19640,7 +20590,7 @@
         <v>12.496</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -19693,7 +20643,7 @@
         <v>11.398</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -19749,7 +20699,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -19802,7 +20752,7 @@
         <v>11.201000000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -19855,7 +20805,7 @@
         <v>11.201000000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A136" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -19908,7 +20858,7 @@
         <v>11.201000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A137" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -19961,7 +20911,7 @@
         <v>11.201000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A138" s="21">
         <v>14.535</v>
       </c>
@@ -20014,7 +20964,7 @@
         <v>11.201000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A139" s="21">
         <v>14.311999999999999</v>
       </c>
@@ -20067,12 +21017,12 @@
         <v>11.201000000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A142" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -20125,7 +21075,7 @@
         <v>14.670999999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A143" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -20178,7 +21128,7 @@
         <v>14.670999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A144" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -20231,7 +21181,7 @@
         <v>14.670999999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -20284,7 +21234,7 @@
         <v>14.125999999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -20337,7 +21287,7 @@
         <v>14.083</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A147" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -20390,7 +21340,7 @@
         <v>14.083</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A148" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -20443,7 +21393,7 @@
         <v>14.305</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A149" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -20496,7 +21446,7 @@
         <v>14.09</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A150" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -20549,7 +21499,7 @@
         <v>14.086</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A151" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -20602,7 +21552,7 @@
         <v>13.124000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A152" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -20658,7 +21608,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A153" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -20711,7 +21661,7 @@
         <v>12.55</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A154" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -20764,7 +21714,7 @@
         <v>12.55</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A155" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -20817,7 +21767,7 @@
         <v>12.55</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A156" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -20870,7 +21820,7 @@
         <v>12.55</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A157" s="21">
         <v>14.670999999999999</v>
       </c>
@@ -20923,7 +21873,7 @@
         <v>12.55</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A158" s="21">
         <v>14.535</v>
       </c>
@@ -20976,7 +21926,7 @@
         <v>12.55</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A159" s="21">
         <v>14.311999999999999</v>
       </c>
@@ -21029,7 +21979,7 @@
         <v>12.55</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A161" s="43" t="s">
         <v>138</v>
       </c>
@@ -21050,7 +22000,7 @@
       <c r="P161" s="43"/>
       <c r="Q161" s="43"/>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A162" s="43">
         <v>14.901</v>
       </c>
@@ -21103,7 +22053,7 @@
         <v>14.670999999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A163" s="43">
         <v>14.901</v>
       </c>
@@ -21156,7 +22106,7 @@
         <v>14.670999999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A164" s="43">
         <v>14.901</v>
       </c>
@@ -21209,7 +22159,7 @@
         <v>14.670999999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A165" s="43">
         <v>14.901</v>
       </c>
@@ -21262,7 +22212,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A166" s="43">
         <v>14.901</v>
       </c>
@@ -21315,7 +22265,7 @@
         <v>14.09</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A167" s="43">
         <v>15.199</v>
       </c>
@@ -21368,7 +22318,7 @@
         <v>14.09</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A168" s="43">
         <v>15.802</v>
       </c>
@@ -21421,7 +22371,7 @@
         <v>13.590999999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A169" s="43">
         <v>15.802</v>
       </c>
@@ -21474,7 +22424,7 @@
         <v>13.099</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A170" s="43">
         <v>15.802</v>
       </c>
@@ -21530,7 +22480,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A171" s="43">
         <v>15.199</v>
       </c>
@@ -21583,7 +22533,7 @@
         <v>12.199</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A172" s="43">
         <v>14.670999999999999</v>
       </c>
@@ -21636,7 +22586,7 @@
         <v>12.199</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A173" s="43">
         <v>14.670999999999999</v>
       </c>
@@ -21689,7 +22639,7 @@
         <v>12.000999999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A174" s="43">
         <v>14.670999999999999</v>
       </c>
@@ -21742,7 +22692,7 @@
         <v>12.000999999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A175" s="43">
         <v>14.670999999999999</v>
       </c>
@@ -21795,7 +22745,7 @@
         <v>12.000999999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A176" s="43">
         <v>14.670999999999999</v>
       </c>
@@ -21848,7 +22798,7 @@
         <v>12.000999999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A177" s="43">
         <v>14.670999999999999</v>
       </c>
@@ -21901,7 +22851,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A178" s="43">
         <v>14.535</v>
       </c>
@@ -21954,7 +22904,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A179" s="43">
         <v>14.311999999999999</v>
       </c>
@@ -22014,56 +22964,56 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:T178"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="C5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="C6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>53</v>
       </c>
@@ -22071,47 +23021,47 @@
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="29" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="20:20" x14ac:dyDescent="0.2">
       <c r="T29" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="H39" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="44" t="s">
         <v>40</v>
       </c>
@@ -22131,7 +23081,7 @@
       <c r="O43" s="35"/>
       <c r="P43" s="35"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="35">
         <v>5</v>
       </c>
@@ -22181,7 +23131,7 @@
         <v>-7.5</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="35">
         <v>10</v>
       </c>
@@ -22231,7 +23181,7 @@
         <v>-7.5</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="35">
         <v>14</v>
       </c>
@@ -22281,7 +23231,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="35">
         <v>17.5</v>
       </c>
@@ -22331,7 +23281,7 @@
         <v>-3.5</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="35">
         <v>9.5</v>
       </c>
@@ -22381,7 +23331,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="35">
         <v>10</v>
       </c>
@@ -22431,7 +23381,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="35">
         <v>16</v>
       </c>
@@ -22481,7 +23431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="35">
         <v>16</v>
       </c>
@@ -22531,7 +23481,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="35">
         <v>16</v>
       </c>
@@ -22581,7 +23531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="35">
         <v>16</v>
       </c>
@@ -22631,7 +23581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="35">
         <v>16</v>
       </c>
@@ -22681,7 +23631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="35">
         <v>17</v>
       </c>
@@ -22731,7 +23681,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="35">
         <v>19</v>
       </c>
@@ -22781,7 +23731,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="35">
         <v>21</v>
       </c>
@@ -22831,7 +23781,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="35">
         <v>21.5</v>
       </c>
@@ -22881,7 +23831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="35">
         <v>22</v>
       </c>
@@ -22931,7 +23881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="35">
         <v>22.5</v>
       </c>
@@ -22981,7 +23931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="35">
         <v>22.5</v>
       </c>
@@ -23031,7 +23981,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="35">
         <v>23.5</v>
       </c>
@@ -23081,7 +24031,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="35">
         <v>24</v>
       </c>
@@ -23131,12 +24081,12 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <v>5</v>
       </c>
@@ -23186,7 +24136,7 @@
         <v>-7.5</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>10</v>
       </c>
@@ -23236,7 +24186,7 @@
         <v>-7.5</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>14</v>
       </c>
@@ -23286,7 +24236,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>17.5</v>
       </c>
@@ -23336,7 +24286,7 @@
         <v>-3.5</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>9.5</v>
       </c>
@@ -23386,7 +24336,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>9.5</v>
       </c>
@@ -23436,7 +24386,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>15.5</v>
       </c>
@@ -23486,7 +24436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>16</v>
       </c>
@@ -23536,7 +24486,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>16</v>
       </c>
@@ -23586,7 +24536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>16</v>
       </c>
@@ -23636,7 +24586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>16</v>
       </c>
@@ -23686,7 +24636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>17</v>
       </c>
@@ -23736,7 +24686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>19</v>
       </c>
@@ -23786,7 +24736,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>21</v>
       </c>
@@ -23836,7 +24786,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>21.5</v>
       </c>
@@ -23886,7 +24836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>22</v>
       </c>
@@ -23936,7 +24886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>22.5</v>
       </c>
@@ -23986,7 +24936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>22.5</v>
       </c>
@@ -24036,7 +24986,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>23.5</v>
       </c>
@@ -24086,7 +25036,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>24</v>
       </c>
@@ -24136,12 +25086,12 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
         <v>0</v>
       </c>
@@ -24191,7 +25141,7 @@
         <v>-4.5</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>5</v>
       </c>
@@ -24241,7 +25191,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>9</v>
       </c>
@@ -24291,7 +25241,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>13</v>
       </c>
@@ -24341,7 +25291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>18</v>
       </c>
@@ -24391,7 +25341,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>23</v>
       </c>
@@ -24441,7 +25391,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>24.5</v>
       </c>
@@ -24491,7 +25441,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>27.5</v>
       </c>
@@ -24541,7 +25491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>27.5</v>
       </c>
@@ -24591,7 +25541,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>26.5</v>
       </c>
@@ -24641,7 +25591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>33</v>
       </c>
@@ -24691,7 +25641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>28</v>
       </c>
@@ -24741,7 +25691,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>25</v>
       </c>
@@ -24791,7 +25741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>23</v>
       </c>
@@ -24841,7 +25791,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>23.5</v>
       </c>
@@ -24891,7 +25841,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>24</v>
       </c>
@@ -24941,7 +25891,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>24.5</v>
       </c>
@@ -24991,7 +25941,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>24.5</v>
       </c>
@@ -25041,7 +25991,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>25.5</v>
       </c>
@@ -25091,7 +26041,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>26</v>
       </c>
@@ -25141,22 +26091,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
         <v>59</v>
       </c>
@@ -25164,7 +26114,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>0</v>
       </c>
@@ -25202,7 +26152,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>0</v>
       </c>
@@ -25240,7 +26190,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>0</v>
       </c>
@@ -25278,7 +26228,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>0</v>
       </c>
@@ -25316,7 +26266,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>0</v>
       </c>
@@ -25354,7 +26304,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>0</v>
       </c>
@@ -25392,7 +26342,7 @@
         <v>-4.5</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H141">
         <v>0</v>
       </c>
@@ -25412,7 +26362,7 @@
         <v>-4.5</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H142">
         <v>0</v>
       </c>
@@ -25432,7 +26382,7 @@
         <v>-7.5</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
         <v>61</v>
       </c>
@@ -25440,7 +26390,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>0</v>
       </c>
@@ -25478,7 +26428,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>0</v>
       </c>
@@ -25516,7 +26466,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>0</v>
       </c>
@@ -25554,7 +26504,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>0</v>
       </c>
@@ -25592,7 +26542,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>0</v>
       </c>
@@ -25630,7 +26580,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>0</v>
       </c>
@@ -25668,7 +26618,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H151">
         <v>0</v>
       </c>
@@ -25688,7 +26638,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H152">
         <v>0</v>
       </c>
@@ -25708,7 +26658,7 @@
         <v>-7.5</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
         <v>190</v>
       </c>
@@ -25716,7 +26666,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>0</v>
       </c>
@@ -25754,7 +26704,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>0</v>
       </c>
@@ -25792,7 +26742,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>0</v>
       </c>
@@ -25830,7 +26780,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>0</v>
       </c>
@@ -25868,7 +26818,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>0</v>
       </c>
@@ -25906,7 +26856,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>0</v>
       </c>
@@ -25944,7 +26894,7 @@
         <v>-4.5</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H161">
         <v>0</v>
       </c>
@@ -25964,7 +26914,7 @@
         <v>-4.5</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H162">
         <v>0</v>
       </c>
@@ -25984,32 +26934,32 @@
         <v>-7.5</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" s="20" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" s="20" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" s="7" t="s">
         <v>159</v>
       </c>
@@ -26017,7 +26967,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" s="38">
         <v>1</v>
       </c>
@@ -26055,7 +27005,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" s="38">
         <v>1</v>
       </c>
@@ -26093,7 +27043,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" s="38">
         <v>1</v>
       </c>
@@ -26131,7 +27081,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" s="38">
         <v>1</v>
       </c>
@@ -26169,7 +27119,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" s="38">
         <v>1</v>
       </c>
@@ -26207,7 +27157,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" s="38">
         <v>1</v>
       </c>
@@ -26245,7 +27195,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H176">
         <v>-10</v>
       </c>
@@ -26265,7 +27215,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>161</v>
       </c>
@@ -26288,7 +27238,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>162</v>
       </c>
@@ -26300,29 +27250,31 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AA168"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="T31" sqref="T31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="58" t="s">
         <v>174</v>
       </c>
@@ -26332,224 +27284,224 @@
       <c r="E5" s="40"/>
       <c r="F5" s="40"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="54" t="s">
         <v>173</v>
       </c>
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="54"/>
       <c r="B7" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="54" t="s">
         <v>170</v>
       </c>
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="54"/>
       <c r="B9" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="53"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="53" t="s">
         <v>171</v>
       </c>
       <c r="B12" s="42"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="53"/>
       <c r="B13" s="57" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="53" t="s">
         <v>172</v>
       </c>
       <c r="B14" s="42"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="42"/>
       <c r="B15" s="42" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="I24" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="I26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" s="27" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="AA41" s="24"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="AA42" s="24"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="AA43" s="24"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="AA44" s="24"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="AA45" s="24"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="AA46" s="24"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="AA47" s="24"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="AA48" s="24"/>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="AA49" s="24"/>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="AA50" s="24"/>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="AA51" s="24"/>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="AA52" s="24"/>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="AA53" s="24"/>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="AA54" s="24"/>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="AA55" s="24"/>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="AA56" s="24"/>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B72" s="22" t="s">
         <v>114</v>
       </c>
@@ -26557,7 +27509,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B73" s="24">
         <v>16</v>
       </c>
@@ -26631,7 +27583,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74" s="24">
         <v>500</v>
       </c>
@@ -26708,7 +27660,7 @@
         <v>94.4</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" s="24">
         <v>800</v>
       </c>
@@ -26785,7 +27737,7 @@
         <v>94.4</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76" s="24">
         <v>1000</v>
       </c>
@@ -26862,7 +27814,7 @@
         <v>94.4</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" s="24">
         <v>1250</v>
       </c>
@@ -26939,7 +27891,7 @@
         <v>94.4</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" s="24">
         <v>1500</v>
       </c>
@@ -27016,7 +27968,7 @@
         <v>96.8</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" s="24">
         <v>1750</v>
       </c>
@@ -27093,7 +28045,7 @@
         <v>99.2</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" s="24">
         <v>2000</v>
       </c>
@@ -27170,7 +28122,7 @@
         <v>99.2</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" s="24">
         <v>2500</v>
       </c>
@@ -27247,7 +28199,7 @@
         <v>94.4</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82" s="24">
         <v>2750</v>
       </c>
@@ -27324,7 +28276,7 @@
         <v>89.6</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83" s="24">
         <v>3000</v>
       </c>
@@ -27401,7 +28353,7 @@
         <v>84.8</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84" s="24">
         <v>3500</v>
       </c>
@@ -27478,7 +28430,7 @@
         <v>87.2</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85" s="24">
         <v>4000</v>
       </c>
@@ -27555,7 +28507,7 @@
         <v>90.4</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86" s="24">
         <v>4500</v>
       </c>
@@ -27632,7 +28584,7 @@
         <v>98.4</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A87" s="24">
         <v>5000</v>
       </c>
@@ -27709,7 +28661,7 @@
         <v>108.8</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88" s="24">
         <v>5500</v>
       </c>
@@ -27786,7 +28738,7 @@
         <v>108.8</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A89" s="24">
         <v>6000</v>
       </c>
@@ -27863,12 +28815,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="J91" s="22" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="H92" s="23"/>
       <c r="I92" s="24">
         <v>16</v>
@@ -27907,7 +28859,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="H93" s="24">
         <v>500</v>
       </c>
@@ -27960,7 +28912,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="H94" s="24">
         <v>800</v>
       </c>
@@ -28013,7 +28965,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="H95" s="24">
         <v>1000</v>
       </c>
@@ -28069,7 +29021,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="H96" s="24">
         <v>1250</v>
       </c>
@@ -28130,7 +29082,7 @@
       <c r="Y96" s="37"/>
       <c r="Z96" s="37"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="H97" s="24">
         <v>1500</v>
       </c>
@@ -28183,7 +29135,7 @@
         <v>103.19999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="H98" s="24">
         <v>1750</v>
       </c>
@@ -28236,7 +29188,7 @@
         <v>104.4</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="H99" s="24">
         <v>2000</v>
       </c>
@@ -28289,7 +29241,7 @@
         <v>104.4</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="H100" s="24">
         <v>2500</v>
       </c>
@@ -28342,7 +29294,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="H101" s="24">
         <v>2750</v>
       </c>
@@ -28395,7 +29347,7 @@
         <v>97.199999999999989</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="H102" s="24">
         <v>3000</v>
       </c>
@@ -28448,7 +29400,7 @@
         <v>91.6</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="H103" s="24">
         <v>3500</v>
       </c>
@@ -28501,7 +29453,7 @@
         <v>95.2</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="H104" s="24">
         <v>4000</v>
       </c>
@@ -28554,7 +29506,7 @@
         <v>101.6</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="H105" s="24">
         <v>4500</v>
       </c>
@@ -28607,7 +29559,7 @@
         <v>105.6</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="H106" s="24">
         <v>5000</v>
       </c>
@@ -28660,7 +29612,7 @@
         <v>110.4</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="H107" s="24">
         <v>5500</v>
       </c>
@@ -28713,7 +29665,7 @@
         <v>110.4</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="H108" s="24">
         <v>6000</v>
       </c>
@@ -28766,12 +29718,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B112" s="7" t="s">
         <v>94</v>
       </c>
@@ -28779,7 +29731,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="113" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B113">
         <v>132</v>
       </c>
@@ -28853,7 +29805,7 @@
         <v>87.2</v>
       </c>
     </row>
-    <row r="114" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B114">
         <v>130.4</v>
       </c>
@@ -28927,7 +29879,7 @@
         <v>87.2</v>
       </c>
     </row>
-    <row r="115" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B115">
         <v>130.4</v>
       </c>
@@ -29001,7 +29953,7 @@
         <v>87.2</v>
       </c>
     </row>
-    <row r="116" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B116">
         <v>130.4</v>
       </c>
@@ -29075,7 +30027,7 @@
         <v>87.2</v>
       </c>
     </row>
-    <row r="117" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B117">
         <v>130.4</v>
       </c>
@@ -29149,7 +30101,7 @@
         <v>87.2</v>
       </c>
     </row>
-    <row r="118" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B118">
         <v>120</v>
       </c>
@@ -29223,7 +30175,7 @@
         <v>87.2</v>
       </c>
     </row>
-    <row r="119" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B119">
         <v>113.6</v>
       </c>
@@ -29297,7 +30249,7 @@
         <v>87.2</v>
       </c>
     </row>
-    <row r="120" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B120">
         <v>110.4</v>
       </c>
@@ -29371,7 +30323,7 @@
         <v>87.2</v>
       </c>
     </row>
-    <row r="121" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B121">
         <v>110.4</v>
       </c>
@@ -29445,7 +30397,7 @@
         <v>95.2</v>
       </c>
     </row>
-    <row r="122" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B122">
         <v>110.4</v>
       </c>
@@ -29519,7 +30471,7 @@
         <v>103.2</v>
       </c>
     </row>
-    <row r="123" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B123">
         <v>110.4</v>
       </c>
@@ -29593,7 +30545,7 @@
         <v>108.8</v>
       </c>
     </row>
-    <row r="124" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B124">
         <v>110.4</v>
       </c>
@@ -29667,7 +30619,7 @@
         <v>109.6</v>
       </c>
     </row>
-    <row r="125" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B125">
         <v>110.4</v>
       </c>
@@ -29741,7 +30693,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="126" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B126">
         <v>110.4</v>
       </c>
@@ -29815,7 +30767,7 @@
         <v>112.8</v>
       </c>
     </row>
-    <row r="127" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B127">
         <v>110.4</v>
       </c>
@@ -29889,7 +30841,7 @@
         <v>115.2</v>
       </c>
     </row>
-    <row r="128" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B128">
         <v>110.4</v>
       </c>
@@ -29963,17 +30915,17 @@
         <v>116.8</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B132" s="22" t="s">
         <v>43</v>
       </c>
@@ -29981,7 +30933,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B133" s="24">
         <v>16</v>
       </c>
@@ -30055,7 +31007,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B134">
         <v>132</v>
       </c>
@@ -30129,7 +31081,7 @@
         <v>87.2</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B135">
         <v>130.4</v>
       </c>
@@ -30203,7 +31155,7 @@
         <v>87.2</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B136">
         <v>130.4</v>
       </c>
@@ -30277,7 +31229,7 @@
         <v>87.2</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B137">
         <v>130.4</v>
       </c>
@@ -30351,7 +31303,7 @@
         <v>87.2</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B138">
         <v>130.4</v>
       </c>
@@ -30425,7 +31377,7 @@
         <v>87.2</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B139">
         <v>130.4</v>
       </c>
@@ -30499,7 +31451,7 @@
         <v>87.2</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B140">
         <v>130.4</v>
       </c>
@@ -30573,7 +31525,7 @@
         <v>87.2</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B141">
         <v>130.4</v>
       </c>
@@ -30647,7 +31599,7 @@
         <v>87.2</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B142">
         <v>130.4</v>
       </c>
@@ -30721,7 +31673,7 @@
         <v>95.2</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B143">
         <v>130.4</v>
       </c>
@@ -30795,7 +31747,7 @@
         <v>103.2</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B144">
         <v>130.4</v>
       </c>
@@ -30869,7 +31821,7 @@
         <v>108.8</v>
       </c>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B145">
         <v>130.4</v>
       </c>
@@ -30943,7 +31895,7 @@
         <v>109.6</v>
       </c>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B146">
         <v>130.4</v>
       </c>
@@ -31017,7 +31969,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B147">
         <v>130.4</v>
       </c>
@@ -31091,7 +32043,7 @@
         <v>112.8</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B148">
         <v>130.4</v>
       </c>
@@ -31165,7 +32117,7 @@
         <v>115.2</v>
       </c>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B149">
         <v>130.4</v>
       </c>
@@ -31239,12 +32191,12 @@
         <v>116.8</v>
       </c>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>178</v>
       </c>
@@ -31252,7 +32204,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B153">
         <v>132</v>
       </c>
@@ -31326,7 +32278,7 @@
         <v>87.2</v>
       </c>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B154">
         <v>130.4</v>
       </c>
@@ -31400,7 +32352,7 @@
         <v>87.2</v>
       </c>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B155">
         <v>130.4</v>
       </c>
@@ -31474,7 +32426,7 @@
         <v>87.2</v>
       </c>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B156">
         <v>130.4</v>
       </c>
@@ -31548,7 +32500,7 @@
         <v>87.2</v>
       </c>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B157">
         <v>130.4</v>
       </c>
@@ -31622,7 +32574,7 @@
         <v>87.2</v>
       </c>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B158">
         <v>120</v>
       </c>
@@ -31696,7 +32648,7 @@
         <v>87.2</v>
       </c>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B159">
         <v>113.6</v>
       </c>
@@ -31770,7 +32722,7 @@
         <v>87.2</v>
       </c>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B160">
         <v>110.4</v>
       </c>
@@ -31844,7 +32796,7 @@
         <v>89.6</v>
       </c>
     </row>
-    <row r="161" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B161">
         <v>110.4</v>
       </c>
@@ -31918,7 +32870,7 @@
         <v>89.6</v>
       </c>
     </row>
-    <row r="162" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B162">
         <v>110.4</v>
       </c>
@@ -31992,7 +32944,7 @@
         <v>98.4</v>
       </c>
     </row>
-    <row r="163" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B163">
         <v>110.4</v>
       </c>
@@ -32066,7 +33018,7 @@
         <v>104.8</v>
       </c>
     </row>
-    <row r="164" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B164">
         <v>110.4</v>
       </c>
@@ -32140,7 +33092,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="165" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B165">
         <v>110.4</v>
       </c>
@@ -32214,7 +33166,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="166" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B166">
         <v>110.4</v>
       </c>
@@ -32288,7 +33240,7 @@
         <v>114.4</v>
       </c>
     </row>
-    <row r="167" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B167">
         <v>110.4</v>
       </c>
@@ -32362,7 +33314,7 @@
         <v>117.6</v>
       </c>
     </row>
-    <row r="168" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B168">
         <v>110.4</v>
       </c>
